--- a/WoT.xlsx
+++ b/WoT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="172">
   <si>
     <t>湖の村</t>
   </si>
@@ -751,6 +751,10 @@
     <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>win rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +941,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,8 +1084,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,18 +1189,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,19 +1210,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="58">
     <cellStyle name="パーセント" xfId="11" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
@@ -1216,6 +1253,11 @@
     <cellStyle name="ハイパーリンク" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1240,6 +1282,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="57" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1652,6 +1699,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2113,11 +2161,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2124094360"/>
-        <c:axId val="2124097832"/>
+        <c:axId val="2116678936"/>
+        <c:axId val="2116682408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124094360"/>
+        <c:axId val="2116678936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2208,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124097832"/>
+        <c:crossAx val="2116682408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2168,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124097832"/>
+        <c:axId val="2116682408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2226,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124094360"/>
+        <c:crossAx val="2116678936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2192,6 +2240,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2364,6 +2413,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2728,11 +2778,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="2124127368"/>
-        <c:axId val="2124137480"/>
+        <c:axId val="2116710920"/>
+        <c:axId val="2116721032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124127368"/>
+        <c:axId val="2116710920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,7 +2824,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124137480"/>
+        <c:crossAx val="2116721032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2782,7 +2832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124137480"/>
+        <c:axId val="2116721032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2842,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124127368"/>
+        <c:crossAx val="2116710920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4638,11 +4688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2126862760"/>
-        <c:axId val="2126866200"/>
+        <c:axId val="2115892680"/>
+        <c:axId val="2116572120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126862760"/>
+        <c:axId val="2115892680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4684,7 +4734,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126866200"/>
+        <c:crossAx val="2116572120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4692,7 +4742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126866200"/>
+        <c:axId val="2116572120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4702,7 +4752,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126862760"/>
+        <c:crossAx val="2115892680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5375,8 +5425,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="2123872632"/>
-        <c:axId val="2123876104"/>
+        <c:axId val="2115994632"/>
+        <c:axId val="2115998024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5494,11 +5544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123883032"/>
-        <c:axId val="2123879400"/>
+        <c:axId val="2116004984"/>
+        <c:axId val="2116001352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2123872632"/>
+        <c:axId val="2115994632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5542,14 +5592,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123876104"/>
+        <c:crossAx val="2115998024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2123876104"/>
+        <c:axId val="2115998024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,12 +5642,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="2123872632"/>
+        <c:crossAx val="2115994632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123879400"/>
+        <c:axId val="2116001352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,12 +5686,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123883032"/>
+        <c:crossAx val="2116004984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2123883032"/>
+        <c:axId val="2116004984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,7 +5700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="2123879400"/>
+        <c:crossAx val="2116001352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5966,8 +6016,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2123931928"/>
-        <c:axId val="2123935448"/>
+        <c:axId val="2115185032"/>
+        <c:axId val="2115180968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6148,11 +6198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123931928"/>
-        <c:axId val="2123935448"/>
+        <c:axId val="2115185032"/>
+        <c:axId val="2115180968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2123931928"/>
+        <c:axId val="2115185032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,14 +6244,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123935448"/>
+        <c:crossAx val="2115180968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2123935448"/>
+        <c:axId val="2115180968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6251,7 +6301,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123931928"/>
+        <c:crossAx val="2115185032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6402,6 +6452,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6657,8 +6708,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-25"/>
-        <c:axId val="2123980712"/>
-        <c:axId val="2123984232"/>
+        <c:axId val="2115137688"/>
+        <c:axId val="2115133624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6773,11 +6824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123980712"/>
-        <c:axId val="2123984232"/>
+        <c:axId val="2115137688"/>
+        <c:axId val="2115133624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2123980712"/>
+        <c:axId val="2115137688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6819,14 +6870,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123984232"/>
+        <c:crossAx val="2115133624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2123984232"/>
+        <c:axId val="2115133624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6876,7 +6927,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123980712"/>
+        <c:crossAx val="2115137688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6890,6 +6941,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7022,6 +7074,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7746,11 +7799,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2124034296"/>
-        <c:axId val="2124037736"/>
+        <c:axId val="2116612920"/>
+        <c:axId val="2116616360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124034296"/>
+        <c:axId val="2116612920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7792,7 +7845,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124037736"/>
+        <c:crossAx val="2116616360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7800,7 +7853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124037736"/>
+        <c:axId val="2116616360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7810,7 +7863,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124034296"/>
+        <c:crossAx val="2116612920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7824,6 +7877,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14214,7 +14268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14249,10 +14303,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z555"/>
+  <dimension ref="A1:Z558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="D537" sqref="D537:D539"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="D550" sqref="D550:W556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -14269,38 +14323,38 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="25" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="27"/>
+      <c r="X1" s="35"/>
     </row>
     <row r="2" spans="2:24" ht="44">
       <c r="B2" s="1"/>
@@ -14377,7 +14431,7 @@
     </row>
     <row r="3" spans="2:24">
       <c r="B3" s="1"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -14460,7 +14514,7 @@
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="1"/>
-      <c r="C4" s="28"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
@@ -14532,7 +14586,7 @@
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="1"/>
-      <c r="C5" s="28"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -14604,7 +14658,7 @@
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="1"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
@@ -14676,7 +14730,7 @@
     </row>
     <row r="7" spans="2:24">
       <c r="B7" s="1"/>
-      <c r="C7" s="28"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
@@ -14748,7 +14802,7 @@
     </row>
     <row r="8" spans="2:24">
       <c r="B8" s="1"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
@@ -14820,7 +14874,7 @@
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="1"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
@@ -14892,7 +14946,7 @@
     </row>
     <row r="10" spans="2:24">
       <c r="B10" s="1"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -14963,7 +15017,7 @@
     </row>
     <row r="11" spans="2:24">
       <c r="B11" s="1"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
@@ -15032,7 +15086,7 @@
     </row>
     <row r="12" spans="2:24">
       <c r="B12" s="1"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -15103,7 +15157,7 @@
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="1"/>
-      <c r="C13" s="28"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
@@ -15172,7 +15226,7 @@
     </row>
     <row r="14" spans="2:24">
       <c r="B14" s="1"/>
-      <c r="C14" s="28"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
@@ -15241,7 +15295,7 @@
     </row>
     <row r="15" spans="2:24">
       <c r="B15" s="1"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -15312,7 +15366,7 @@
     </row>
     <row r="16" spans="2:24">
       <c r="B16" s="1"/>
-      <c r="C16" s="28"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="1" t="s">
         <v>82</v>
       </c>
@@ -15381,7 +15435,7 @@
     </row>
     <row r="17" spans="2:24">
       <c r="B17" s="1"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -15452,7 +15506,7 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="1"/>
-      <c r="C18" s="28"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
@@ -15521,7 +15575,7 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="1"/>
-      <c r="C19" s="28"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
@@ -15590,7 +15644,7 @@
     </row>
     <row r="20" spans="2:24">
       <c r="B20" s="1"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
@@ -15659,7 +15713,7 @@
     </row>
     <row r="21" spans="2:24">
       <c r="B21" s="1"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
@@ -15728,7 +15782,7 @@
     </row>
     <row r="22" spans="2:24">
       <c r="B22" s="1"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
@@ -15797,7 +15851,7 @@
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
@@ -15866,7 +15920,7 @@
     </row>
     <row r="24" spans="2:24">
       <c r="B24" s="1"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="1" t="s">
         <v>54</v>
       </c>
@@ -15935,7 +15989,7 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="1"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
@@ -16004,7 +16058,7 @@
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="1"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
@@ -16073,7 +16127,7 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="1"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
@@ -16142,7 +16196,7 @@
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="1"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -16211,7 +16265,7 @@
     </row>
     <row r="29" spans="2:24">
       <c r="B29" s="1"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
@@ -16280,7 +16334,7 @@
     </row>
     <row r="30" spans="2:24">
       <c r="B30" s="1"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
@@ -16349,7 +16403,7 @@
     </row>
     <row r="31" spans="2:24">
       <c r="B31" s="1"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
@@ -16418,7 +16472,7 @@
     </row>
     <row r="32" spans="2:24">
       <c r="B32" s="1"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="1" t="s">
         <v>58</v>
       </c>
@@ -16487,7 +16541,7 @@
     </row>
     <row r="33" spans="2:24">
       <c r="B33" s="1"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="1" t="s">
         <v>48</v>
       </c>
@@ -16556,7 +16610,7 @@
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="1"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
@@ -16625,7 +16679,7 @@
     </row>
     <row r="35" spans="2:24">
       <c r="B35" s="1"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
@@ -16694,7 +16748,7 @@
     </row>
     <row r="36" spans="2:24">
       <c r="B36" s="1"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="1" t="s">
         <v>2</v>
       </c>
@@ -16763,7 +16817,7 @@
     </row>
     <row r="37" spans="2:24">
       <c r="B37" s="1"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
@@ -16832,7 +16886,7 @@
     </row>
     <row r="38" spans="2:24">
       <c r="B38" s="1"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
@@ -16901,7 +16955,7 @@
     </row>
     <row r="39" spans="2:24">
       <c r="B39" s="1"/>
-      <c r="C39" s="28"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
@@ -16970,7 +17024,7 @@
     </row>
     <row r="40" spans="2:24">
       <c r="B40" s="1"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
@@ -17039,7 +17093,7 @@
     </row>
     <row r="41" spans="2:24">
       <c r="B41" s="1"/>
-      <c r="C41" s="28"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
@@ -17108,7 +17162,7 @@
     </row>
     <row r="42" spans="2:24">
       <c r="B42" s="1"/>
-      <c r="C42" s="28"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="1" t="s">
         <v>55</v>
       </c>
@@ -17177,7 +17231,7 @@
     </row>
     <row r="43" spans="2:24">
       <c r="B43" s="1"/>
-      <c r="C43" s="28"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="1" t="s">
         <v>75</v>
       </c>
@@ -17246,7 +17300,7 @@
     </row>
     <row r="44" spans="2:24">
       <c r="B44" s="1"/>
-      <c r="C44" s="28"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
@@ -17315,7 +17369,7 @@
     </row>
     <row r="45" spans="2:24">
       <c r="B45" s="1"/>
-      <c r="C45" s="28"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="1" t="s">
         <v>65</v>
       </c>
@@ -17384,7 +17438,7 @@
     </row>
     <row r="46" spans="2:24">
       <c r="B46" s="1"/>
-      <c r="C46" s="28"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="1" t="s">
         <v>52</v>
       </c>
@@ -17453,7 +17507,7 @@
     </row>
     <row r="47" spans="2:24">
       <c r="B47" s="1"/>
-      <c r="C47" s="28"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="1" t="s">
         <v>53</v>
       </c>
@@ -17522,7 +17576,7 @@
     </row>
     <row r="48" spans="2:24">
       <c r="B48" s="1"/>
-      <c r="C48" s="28"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="1" t="s">
         <v>60</v>
       </c>
@@ -17591,7 +17645,7 @@
     </row>
     <row r="49" spans="2:24">
       <c r="B49" s="1"/>
-      <c r="C49" s="28"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="1" t="s">
         <v>68</v>
       </c>
@@ -17660,7 +17714,7 @@
     </row>
     <row r="50" spans="2:24">
       <c r="B50" s="1"/>
-      <c r="C50" s="28"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="1" t="s">
         <v>71</v>
       </c>
@@ -17729,7 +17783,7 @@
     </row>
     <row r="51" spans="2:24">
       <c r="B51" s="1"/>
-      <c r="C51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="1" t="s">
         <v>73</v>
       </c>
@@ -17798,7 +17852,7 @@
     </row>
     <row r="52" spans="2:24">
       <c r="B52" s="1"/>
-      <c r="C52" s="28"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="1" t="s">
         <v>59</v>
       </c>
@@ -17867,7 +17921,7 @@
     </row>
     <row r="53" spans="2:24">
       <c r="B53" s="1"/>
-      <c r="C53" s="28"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="1" t="s">
         <v>74</v>
       </c>
@@ -18014,7 +18068,7 @@
     </row>
     <row r="56" spans="2:24">
       <c r="B56" s="4"/>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -18082,7 +18136,7 @@
     </row>
     <row r="57" spans="2:24">
       <c r="B57" s="4"/>
-      <c r="C57" s="28"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="9" t="s">
         <v>70</v>
       </c>
@@ -18148,7 +18202,7 @@
     </row>
     <row r="58" spans="2:24">
       <c r="B58" s="4"/>
-      <c r="C58" s="28"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="9" t="s">
         <v>69</v>
       </c>
@@ -18214,7 +18268,7 @@
     </row>
     <row r="59" spans="2:24">
       <c r="B59" s="4"/>
-      <c r="C59" s="28"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="9" t="s">
         <v>3</v>
       </c>
@@ -18280,7 +18334,7 @@
     </row>
     <row r="60" spans="2:24">
       <c r="B60" s="4"/>
-      <c r="C60" s="28"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="9" t="s">
         <v>57</v>
       </c>
@@ -18346,7 +18400,7 @@
     </row>
     <row r="61" spans="2:24">
       <c r="B61" s="4"/>
-      <c r="C61" s="28"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="9" t="s">
         <v>0</v>
       </c>
@@ -18412,7 +18466,7 @@
     </row>
     <row r="62" spans="2:24">
       <c r="B62" s="4"/>
-      <c r="C62" s="28"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="9" t="s">
         <v>44</v>
       </c>
@@ -18478,7 +18532,7 @@
     </row>
     <row r="63" spans="2:24">
       <c r="B63" s="4"/>
-      <c r="C63" s="28"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="9" t="s">
         <v>54</v>
       </c>
@@ -18544,7 +18598,7 @@
     </row>
     <row r="64" spans="2:24">
       <c r="B64" s="4"/>
-      <c r="C64" s="28"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="9" t="s">
         <v>61</v>
       </c>
@@ -18610,7 +18664,7 @@
     </row>
     <row r="65" spans="2:24">
       <c r="B65" s="4"/>
-      <c r="C65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="9" t="s">
         <v>62</v>
       </c>
@@ -18676,7 +18730,7 @@
     </row>
     <row r="66" spans="2:24">
       <c r="B66" s="4"/>
-      <c r="C66" s="28"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="9" t="s">
         <v>67</v>
       </c>
@@ -18742,7 +18796,7 @@
     </row>
     <row r="67" spans="2:24">
       <c r="B67" s="4"/>
-      <c r="C67" s="28"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="9" t="s">
         <v>46</v>
       </c>
@@ -18808,7 +18862,7 @@
     </row>
     <row r="68" spans="2:24">
       <c r="B68" s="4"/>
-      <c r="C68" s="28"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="9" t="s">
         <v>56</v>
       </c>
@@ -18874,7 +18928,7 @@
     </row>
     <row r="69" spans="2:24">
       <c r="B69" s="4"/>
-      <c r="C69" s="28"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="9" t="s">
         <v>72</v>
       </c>
@@ -18940,7 +18994,7 @@
     </row>
     <row r="70" spans="2:24">
       <c r="B70" s="4"/>
-      <c r="C70" s="28"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="9" t="s">
         <v>66</v>
       </c>
@@ -19006,7 +19060,7 @@
     </row>
     <row r="71" spans="2:24">
       <c r="B71" s="4"/>
-      <c r="C71" s="28"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="9" t="s">
         <v>58</v>
       </c>
@@ -19072,7 +19126,7 @@
     </row>
     <row r="72" spans="2:24">
       <c r="B72" s="4"/>
-      <c r="C72" s="28"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="9" t="s">
         <v>48</v>
       </c>
@@ -19138,7 +19192,7 @@
     </row>
     <row r="73" spans="2:24">
       <c r="B73" s="4"/>
-      <c r="C73" s="28"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="9" t="s">
         <v>47</v>
       </c>
@@ -19204,7 +19258,7 @@
     </row>
     <row r="74" spans="2:24">
       <c r="B74" s="4"/>
-      <c r="C74" s="28"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="9" t="s">
         <v>1</v>
       </c>
@@ -19270,7 +19324,7 @@
     </row>
     <row r="75" spans="2:24">
       <c r="B75" s="4"/>
-      <c r="C75" s="28"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="9" t="s">
         <v>2</v>
       </c>
@@ -19336,7 +19390,7 @@
     </row>
     <row r="76" spans="2:24">
       <c r="B76" s="4"/>
-      <c r="C76" s="28"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="9" t="s">
         <v>4</v>
       </c>
@@ -19402,7 +19456,7 @@
     </row>
     <row r="77" spans="2:24">
       <c r="B77" s="4"/>
-      <c r="C77" s="28"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="9" t="s">
         <v>45</v>
       </c>
@@ -19468,7 +19522,7 @@
     </row>
     <row r="78" spans="2:24">
       <c r="B78" s="4"/>
-      <c r="C78" s="28"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="9" t="s">
         <v>50</v>
       </c>
@@ -19534,7 +19588,7 @@
     </row>
     <row r="79" spans="2:24">
       <c r="B79" s="4"/>
-      <c r="C79" s="28"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="9" t="s">
         <v>49</v>
       </c>
@@ -19600,7 +19654,7 @@
     </row>
     <row r="80" spans="2:24">
       <c r="B80" s="4"/>
-      <c r="C80" s="28"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="9" t="s">
         <v>51</v>
       </c>
@@ -19666,7 +19720,7 @@
     </row>
     <row r="81" spans="2:24">
       <c r="B81" s="4"/>
-      <c r="C81" s="28"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="9" t="s">
         <v>55</v>
       </c>
@@ -19732,7 +19786,7 @@
     </row>
     <row r="82" spans="2:24">
       <c r="B82" s="4"/>
-      <c r="C82" s="28"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="9" t="s">
         <v>75</v>
       </c>
@@ -19798,7 +19852,7 @@
     </row>
     <row r="83" spans="2:24">
       <c r="B83" s="4"/>
-      <c r="C83" s="28"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="9" t="s">
         <v>64</v>
       </c>
@@ -19864,7 +19918,7 @@
     </row>
     <row r="84" spans="2:24">
       <c r="B84" s="4"/>
-      <c r="C84" s="28"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="9" t="s">
         <v>65</v>
       </c>
@@ -19930,7 +19984,7 @@
     </row>
     <row r="85" spans="2:24">
       <c r="B85" s="4"/>
-      <c r="C85" s="28"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="9" t="s">
         <v>52</v>
       </c>
@@ -19996,7 +20050,7 @@
     </row>
     <row r="86" spans="2:24">
       <c r="B86" s="4"/>
-      <c r="C86" s="28"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="9" t="s">
         <v>53</v>
       </c>
@@ -20062,7 +20116,7 @@
     </row>
     <row r="87" spans="2:24">
       <c r="B87" s="4"/>
-      <c r="C87" s="28"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="9" t="s">
         <v>60</v>
       </c>
@@ -20128,7 +20182,7 @@
     </row>
     <row r="88" spans="2:24">
       <c r="B88" s="4"/>
-      <c r="C88" s="28"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="9" t="s">
         <v>68</v>
       </c>
@@ -20194,7 +20248,7 @@
     </row>
     <row r="89" spans="2:24">
       <c r="B89" s="4"/>
-      <c r="C89" s="28"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="9" t="s">
         <v>71</v>
       </c>
@@ -20260,7 +20314,7 @@
     </row>
     <row r="90" spans="2:24">
       <c r="B90" s="4"/>
-      <c r="C90" s="28"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="9" t="s">
         <v>73</v>
       </c>
@@ -20326,7 +20380,7 @@
     </row>
     <row r="91" spans="2:24">
       <c r="B91" s="4"/>
-      <c r="C91" s="28"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="9" t="s">
         <v>59</v>
       </c>
@@ -20391,7 +20445,7 @@
       <c r="X91" s="4"/>
     </row>
     <row r="92" spans="2:24">
-      <c r="C92" s="28"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="9" t="s">
         <v>74</v>
       </c>
@@ -20668,7 +20722,7 @@
       <c r="W99" s="4"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D100" s="14" t="s">
@@ -20752,7 +20806,7 @@
       </c>
     </row>
     <row r="101" spans="1:26">
-      <c r="C101" s="28"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="14" t="s">
         <v>124</v>
       </c>
@@ -20835,7 +20889,7 @@
       <c r="X101" s="4"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="C102" s="28"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="14" t="s">
         <v>125</v>
       </c>
@@ -20918,7 +20972,7 @@
       <c r="X102" s="4"/>
     </row>
     <row r="103" spans="1:26">
-      <c r="C103" s="28"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="14" t="s">
         <v>127</v>
       </c>
@@ -21001,7 +21055,7 @@
       <c r="X103" s="4"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="C104" s="28"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="14" t="s">
         <v>122</v>
       </c>
@@ -21087,7 +21141,7 @@
       </c>
     </row>
     <row r="105" spans="1:26">
-      <c r="C105" s="28"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="14" t="s">
         <v>124</v>
       </c>
@@ -21173,7 +21227,7 @@
       </c>
     </row>
     <row r="106" spans="1:26">
-      <c r="C106" s="28"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="14" t="s">
         <v>127</v>
       </c>
@@ -21683,7 +21737,7 @@
     <row r="114" spans="1:24">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D114" s="1" t="str">
@@ -21720,7 +21774,7 @@
     <row r="115" spans="1:24">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="30"/>
+      <c r="C115" s="29"/>
       <c r="D115" s="1" t="str">
         <f>F2</f>
         <v>defeat</v>
@@ -21755,7 +21809,7 @@
     <row r="116" spans="1:24">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="30"/>
+      <c r="C116" s="29"/>
       <c r="D116" s="1" t="str">
         <f>G2</f>
         <v>victory</v>
@@ -21790,7 +21844,7 @@
     <row r="117" spans="1:24">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="30"/>
+      <c r="C117" s="29"/>
       <c r="D117" s="14" t="s">
         <v>123</v>
       </c>
@@ -21875,7 +21929,7 @@
     <row r="118" spans="1:24">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="31"/>
+      <c r="C118" s="30"/>
       <c r="D118" s="9" t="s">
         <v>98</v>
       </c>
@@ -21966,7 +22020,7 @@
         <f t="shared" ref="B119:B152" si="61">$D$114</f>
         <v>draw</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -22005,7 +22059,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C120" s="28"/>
+      <c r="C120" s="31"/>
       <c r="D120" s="1" t="s">
         <v>30</v>
       </c>
@@ -22042,7 +22096,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C121" s="28"/>
+      <c r="C121" s="31"/>
       <c r="D121" s="1" t="s">
         <v>31</v>
       </c>
@@ -22079,7 +22133,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C122" s="28"/>
+      <c r="C122" s="31"/>
       <c r="D122" s="1" t="s">
         <v>32</v>
       </c>
@@ -22116,7 +22170,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C123" s="28"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="1" t="s">
         <v>33</v>
       </c>
@@ -22153,7 +22207,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C124" s="28"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="1" t="s">
         <v>34</v>
       </c>
@@ -22190,7 +22244,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C125" s="28"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="1" t="s">
         <v>35</v>
       </c>
@@ -22227,7 +22281,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D126" s="12" t="s">
@@ -22266,7 +22320,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C127" s="31"/>
+      <c r="C127" s="30"/>
       <c r="D127" s="12" t="s">
         <v>118</v>
       </c>
@@ -22303,7 +22357,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -22342,7 +22396,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C129" s="31"/>
+      <c r="C129" s="30"/>
       <c r="D129" s="1" t="s">
         <v>39</v>
       </c>
@@ -22379,7 +22433,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C130" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -22418,7 +22472,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C131" s="30"/>
+      <c r="C131" s="29"/>
       <c r="D131" s="1" t="s">
         <v>79</v>
       </c>
@@ -22455,7 +22509,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C132" s="31"/>
+      <c r="C132" s="30"/>
       <c r="D132" s="1" t="s">
         <v>77</v>
       </c>
@@ -22492,7 +22546,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C133" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -22531,7 +22585,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C134" s="31"/>
+      <c r="C134" s="30"/>
       <c r="D134" s="1" t="s">
         <v>82</v>
       </c>
@@ -22568,7 +22622,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C135" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -22607,7 +22661,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C136" s="30"/>
+      <c r="C136" s="29"/>
       <c r="D136" s="1" t="s">
         <v>70</v>
       </c>
@@ -22644,7 +22698,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C137" s="30"/>
+      <c r="C137" s="29"/>
       <c r="D137" s="1" t="s">
         <v>69</v>
       </c>
@@ -22681,7 +22735,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C138" s="30"/>
+      <c r="C138" s="29"/>
       <c r="D138" s="1" t="s">
         <v>3</v>
       </c>
@@ -22718,7 +22772,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C139" s="30"/>
+      <c r="C139" s="29"/>
       <c r="D139" s="1" t="s">
         <v>57</v>
       </c>
@@ -22755,7 +22809,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C140" s="30"/>
+      <c r="C140" s="29"/>
       <c r="D140" s="1" t="s">
         <v>0</v>
       </c>
@@ -22792,7 +22846,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C141" s="30"/>
+      <c r="C141" s="29"/>
       <c r="D141" s="1" t="s">
         <v>44</v>
       </c>
@@ -22829,7 +22883,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C142" s="30"/>
+      <c r="C142" s="29"/>
       <c r="D142" s="1" t="s">
         <v>54</v>
       </c>
@@ -22866,7 +22920,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C143" s="30"/>
+      <c r="C143" s="29"/>
       <c r="D143" s="1" t="s">
         <v>61</v>
       </c>
@@ -22903,7 +22957,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C144" s="30"/>
+      <c r="C144" s="29"/>
       <c r="D144" s="1" t="s">
         <v>62</v>
       </c>
@@ -22940,7 +22994,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C145" s="30"/>
+      <c r="C145" s="29"/>
       <c r="D145" s="1" t="s">
         <v>67</v>
       </c>
@@ -22977,7 +23031,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C146" s="30"/>
+      <c r="C146" s="29"/>
       <c r="D146" s="1" t="s">
         <v>46</v>
       </c>
@@ -23014,7 +23068,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C147" s="30"/>
+      <c r="C147" s="29"/>
       <c r="D147" s="1" t="s">
         <v>56</v>
       </c>
@@ -23051,7 +23105,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C148" s="30"/>
+      <c r="C148" s="29"/>
       <c r="D148" s="1" t="s">
         <v>72</v>
       </c>
@@ -23088,7 +23142,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C149" s="30"/>
+      <c r="C149" s="29"/>
       <c r="D149" s="1" t="s">
         <v>66</v>
       </c>
@@ -23125,7 +23179,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C150" s="30"/>
+      <c r="C150" s="29"/>
       <c r="D150" s="1" t="s">
         <v>58</v>
       </c>
@@ -23162,7 +23216,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C151" s="30"/>
+      <c r="C151" s="29"/>
       <c r="D151" s="1" t="s">
         <v>48</v>
       </c>
@@ -23199,7 +23253,7 @@
         <f t="shared" si="61"/>
         <v>draw</v>
       </c>
-      <c r="C152" s="30"/>
+      <c r="C152" s="29"/>
       <c r="D152" s="1" t="s">
         <v>47</v>
       </c>
@@ -23236,7 +23290,7 @@
         <f t="shared" ref="B153:B171" si="65">$D$114</f>
         <v>draw</v>
       </c>
-      <c r="C153" s="30"/>
+      <c r="C153" s="29"/>
       <c r="D153" s="1" t="s">
         <v>1</v>
       </c>
@@ -23273,7 +23327,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C154" s="30"/>
+      <c r="C154" s="29"/>
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
@@ -23310,7 +23364,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C155" s="30"/>
+      <c r="C155" s="29"/>
       <c r="D155" s="1" t="s">
         <v>4</v>
       </c>
@@ -23347,7 +23401,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C156" s="30"/>
+      <c r="C156" s="29"/>
       <c r="D156" s="1" t="s">
         <v>45</v>
       </c>
@@ -23384,7 +23438,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C157" s="30"/>
+      <c r="C157" s="29"/>
       <c r="D157" s="1" t="s">
         <v>50</v>
       </c>
@@ -23421,7 +23475,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C158" s="30"/>
+      <c r="C158" s="29"/>
       <c r="D158" s="1" t="s">
         <v>49</v>
       </c>
@@ -23458,7 +23512,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C159" s="30"/>
+      <c r="C159" s="29"/>
       <c r="D159" s="1" t="s">
         <v>51</v>
       </c>
@@ -23495,7 +23549,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C160" s="30"/>
+      <c r="C160" s="29"/>
       <c r="D160" s="1" t="s">
         <v>55</v>
       </c>
@@ -23532,7 +23586,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C161" s="30"/>
+      <c r="C161" s="29"/>
       <c r="D161" s="1" t="s">
         <v>75</v>
       </c>
@@ -23569,7 +23623,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C162" s="30"/>
+      <c r="C162" s="29"/>
       <c r="D162" s="1" t="s">
         <v>64</v>
       </c>
@@ -23606,7 +23660,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C163" s="30"/>
+      <c r="C163" s="29"/>
       <c r="D163" s="1" t="s">
         <v>65</v>
       </c>
@@ -23643,7 +23697,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C164" s="30"/>
+      <c r="C164" s="29"/>
       <c r="D164" s="1" t="s">
         <v>52</v>
       </c>
@@ -23680,7 +23734,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C165" s="30"/>
+      <c r="C165" s="29"/>
       <c r="D165" s="1" t="s">
         <v>53</v>
       </c>
@@ -23717,7 +23771,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C166" s="30"/>
+      <c r="C166" s="29"/>
       <c r="D166" s="1" t="s">
         <v>60</v>
       </c>
@@ -23754,7 +23808,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C167" s="30"/>
+      <c r="C167" s="29"/>
       <c r="D167" s="1" t="s">
         <v>68</v>
       </c>
@@ -23791,7 +23845,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C168" s="30"/>
+      <c r="C168" s="29"/>
       <c r="D168" s="1" t="s">
         <v>71</v>
       </c>
@@ -23828,7 +23882,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C169" s="30"/>
+      <c r="C169" s="29"/>
       <c r="D169" s="1" t="s">
         <v>73</v>
       </c>
@@ -23865,7 +23919,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C170" s="30"/>
+      <c r="C170" s="29"/>
       <c r="D170" s="1" t="s">
         <v>59</v>
       </c>
@@ -23902,7 +23956,7 @@
         <f t="shared" si="65"/>
         <v>draw</v>
       </c>
-      <c r="C171" s="31"/>
+      <c r="C171" s="30"/>
       <c r="D171" s="1" t="s">
         <v>74</v>
       </c>
@@ -23939,7 +23993,7 @@
         <f t="shared" ref="B172:B205" si="66">$D$115</f>
         <v>defeat</v>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C172" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -23978,7 +24032,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C173" s="28"/>
+      <c r="C173" s="31"/>
       <c r="D173" s="1" t="s">
         <v>30</v>
       </c>
@@ -24015,7 +24069,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C174" s="28"/>
+      <c r="C174" s="31"/>
       <c r="D174" s="1" t="s">
         <v>31</v>
       </c>
@@ -24052,7 +24106,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C175" s="28"/>
+      <c r="C175" s="31"/>
       <c r="D175" s="1" t="s">
         <v>32</v>
       </c>
@@ -24089,7 +24143,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C176" s="28"/>
+      <c r="C176" s="31"/>
       <c r="D176" s="1" t="s">
         <v>33</v>
       </c>
@@ -24126,7 +24180,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C177" s="28"/>
+      <c r="C177" s="31"/>
       <c r="D177" s="1" t="s">
         <v>34</v>
       </c>
@@ -24163,7 +24217,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C178" s="28"/>
+      <c r="C178" s="31"/>
       <c r="D178" s="1" t="s">
         <v>35</v>
       </c>
@@ -24200,7 +24254,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C179" s="29" t="s">
+      <c r="C179" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D179" s="12" t="s">
@@ -24239,7 +24293,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C180" s="31"/>
+      <c r="C180" s="30"/>
       <c r="D180" s="12" t="s">
         <v>118</v>
       </c>
@@ -24276,7 +24330,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C181" s="29" t="s">
+      <c r="C181" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -24315,7 +24369,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C182" s="31"/>
+      <c r="C182" s="30"/>
       <c r="D182" s="1" t="s">
         <v>39</v>
       </c>
@@ -24352,7 +24406,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C183" s="29" t="s">
+      <c r="C183" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -24391,7 +24445,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C184" s="30"/>
+      <c r="C184" s="29"/>
       <c r="D184" s="1" t="s">
         <v>79</v>
       </c>
@@ -24428,7 +24482,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C185" s="31"/>
+      <c r="C185" s="30"/>
       <c r="D185" s="1" t="s">
         <v>77</v>
       </c>
@@ -24465,7 +24519,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C186" s="29" t="s">
+      <c r="C186" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -24504,7 +24558,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C187" s="31"/>
+      <c r="C187" s="30"/>
       <c r="D187" s="1" t="s">
         <v>82</v>
       </c>
@@ -24541,7 +24595,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C188" s="29" t="s">
+      <c r="C188" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -24580,7 +24634,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C189" s="30"/>
+      <c r="C189" s="29"/>
       <c r="D189" s="1" t="s">
         <v>70</v>
       </c>
@@ -24617,7 +24671,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C190" s="30"/>
+      <c r="C190" s="29"/>
       <c r="D190" s="1" t="s">
         <v>69</v>
       </c>
@@ -24654,7 +24708,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C191" s="30"/>
+      <c r="C191" s="29"/>
       <c r="D191" s="1" t="s">
         <v>3</v>
       </c>
@@ -24691,7 +24745,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C192" s="30"/>
+      <c r="C192" s="29"/>
       <c r="D192" s="1" t="s">
         <v>57</v>
       </c>
@@ -24728,7 +24782,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C193" s="30"/>
+      <c r="C193" s="29"/>
       <c r="D193" s="1" t="s">
         <v>0</v>
       </c>
@@ -24765,7 +24819,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C194" s="30"/>
+      <c r="C194" s="29"/>
       <c r="D194" s="1" t="s">
         <v>44</v>
       </c>
@@ -24802,7 +24856,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C195" s="30"/>
+      <c r="C195" s="29"/>
       <c r="D195" s="1" t="s">
         <v>54</v>
       </c>
@@ -24839,7 +24893,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C196" s="30"/>
+      <c r="C196" s="29"/>
       <c r="D196" s="1" t="s">
         <v>61</v>
       </c>
@@ -24876,7 +24930,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C197" s="30"/>
+      <c r="C197" s="29"/>
       <c r="D197" s="1" t="s">
         <v>62</v>
       </c>
@@ -24913,7 +24967,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C198" s="30"/>
+      <c r="C198" s="29"/>
       <c r="D198" s="1" t="s">
         <v>67</v>
       </c>
@@ -24950,7 +25004,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C199" s="30"/>
+      <c r="C199" s="29"/>
       <c r="D199" s="1" t="s">
         <v>46</v>
       </c>
@@ -24987,7 +25041,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C200" s="30"/>
+      <c r="C200" s="29"/>
       <c r="D200" s="1" t="s">
         <v>56</v>
       </c>
@@ -25024,7 +25078,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C201" s="30"/>
+      <c r="C201" s="29"/>
       <c r="D201" s="1" t="s">
         <v>72</v>
       </c>
@@ -25061,7 +25115,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C202" s="30"/>
+      <c r="C202" s="29"/>
       <c r="D202" s="1" t="s">
         <v>66</v>
       </c>
@@ -25098,7 +25152,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C203" s="30"/>
+      <c r="C203" s="29"/>
       <c r="D203" s="1" t="s">
         <v>58</v>
       </c>
@@ -25135,7 +25189,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C204" s="30"/>
+      <c r="C204" s="29"/>
       <c r="D204" s="1" t="s">
         <v>48</v>
       </c>
@@ -25172,7 +25226,7 @@
         <f t="shared" si="66"/>
         <v>defeat</v>
       </c>
-      <c r="C205" s="30"/>
+      <c r="C205" s="29"/>
       <c r="D205" s="1" t="s">
         <v>47</v>
       </c>
@@ -25209,7 +25263,7 @@
         <f t="shared" ref="B206:B224" si="71">$D$115</f>
         <v>defeat</v>
       </c>
-      <c r="C206" s="30"/>
+      <c r="C206" s="29"/>
       <c r="D206" s="1" t="s">
         <v>1</v>
       </c>
@@ -25246,7 +25300,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C207" s="30"/>
+      <c r="C207" s="29"/>
       <c r="D207" s="1" t="s">
         <v>2</v>
       </c>
@@ -25283,7 +25337,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C208" s="30"/>
+      <c r="C208" s="29"/>
       <c r="D208" s="1" t="s">
         <v>4</v>
       </c>
@@ -25320,7 +25374,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C209" s="30"/>
+      <c r="C209" s="29"/>
       <c r="D209" s="1" t="s">
         <v>45</v>
       </c>
@@ -25357,7 +25411,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C210" s="30"/>
+      <c r="C210" s="29"/>
       <c r="D210" s="1" t="s">
         <v>50</v>
       </c>
@@ -25394,7 +25448,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C211" s="30"/>
+      <c r="C211" s="29"/>
       <c r="D211" s="1" t="s">
         <v>49</v>
       </c>
@@ -25431,7 +25485,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C212" s="30"/>
+      <c r="C212" s="29"/>
       <c r="D212" s="1" t="s">
         <v>51</v>
       </c>
@@ -25468,7 +25522,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C213" s="30"/>
+      <c r="C213" s="29"/>
       <c r="D213" s="1" t="s">
         <v>55</v>
       </c>
@@ -25505,7 +25559,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C214" s="30"/>
+      <c r="C214" s="29"/>
       <c r="D214" s="1" t="s">
         <v>75</v>
       </c>
@@ -25542,7 +25596,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C215" s="30"/>
+      <c r="C215" s="29"/>
       <c r="D215" s="1" t="s">
         <v>64</v>
       </c>
@@ -25579,7 +25633,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C216" s="30"/>
+      <c r="C216" s="29"/>
       <c r="D216" s="1" t="s">
         <v>65</v>
       </c>
@@ -25616,7 +25670,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C217" s="30"/>
+      <c r="C217" s="29"/>
       <c r="D217" s="1" t="s">
         <v>52</v>
       </c>
@@ -25653,7 +25707,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C218" s="30"/>
+      <c r="C218" s="29"/>
       <c r="D218" s="1" t="s">
         <v>53</v>
       </c>
@@ -25690,7 +25744,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C219" s="30"/>
+      <c r="C219" s="29"/>
       <c r="D219" s="1" t="s">
         <v>60</v>
       </c>
@@ -25727,7 +25781,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C220" s="30"/>
+      <c r="C220" s="29"/>
       <c r="D220" s="1" t="s">
         <v>68</v>
       </c>
@@ -25764,7 +25818,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C221" s="30"/>
+      <c r="C221" s="29"/>
       <c r="D221" s="1" t="s">
         <v>71</v>
       </c>
@@ -25801,7 +25855,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C222" s="30"/>
+      <c r="C222" s="29"/>
       <c r="D222" s="1" t="s">
         <v>73</v>
       </c>
@@ -25838,7 +25892,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C223" s="30"/>
+      <c r="C223" s="29"/>
       <c r="D223" s="1" t="s">
         <v>59</v>
       </c>
@@ -25875,7 +25929,7 @@
         <f t="shared" si="71"/>
         <v>defeat</v>
       </c>
-      <c r="C224" s="31"/>
+      <c r="C224" s="30"/>
       <c r="D224" s="1" t="s">
         <v>74</v>
       </c>
@@ -25912,7 +25966,7 @@
         <f>$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -25951,7 +26005,7 @@
         <f t="shared" ref="B226:B291" si="72">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C226" s="28"/>
+      <c r="C226" s="31"/>
       <c r="D226" s="1" t="s">
         <v>30</v>
       </c>
@@ -25988,7 +26042,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C227" s="28"/>
+      <c r="C227" s="31"/>
       <c r="D227" s="1" t="s">
         <v>31</v>
       </c>
@@ -26025,7 +26079,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C228" s="28"/>
+      <c r="C228" s="31"/>
       <c r="D228" s="1" t="s">
         <v>32</v>
       </c>
@@ -26062,7 +26116,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C229" s="28"/>
+      <c r="C229" s="31"/>
       <c r="D229" s="1" t="s">
         <v>33</v>
       </c>
@@ -26099,7 +26153,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C230" s="28"/>
+      <c r="C230" s="31"/>
       <c r="D230" s="1" t="s">
         <v>34</v>
       </c>
@@ -26136,7 +26190,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C231" s="28"/>
+      <c r="C231" s="31"/>
       <c r="D231" s="1" t="s">
         <v>35</v>
       </c>
@@ -26173,7 +26227,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C232" s="29" t="s">
+      <c r="C232" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D232" s="12" t="s">
@@ -26212,7 +26266,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C233" s="31"/>
+      <c r="C233" s="30"/>
       <c r="D233" s="12" t="s">
         <v>118</v>
       </c>
@@ -26249,7 +26303,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C234" s="29" t="s">
+      <c r="C234" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -26288,7 +26342,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C235" s="31"/>
+      <c r="C235" s="30"/>
       <c r="D235" s="1" t="s">
         <v>39</v>
       </c>
@@ -26325,7 +26379,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C236" s="29" t="s">
+      <c r="C236" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -26364,7 +26418,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C237" s="30"/>
+      <c r="C237" s="29"/>
       <c r="D237" s="1" t="s">
         <v>79</v>
       </c>
@@ -26401,7 +26455,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C238" s="31"/>
+      <c r="C238" s="30"/>
       <c r="D238" s="1" t="s">
         <v>77</v>
       </c>
@@ -26438,7 +26492,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C239" s="29" t="s">
+      <c r="C239" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -26477,7 +26531,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C240" s="31"/>
+      <c r="C240" s="30"/>
       <c r="D240" s="1" t="s">
         <v>82</v>
       </c>
@@ -26514,7 +26568,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C241" s="29" t="s">
+      <c r="C241" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -26553,7 +26607,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C242" s="30"/>
+      <c r="C242" s="29"/>
       <c r="D242" s="1" t="s">
         <v>70</v>
       </c>
@@ -26590,7 +26644,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C243" s="30"/>
+      <c r="C243" s="29"/>
       <c r="D243" s="1" t="s">
         <v>69</v>
       </c>
@@ -26627,7 +26681,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C244" s="30"/>
+      <c r="C244" s="29"/>
       <c r="D244" s="1" t="s">
         <v>3</v>
       </c>
@@ -26664,7 +26718,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C245" s="30"/>
+      <c r="C245" s="29"/>
       <c r="D245" s="1" t="s">
         <v>57</v>
       </c>
@@ -26701,7 +26755,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C246" s="30"/>
+      <c r="C246" s="29"/>
       <c r="D246" s="1" t="s">
         <v>0</v>
       </c>
@@ -26738,7 +26792,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C247" s="30"/>
+      <c r="C247" s="29"/>
       <c r="D247" s="1" t="s">
         <v>44</v>
       </c>
@@ -26775,7 +26829,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C248" s="30"/>
+      <c r="C248" s="29"/>
       <c r="D248" s="1" t="s">
         <v>54</v>
       </c>
@@ -26812,7 +26866,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C249" s="30"/>
+      <c r="C249" s="29"/>
       <c r="D249" s="1" t="s">
         <v>61</v>
       </c>
@@ -26849,7 +26903,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C250" s="30"/>
+      <c r="C250" s="29"/>
       <c r="D250" s="1" t="s">
         <v>62</v>
       </c>
@@ -26886,7 +26940,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C251" s="30"/>
+      <c r="C251" s="29"/>
       <c r="D251" s="1" t="s">
         <v>67</v>
       </c>
@@ -26923,7 +26977,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C252" s="30"/>
+      <c r="C252" s="29"/>
       <c r="D252" s="1" t="s">
         <v>46</v>
       </c>
@@ -26960,7 +27014,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C253" s="30"/>
+      <c r="C253" s="29"/>
       <c r="D253" s="1" t="s">
         <v>56</v>
       </c>
@@ -26997,7 +27051,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C254" s="30"/>
+      <c r="C254" s="29"/>
       <c r="D254" s="1" t="s">
         <v>72</v>
       </c>
@@ -27034,7 +27088,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C255" s="30"/>
+      <c r="C255" s="29"/>
       <c r="D255" s="1" t="s">
         <v>66</v>
       </c>
@@ -27071,7 +27125,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C256" s="30"/>
+      <c r="C256" s="29"/>
       <c r="D256" s="1" t="s">
         <v>58</v>
       </c>
@@ -27108,7 +27162,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C257" s="30"/>
+      <c r="C257" s="29"/>
       <c r="D257" s="1" t="s">
         <v>48</v>
       </c>
@@ -27145,7 +27199,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C258" s="30"/>
+      <c r="C258" s="29"/>
       <c r="D258" s="1" t="s">
         <v>47</v>
       </c>
@@ -27182,7 +27236,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C259" s="30"/>
+      <c r="C259" s="29"/>
       <c r="D259" s="1" t="s">
         <v>1</v>
       </c>
@@ -27219,7 +27273,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C260" s="30"/>
+      <c r="C260" s="29"/>
       <c r="D260" s="1" t="s">
         <v>2</v>
       </c>
@@ -27256,7 +27310,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C261" s="30"/>
+      <c r="C261" s="29"/>
       <c r="D261" s="1" t="s">
         <v>4</v>
       </c>
@@ -27293,7 +27347,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C262" s="30"/>
+      <c r="C262" s="29"/>
       <c r="D262" s="1" t="s">
         <v>45</v>
       </c>
@@ -27330,7 +27384,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C263" s="30"/>
+      <c r="C263" s="29"/>
       <c r="D263" s="1" t="s">
         <v>50</v>
       </c>
@@ -27367,7 +27421,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C264" s="30"/>
+      <c r="C264" s="29"/>
       <c r="D264" s="1" t="s">
         <v>49</v>
       </c>
@@ -27404,7 +27458,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C265" s="30"/>
+      <c r="C265" s="29"/>
       <c r="D265" s="1" t="s">
         <v>51</v>
       </c>
@@ -27441,7 +27495,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C266" s="30"/>
+      <c r="C266" s="29"/>
       <c r="D266" s="1" t="s">
         <v>55</v>
       </c>
@@ -27478,7 +27532,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C267" s="30"/>
+      <c r="C267" s="29"/>
       <c r="D267" s="1" t="s">
         <v>75</v>
       </c>
@@ -27515,7 +27569,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C268" s="30"/>
+      <c r="C268" s="29"/>
       <c r="D268" s="1" t="s">
         <v>64</v>
       </c>
@@ -27552,7 +27606,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C269" s="30"/>
+      <c r="C269" s="29"/>
       <c r="D269" s="1" t="s">
         <v>65</v>
       </c>
@@ -27589,7 +27643,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C270" s="30"/>
+      <c r="C270" s="29"/>
       <c r="D270" s="1" t="s">
         <v>52</v>
       </c>
@@ -27626,7 +27680,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C271" s="30"/>
+      <c r="C271" s="29"/>
       <c r="D271" s="1" t="s">
         <v>53</v>
       </c>
@@ -27663,7 +27717,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C272" s="30"/>
+      <c r="C272" s="29"/>
       <c r="D272" s="1" t="s">
         <v>60</v>
       </c>
@@ -27700,7 +27754,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C273" s="30"/>
+      <c r="C273" s="29"/>
       <c r="D273" s="1" t="s">
         <v>68</v>
       </c>
@@ -27737,7 +27791,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C274" s="30"/>
+      <c r="C274" s="29"/>
       <c r="D274" s="1" t="s">
         <v>71</v>
       </c>
@@ -27774,7 +27828,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C275" s="30"/>
+      <c r="C275" s="29"/>
       <c r="D275" s="1" t="s">
         <v>73</v>
       </c>
@@ -27811,7 +27865,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C276" s="30"/>
+      <c r="C276" s="29"/>
       <c r="D276" s="1" t="s">
         <v>59</v>
       </c>
@@ -27848,7 +27902,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C277" s="31"/>
+      <c r="C277" s="30"/>
       <c r="D277" s="1" t="s">
         <v>74</v>
       </c>
@@ -27888,7 +27942,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C278" s="29" t="s">
+      <c r="C278" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D278" s="9" t="s">
@@ -27930,7 +27984,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C279" s="30"/>
+      <c r="C279" s="29"/>
       <c r="D279" s="9" t="s">
         <v>70</v>
       </c>
@@ -27970,7 +28024,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C280" s="30"/>
+      <c r="C280" s="29"/>
       <c r="D280" s="9" t="s">
         <v>69</v>
       </c>
@@ -28010,7 +28064,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C281" s="30"/>
+      <c r="C281" s="29"/>
       <c r="D281" s="9" t="s">
         <v>3</v>
       </c>
@@ -28050,7 +28104,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C282" s="30"/>
+      <c r="C282" s="29"/>
       <c r="D282" s="9" t="s">
         <v>57</v>
       </c>
@@ -28090,7 +28144,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C283" s="30"/>
+      <c r="C283" s="29"/>
       <c r="D283" s="9" t="s">
         <v>0</v>
       </c>
@@ -28130,7 +28184,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C284" s="30"/>
+      <c r="C284" s="29"/>
       <c r="D284" s="9" t="s">
         <v>44</v>
       </c>
@@ -28170,7 +28224,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C285" s="30"/>
+      <c r="C285" s="29"/>
       <c r="D285" s="9" t="s">
         <v>54</v>
       </c>
@@ -28210,7 +28264,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C286" s="30"/>
+      <c r="C286" s="29"/>
       <c r="D286" s="9" t="s">
         <v>61</v>
       </c>
@@ -28250,7 +28304,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C287" s="30"/>
+      <c r="C287" s="29"/>
       <c r="D287" s="9" t="s">
         <v>62</v>
       </c>
@@ -28290,7 +28344,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C288" s="30"/>
+      <c r="C288" s="29"/>
       <c r="D288" s="9" t="s">
         <v>67</v>
       </c>
@@ -28330,7 +28384,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C289" s="30"/>
+      <c r="C289" s="29"/>
       <c r="D289" s="9" t="s">
         <v>46</v>
       </c>
@@ -28370,7 +28424,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C290" s="30"/>
+      <c r="C290" s="29"/>
       <c r="D290" s="9" t="s">
         <v>56</v>
       </c>
@@ -28410,7 +28464,7 @@
         <f t="shared" si="72"/>
         <v>victory</v>
       </c>
-      <c r="C291" s="30"/>
+      <c r="C291" s="29"/>
       <c r="D291" s="9" t="s">
         <v>72</v>
       </c>
@@ -28450,7 +28504,7 @@
         <f t="shared" ref="B292:B355" si="78">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C292" s="30"/>
+      <c r="C292" s="29"/>
       <c r="D292" s="9" t="s">
         <v>66</v>
       </c>
@@ -28490,7 +28544,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C293" s="30"/>
+      <c r="C293" s="29"/>
       <c r="D293" s="9" t="s">
         <v>58</v>
       </c>
@@ -28530,7 +28584,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C294" s="30"/>
+      <c r="C294" s="29"/>
       <c r="D294" s="9" t="s">
         <v>48</v>
       </c>
@@ -28570,7 +28624,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C295" s="30"/>
+      <c r="C295" s="29"/>
       <c r="D295" s="9" t="s">
         <v>47</v>
       </c>
@@ -28610,7 +28664,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C296" s="30"/>
+      <c r="C296" s="29"/>
       <c r="D296" s="9" t="s">
         <v>1</v>
       </c>
@@ -28650,7 +28704,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C297" s="30"/>
+      <c r="C297" s="29"/>
       <c r="D297" s="9" t="s">
         <v>2</v>
       </c>
@@ -28690,7 +28744,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C298" s="30"/>
+      <c r="C298" s="29"/>
       <c r="D298" s="9" t="s">
         <v>4</v>
       </c>
@@ -28730,7 +28784,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C299" s="30"/>
+      <c r="C299" s="29"/>
       <c r="D299" s="9" t="s">
         <v>45</v>
       </c>
@@ -28770,7 +28824,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C300" s="30"/>
+      <c r="C300" s="29"/>
       <c r="D300" s="9" t="s">
         <v>50</v>
       </c>
@@ -28810,7 +28864,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C301" s="30"/>
+      <c r="C301" s="29"/>
       <c r="D301" s="9" t="s">
         <v>49</v>
       </c>
@@ -28850,7 +28904,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C302" s="30"/>
+      <c r="C302" s="29"/>
       <c r="D302" s="9" t="s">
         <v>51</v>
       </c>
@@ -28890,7 +28944,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C303" s="30"/>
+      <c r="C303" s="29"/>
       <c r="D303" s="9" t="s">
         <v>55</v>
       </c>
@@ -28930,7 +28984,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C304" s="30"/>
+      <c r="C304" s="29"/>
       <c r="D304" s="9" t="s">
         <v>75</v>
       </c>
@@ -28970,7 +29024,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C305" s="30"/>
+      <c r="C305" s="29"/>
       <c r="D305" s="9" t="s">
         <v>64</v>
       </c>
@@ -29010,7 +29064,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C306" s="30"/>
+      <c r="C306" s="29"/>
       <c r="D306" s="9" t="s">
         <v>65</v>
       </c>
@@ -29050,7 +29104,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C307" s="30"/>
+      <c r="C307" s="29"/>
       <c r="D307" s="9" t="s">
         <v>52</v>
       </c>
@@ -29090,7 +29144,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C308" s="30"/>
+      <c r="C308" s="29"/>
       <c r="D308" s="9" t="s">
         <v>53</v>
       </c>
@@ -29130,7 +29184,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C309" s="30"/>
+      <c r="C309" s="29"/>
       <c r="D309" s="9" t="s">
         <v>60</v>
       </c>
@@ -29170,7 +29224,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C310" s="30"/>
+      <c r="C310" s="29"/>
       <c r="D310" s="9" t="s">
         <v>68</v>
       </c>
@@ -29210,7 +29264,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C311" s="30"/>
+      <c r="C311" s="29"/>
       <c r="D311" s="9" t="s">
         <v>71</v>
       </c>
@@ -29250,7 +29304,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C312" s="30"/>
+      <c r="C312" s="29"/>
       <c r="D312" s="9" t="s">
         <v>73</v>
       </c>
@@ -29290,7 +29344,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C313" s="30"/>
+      <c r="C313" s="29"/>
       <c r="D313" s="9" t="s">
         <v>59</v>
       </c>
@@ -29330,7 +29384,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C314" s="31"/>
+      <c r="C314" s="30"/>
       <c r="D314" s="9" t="s">
         <v>74</v>
       </c>
@@ -29370,7 +29424,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C315" s="29" t="s">
+      <c r="C315" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D315" s="9" t="s">
@@ -29412,7 +29466,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C316" s="30"/>
+      <c r="C316" s="29"/>
       <c r="D316" s="9" t="s">
         <v>70</v>
       </c>
@@ -29452,7 +29506,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C317" s="30"/>
+      <c r="C317" s="29"/>
       <c r="D317" s="9" t="s">
         <v>69</v>
       </c>
@@ -29492,7 +29546,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C318" s="30"/>
+      <c r="C318" s="29"/>
       <c r="D318" s="9" t="s">
         <v>3</v>
       </c>
@@ -29532,7 +29586,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C319" s="30"/>
+      <c r="C319" s="29"/>
       <c r="D319" s="9" t="s">
         <v>57</v>
       </c>
@@ -29572,7 +29626,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C320" s="30"/>
+      <c r="C320" s="29"/>
       <c r="D320" s="9" t="s">
         <v>0</v>
       </c>
@@ -29612,7 +29666,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C321" s="30"/>
+      <c r="C321" s="29"/>
       <c r="D321" s="9" t="s">
         <v>44</v>
       </c>
@@ -29652,7 +29706,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C322" s="30"/>
+      <c r="C322" s="29"/>
       <c r="D322" s="9" t="s">
         <v>54</v>
       </c>
@@ -29692,7 +29746,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C323" s="30"/>
+      <c r="C323" s="29"/>
       <c r="D323" s="9" t="s">
         <v>61</v>
       </c>
@@ -29732,7 +29786,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C324" s="30"/>
+      <c r="C324" s="29"/>
       <c r="D324" s="9" t="s">
         <v>62</v>
       </c>
@@ -29772,7 +29826,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C325" s="30"/>
+      <c r="C325" s="29"/>
       <c r="D325" s="9" t="s">
         <v>67</v>
       </c>
@@ -29812,7 +29866,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C326" s="30"/>
+      <c r="C326" s="29"/>
       <c r="D326" s="9" t="s">
         <v>46</v>
       </c>
@@ -29852,7 +29906,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C327" s="30"/>
+      <c r="C327" s="29"/>
       <c r="D327" s="9" t="s">
         <v>56</v>
       </c>
@@ -29892,7 +29946,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C328" s="30"/>
+      <c r="C328" s="29"/>
       <c r="D328" s="9" t="s">
         <v>72</v>
       </c>
@@ -29932,7 +29986,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C329" s="30"/>
+      <c r="C329" s="29"/>
       <c r="D329" s="9" t="s">
         <v>66</v>
       </c>
@@ -29972,7 +30026,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C330" s="30"/>
+      <c r="C330" s="29"/>
       <c r="D330" s="9" t="s">
         <v>58</v>
       </c>
@@ -30012,7 +30066,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C331" s="30"/>
+      <c r="C331" s="29"/>
       <c r="D331" s="9" t="s">
         <v>48</v>
       </c>
@@ -30052,7 +30106,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C332" s="30"/>
+      <c r="C332" s="29"/>
       <c r="D332" s="9" t="s">
         <v>47</v>
       </c>
@@ -30092,7 +30146,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C333" s="30"/>
+      <c r="C333" s="29"/>
       <c r="D333" s="9" t="s">
         <v>1</v>
       </c>
@@ -30132,7 +30186,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C334" s="30"/>
+      <c r="C334" s="29"/>
       <c r="D334" s="9" t="s">
         <v>2</v>
       </c>
@@ -30172,7 +30226,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C335" s="30"/>
+      <c r="C335" s="29"/>
       <c r="D335" s="9" t="s">
         <v>4</v>
       </c>
@@ -30212,7 +30266,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C336" s="30"/>
+      <c r="C336" s="29"/>
       <c r="D336" s="9" t="s">
         <v>45</v>
       </c>
@@ -30252,7 +30306,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C337" s="30"/>
+      <c r="C337" s="29"/>
       <c r="D337" s="9" t="s">
         <v>50</v>
       </c>
@@ -30292,7 +30346,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C338" s="30"/>
+      <c r="C338" s="29"/>
       <c r="D338" s="9" t="s">
         <v>49</v>
       </c>
@@ -30332,7 +30386,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C339" s="30"/>
+      <c r="C339" s="29"/>
       <c r="D339" s="9" t="s">
         <v>51</v>
       </c>
@@ -30372,7 +30426,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C340" s="30"/>
+      <c r="C340" s="29"/>
       <c r="D340" s="9" t="s">
         <v>55</v>
       </c>
@@ -30412,7 +30466,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C341" s="30"/>
+      <c r="C341" s="29"/>
       <c r="D341" s="9" t="s">
         <v>75</v>
       </c>
@@ -30452,7 +30506,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C342" s="30"/>
+      <c r="C342" s="29"/>
       <c r="D342" s="9" t="s">
         <v>64</v>
       </c>
@@ -30492,7 +30546,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C343" s="30"/>
+      <c r="C343" s="29"/>
       <c r="D343" s="9" t="s">
         <v>65</v>
       </c>
@@ -30532,7 +30586,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C344" s="30"/>
+      <c r="C344" s="29"/>
       <c r="D344" s="9" t="s">
         <v>52</v>
       </c>
@@ -30572,7 +30626,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C345" s="30"/>
+      <c r="C345" s="29"/>
       <c r="D345" s="9" t="s">
         <v>53</v>
       </c>
@@ -30612,7 +30666,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C346" s="30"/>
+      <c r="C346" s="29"/>
       <c r="D346" s="9" t="s">
         <v>60</v>
       </c>
@@ -30652,7 +30706,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C347" s="30"/>
+      <c r="C347" s="29"/>
       <c r="D347" s="9" t="s">
         <v>68</v>
       </c>
@@ -30692,7 +30746,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C348" s="30"/>
+      <c r="C348" s="29"/>
       <c r="D348" s="9" t="s">
         <v>71</v>
       </c>
@@ -30732,7 +30786,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C349" s="30"/>
+      <c r="C349" s="29"/>
       <c r="D349" s="9" t="s">
         <v>73</v>
       </c>
@@ -30772,7 +30826,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C350" s="30"/>
+      <c r="C350" s="29"/>
       <c r="D350" s="9" t="s">
         <v>59</v>
       </c>
@@ -30812,7 +30866,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C351" s="31"/>
+      <c r="C351" s="30"/>
       <c r="D351" s="9" t="s">
         <v>74</v>
       </c>
@@ -30851,7 +30905,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C352" s="29" t="s">
+      <c r="C352" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D352" s="14" t="s">
@@ -30893,7 +30947,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C353" s="30"/>
+      <c r="C353" s="29"/>
       <c r="D353" s="14" t="s">
         <v>70</v>
       </c>
@@ -30933,7 +30987,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C354" s="30"/>
+      <c r="C354" s="29"/>
       <c r="D354" s="14" t="s">
         <v>69</v>
       </c>
@@ -30973,7 +31027,7 @@
         <f t="shared" si="78"/>
         <v>victory</v>
       </c>
-      <c r="C355" s="30"/>
+      <c r="C355" s="29"/>
       <c r="D355" s="14" t="s">
         <v>3</v>
       </c>
@@ -31013,7 +31067,7 @@
         <f t="shared" ref="B356:B421" si="86">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C356" s="30"/>
+      <c r="C356" s="29"/>
       <c r="D356" s="14" t="s">
         <v>57</v>
       </c>
@@ -31053,7 +31107,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C357" s="30"/>
+      <c r="C357" s="29"/>
       <c r="D357" s="14" t="s">
         <v>0</v>
       </c>
@@ -31093,7 +31147,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C358" s="30"/>
+      <c r="C358" s="29"/>
       <c r="D358" s="14" t="s">
         <v>44</v>
       </c>
@@ -31133,7 +31187,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C359" s="30"/>
+      <c r="C359" s="29"/>
       <c r="D359" s="14" t="s">
         <v>54</v>
       </c>
@@ -31173,7 +31227,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C360" s="30"/>
+      <c r="C360" s="29"/>
       <c r="D360" s="14" t="s">
         <v>61</v>
       </c>
@@ -31213,7 +31267,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C361" s="30"/>
+      <c r="C361" s="29"/>
       <c r="D361" s="14" t="s">
         <v>62</v>
       </c>
@@ -31253,7 +31307,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C362" s="30"/>
+      <c r="C362" s="29"/>
       <c r="D362" s="14" t="s">
         <v>67</v>
       </c>
@@ -31293,7 +31347,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C363" s="30"/>
+      <c r="C363" s="29"/>
       <c r="D363" s="14" t="s">
         <v>46</v>
       </c>
@@ -31333,7 +31387,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C364" s="30"/>
+      <c r="C364" s="29"/>
       <c r="D364" s="14" t="s">
         <v>56</v>
       </c>
@@ -31373,7 +31427,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C365" s="30"/>
+      <c r="C365" s="29"/>
       <c r="D365" s="14" t="s">
         <v>72</v>
       </c>
@@ -31413,7 +31467,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C366" s="30"/>
+      <c r="C366" s="29"/>
       <c r="D366" s="14" t="s">
         <v>66</v>
       </c>
@@ -31453,7 +31507,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C367" s="30"/>
+      <c r="C367" s="29"/>
       <c r="D367" s="14" t="s">
         <v>58</v>
       </c>
@@ -31493,7 +31547,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C368" s="30"/>
+      <c r="C368" s="29"/>
       <c r="D368" s="14" t="s">
         <v>48</v>
       </c>
@@ -31533,7 +31587,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C369" s="30"/>
+      <c r="C369" s="29"/>
       <c r="D369" s="14" t="s">
         <v>47</v>
       </c>
@@ -31573,7 +31627,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C370" s="30"/>
+      <c r="C370" s="29"/>
       <c r="D370" s="14" t="s">
         <v>1</v>
       </c>
@@ -31613,7 +31667,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C371" s="30"/>
+      <c r="C371" s="29"/>
       <c r="D371" s="14" t="s">
         <v>2</v>
       </c>
@@ -31653,7 +31707,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C372" s="30"/>
+      <c r="C372" s="29"/>
       <c r="D372" s="14" t="s">
         <v>4</v>
       </c>
@@ -31693,7 +31747,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C373" s="30"/>
+      <c r="C373" s="29"/>
       <c r="D373" s="14" t="s">
         <v>45</v>
       </c>
@@ -31733,7 +31787,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C374" s="30"/>
+      <c r="C374" s="29"/>
       <c r="D374" s="14" t="s">
         <v>50</v>
       </c>
@@ -31773,7 +31827,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C375" s="30"/>
+      <c r="C375" s="29"/>
       <c r="D375" s="14" t="s">
         <v>49</v>
       </c>
@@ -31813,7 +31867,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C376" s="30"/>
+      <c r="C376" s="29"/>
       <c r="D376" s="14" t="s">
         <v>51</v>
       </c>
@@ -31853,7 +31907,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C377" s="30"/>
+      <c r="C377" s="29"/>
       <c r="D377" s="14" t="s">
         <v>55</v>
       </c>
@@ -31893,7 +31947,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C378" s="30"/>
+      <c r="C378" s="29"/>
       <c r="D378" s="14" t="s">
         <v>75</v>
       </c>
@@ -31933,7 +31987,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C379" s="30"/>
+      <c r="C379" s="29"/>
       <c r="D379" s="14" t="s">
         <v>64</v>
       </c>
@@ -31973,7 +32027,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C380" s="30"/>
+      <c r="C380" s="29"/>
       <c r="D380" s="14" t="s">
         <v>65</v>
       </c>
@@ -32013,7 +32067,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C381" s="30"/>
+      <c r="C381" s="29"/>
       <c r="D381" s="14" t="s">
         <v>52</v>
       </c>
@@ -32053,7 +32107,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C382" s="30"/>
+      <c r="C382" s="29"/>
       <c r="D382" s="14" t="s">
         <v>53</v>
       </c>
@@ -32093,7 +32147,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C383" s="30"/>
+      <c r="C383" s="29"/>
       <c r="D383" s="14" t="s">
         <v>60</v>
       </c>
@@ -32133,7 +32187,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C384" s="30"/>
+      <c r="C384" s="29"/>
       <c r="D384" s="14" t="s">
         <v>68</v>
       </c>
@@ -32173,7 +32227,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C385" s="30"/>
+      <c r="C385" s="29"/>
       <c r="D385" s="14" t="s">
         <v>71</v>
       </c>
@@ -32213,7 +32267,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C386" s="30"/>
+      <c r="C386" s="29"/>
       <c r="D386" s="14" t="s">
         <v>73</v>
       </c>
@@ -32253,7 +32307,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C387" s="30"/>
+      <c r="C387" s="29"/>
       <c r="D387" s="14" t="s">
         <v>59</v>
       </c>
@@ -32293,7 +32347,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C388" s="31"/>
+      <c r="C388" s="30"/>
       <c r="D388" s="14" t="s">
         <v>74</v>
       </c>
@@ -32332,7 +32386,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C389" s="29" t="s">
+      <c r="C389" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D389" s="14" t="s">
@@ -32374,7 +32428,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C390" s="30"/>
+      <c r="C390" s="29"/>
       <c r="D390" s="14" t="s">
         <v>70</v>
       </c>
@@ -32414,7 +32468,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C391" s="30"/>
+      <c r="C391" s="29"/>
       <c r="D391" s="14" t="s">
         <v>69</v>
       </c>
@@ -32454,7 +32508,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C392" s="30"/>
+      <c r="C392" s="29"/>
       <c r="D392" s="14" t="s">
         <v>3</v>
       </c>
@@ -32494,7 +32548,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C393" s="30"/>
+      <c r="C393" s="29"/>
       <c r="D393" s="14" t="s">
         <v>57</v>
       </c>
@@ -32534,7 +32588,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C394" s="30"/>
+      <c r="C394" s="29"/>
       <c r="D394" s="14" t="s">
         <v>0</v>
       </c>
@@ -32574,7 +32628,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C395" s="30"/>
+      <c r="C395" s="29"/>
       <c r="D395" s="14" t="s">
         <v>44</v>
       </c>
@@ -32614,7 +32668,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C396" s="30"/>
+      <c r="C396" s="29"/>
       <c r="D396" s="14" t="s">
         <v>54</v>
       </c>
@@ -32654,7 +32708,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C397" s="30"/>
+      <c r="C397" s="29"/>
       <c r="D397" s="14" t="s">
         <v>61</v>
       </c>
@@ -32694,7 +32748,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C398" s="30"/>
+      <c r="C398" s="29"/>
       <c r="D398" s="14" t="s">
         <v>62</v>
       </c>
@@ -32734,7 +32788,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C399" s="30"/>
+      <c r="C399" s="29"/>
       <c r="D399" s="14" t="s">
         <v>67</v>
       </c>
@@ -32774,7 +32828,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C400" s="30"/>
+      <c r="C400" s="29"/>
       <c r="D400" s="14" t="s">
         <v>46</v>
       </c>
@@ -32814,7 +32868,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C401" s="30"/>
+      <c r="C401" s="29"/>
       <c r="D401" s="14" t="s">
         <v>56</v>
       </c>
@@ -32854,7 +32908,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C402" s="30"/>
+      <c r="C402" s="29"/>
       <c r="D402" s="14" t="s">
         <v>72</v>
       </c>
@@ -32894,7 +32948,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C403" s="30"/>
+      <c r="C403" s="29"/>
       <c r="D403" s="14" t="s">
         <v>66</v>
       </c>
@@ -32934,7 +32988,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C404" s="30"/>
+      <c r="C404" s="29"/>
       <c r="D404" s="14" t="s">
         <v>58</v>
       </c>
@@ -32974,7 +33028,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C405" s="30"/>
+      <c r="C405" s="29"/>
       <c r="D405" s="14" t="s">
         <v>48</v>
       </c>
@@ -33014,7 +33068,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C406" s="30"/>
+      <c r="C406" s="29"/>
       <c r="D406" s="14" t="s">
         <v>47</v>
       </c>
@@ -33054,7 +33108,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C407" s="30"/>
+      <c r="C407" s="29"/>
       <c r="D407" s="14" t="s">
         <v>1</v>
       </c>
@@ -33094,7 +33148,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C408" s="30"/>
+      <c r="C408" s="29"/>
       <c r="D408" s="14" t="s">
         <v>2</v>
       </c>
@@ -33134,7 +33188,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C409" s="30"/>
+      <c r="C409" s="29"/>
       <c r="D409" s="14" t="s">
         <v>4</v>
       </c>
@@ -33174,7 +33228,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C410" s="30"/>
+      <c r="C410" s="29"/>
       <c r="D410" s="14" t="s">
         <v>45</v>
       </c>
@@ -33214,7 +33268,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C411" s="30"/>
+      <c r="C411" s="29"/>
       <c r="D411" s="14" t="s">
         <v>50</v>
       </c>
@@ -33254,7 +33308,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C412" s="30"/>
+      <c r="C412" s="29"/>
       <c r="D412" s="14" t="s">
         <v>49</v>
       </c>
@@ -33294,7 +33348,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C413" s="30"/>
+      <c r="C413" s="29"/>
       <c r="D413" s="14" t="s">
         <v>51</v>
       </c>
@@ -33334,7 +33388,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C414" s="30"/>
+      <c r="C414" s="29"/>
       <c r="D414" s="14" t="s">
         <v>55</v>
       </c>
@@ -33374,7 +33428,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C415" s="30"/>
+      <c r="C415" s="29"/>
       <c r="D415" s="14" t="s">
         <v>75</v>
       </c>
@@ -33414,7 +33468,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C416" s="30"/>
+      <c r="C416" s="29"/>
       <c r="D416" s="14" t="s">
         <v>64</v>
       </c>
@@ -33454,7 +33508,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C417" s="30"/>
+      <c r="C417" s="29"/>
       <c r="D417" s="14" t="s">
         <v>65</v>
       </c>
@@ -33494,7 +33548,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C418" s="30"/>
+      <c r="C418" s="29"/>
       <c r="D418" s="14" t="s">
         <v>52</v>
       </c>
@@ -33534,7 +33588,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C419" s="30"/>
+      <c r="C419" s="29"/>
       <c r="D419" s="14" t="s">
         <v>53</v>
       </c>
@@ -33574,7 +33628,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C420" s="30"/>
+      <c r="C420" s="29"/>
       <c r="D420" s="14" t="s">
         <v>60</v>
       </c>
@@ -33614,7 +33668,7 @@
         <f t="shared" si="86"/>
         <v>victory</v>
       </c>
-      <c r="C421" s="30"/>
+      <c r="C421" s="29"/>
       <c r="D421" s="14" t="s">
         <v>68</v>
       </c>
@@ -33654,7 +33708,7 @@
         <f t="shared" ref="B422:B485" si="91">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C422" s="30"/>
+      <c r="C422" s="29"/>
       <c r="D422" s="14" t="s">
         <v>71</v>
       </c>
@@ -33694,7 +33748,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C423" s="30"/>
+      <c r="C423" s="29"/>
       <c r="D423" s="14" t="s">
         <v>73</v>
       </c>
@@ -33734,7 +33788,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C424" s="30"/>
+      <c r="C424" s="29"/>
       <c r="D424" s="14" t="s">
         <v>59</v>
       </c>
@@ -33774,7 +33828,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C425" s="31"/>
+      <c r="C425" s="30"/>
       <c r="D425" s="14" t="s">
         <v>74</v>
       </c>
@@ -33813,7 +33867,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C426" s="29" t="s">
+      <c r="C426" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D426" s="15" t="s">
@@ -33855,7 +33909,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C427" s="30"/>
+      <c r="C427" s="29"/>
       <c r="D427" s="15" t="s">
         <v>70</v>
       </c>
@@ -33895,7 +33949,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C428" s="30"/>
+      <c r="C428" s="29"/>
       <c r="D428" s="15" t="s">
         <v>69</v>
       </c>
@@ -33935,7 +33989,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C429" s="30"/>
+      <c r="C429" s="29"/>
       <c r="D429" s="15" t="s">
         <v>3</v>
       </c>
@@ -33975,7 +34029,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C430" s="30"/>
+      <c r="C430" s="29"/>
       <c r="D430" s="15" t="s">
         <v>57</v>
       </c>
@@ -34015,7 +34069,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C431" s="30"/>
+      <c r="C431" s="29"/>
       <c r="D431" s="15" t="s">
         <v>0</v>
       </c>
@@ -34055,7 +34109,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C432" s="30"/>
+      <c r="C432" s="29"/>
       <c r="D432" s="15" t="s">
         <v>44</v>
       </c>
@@ -34095,7 +34149,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C433" s="30"/>
+      <c r="C433" s="29"/>
       <c r="D433" s="15" t="s">
         <v>54</v>
       </c>
@@ -34135,7 +34189,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C434" s="30"/>
+      <c r="C434" s="29"/>
       <c r="D434" s="15" t="s">
         <v>61</v>
       </c>
@@ -34175,7 +34229,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C435" s="30"/>
+      <c r="C435" s="29"/>
       <c r="D435" s="15" t="s">
         <v>62</v>
       </c>
@@ -34215,7 +34269,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C436" s="30"/>
+      <c r="C436" s="29"/>
       <c r="D436" s="15" t="s">
         <v>67</v>
       </c>
@@ -34255,7 +34309,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C437" s="30"/>
+      <c r="C437" s="29"/>
       <c r="D437" s="15" t="s">
         <v>46</v>
       </c>
@@ -34295,7 +34349,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C438" s="30"/>
+      <c r="C438" s="29"/>
       <c r="D438" s="15" t="s">
         <v>56</v>
       </c>
@@ -34335,7 +34389,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C439" s="30"/>
+      <c r="C439" s="29"/>
       <c r="D439" s="15" t="s">
         <v>72</v>
       </c>
@@ -34375,7 +34429,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C440" s="30"/>
+      <c r="C440" s="29"/>
       <c r="D440" s="15" t="s">
         <v>66</v>
       </c>
@@ -34415,7 +34469,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C441" s="30"/>
+      <c r="C441" s="29"/>
       <c r="D441" s="15" t="s">
         <v>58</v>
       </c>
@@ -34455,7 +34509,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C442" s="30"/>
+      <c r="C442" s="29"/>
       <c r="D442" s="15" t="s">
         <v>48</v>
       </c>
@@ -34495,7 +34549,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C443" s="30"/>
+      <c r="C443" s="29"/>
       <c r="D443" s="15" t="s">
         <v>47</v>
       </c>
@@ -34535,7 +34589,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C444" s="30"/>
+      <c r="C444" s="29"/>
       <c r="D444" s="15" t="s">
         <v>1</v>
       </c>
@@ -34575,7 +34629,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C445" s="30"/>
+      <c r="C445" s="29"/>
       <c r="D445" s="15" t="s">
         <v>2</v>
       </c>
@@ -34615,7 +34669,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C446" s="30"/>
+      <c r="C446" s="29"/>
       <c r="D446" s="15" t="s">
         <v>4</v>
       </c>
@@ -34655,7 +34709,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C447" s="30"/>
+      <c r="C447" s="29"/>
       <c r="D447" s="15" t="s">
         <v>45</v>
       </c>
@@ -34695,7 +34749,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C448" s="30"/>
+      <c r="C448" s="29"/>
       <c r="D448" s="15" t="s">
         <v>50</v>
       </c>
@@ -34735,7 +34789,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C449" s="30"/>
+      <c r="C449" s="29"/>
       <c r="D449" s="15" t="s">
         <v>49</v>
       </c>
@@ -34775,7 +34829,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C450" s="30"/>
+      <c r="C450" s="29"/>
       <c r="D450" s="15" t="s">
         <v>51</v>
       </c>
@@ -34815,7 +34869,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C451" s="30"/>
+      <c r="C451" s="29"/>
       <c r="D451" s="15" t="s">
         <v>55</v>
       </c>
@@ -34855,7 +34909,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C452" s="30"/>
+      <c r="C452" s="29"/>
       <c r="D452" s="15" t="s">
         <v>75</v>
       </c>
@@ -34895,7 +34949,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C453" s="30"/>
+      <c r="C453" s="29"/>
       <c r="D453" s="15" t="s">
         <v>64</v>
       </c>
@@ -34935,7 +34989,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C454" s="30"/>
+      <c r="C454" s="29"/>
       <c r="D454" s="15" t="s">
         <v>65</v>
       </c>
@@ -34975,7 +35029,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C455" s="30"/>
+      <c r="C455" s="29"/>
       <c r="D455" s="15" t="s">
         <v>52</v>
       </c>
@@ -35015,7 +35069,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C456" s="30"/>
+      <c r="C456" s="29"/>
       <c r="D456" s="15" t="s">
         <v>53</v>
       </c>
@@ -35055,7 +35109,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C457" s="30"/>
+      <c r="C457" s="29"/>
       <c r="D457" s="15" t="s">
         <v>60</v>
       </c>
@@ -35095,7 +35149,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C458" s="30"/>
+      <c r="C458" s="29"/>
       <c r="D458" s="15" t="s">
         <v>68</v>
       </c>
@@ -35135,7 +35189,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C459" s="30"/>
+      <c r="C459" s="29"/>
       <c r="D459" s="15" t="s">
         <v>71</v>
       </c>
@@ -35175,7 +35229,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C460" s="30"/>
+      <c r="C460" s="29"/>
       <c r="D460" s="15" t="s">
         <v>73</v>
       </c>
@@ -35215,7 +35269,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C461" s="30"/>
+      <c r="C461" s="29"/>
       <c r="D461" s="15" t="s">
         <v>59</v>
       </c>
@@ -35255,7 +35309,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C462" s="31"/>
+      <c r="C462" s="30"/>
       <c r="D462" s="15" t="s">
         <v>74</v>
       </c>
@@ -35294,7 +35348,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C463" s="29" t="s">
+      <c r="C463" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D463" s="15" t="s">
@@ -35336,7 +35390,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C464" s="30"/>
+      <c r="C464" s="29"/>
       <c r="D464" s="15" t="s">
         <v>70</v>
       </c>
@@ -35376,7 +35430,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C465" s="30"/>
+      <c r="C465" s="29"/>
       <c r="D465" s="15" t="s">
         <v>69</v>
       </c>
@@ -35416,7 +35470,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C466" s="30"/>
+      <c r="C466" s="29"/>
       <c r="D466" s="15" t="s">
         <v>3</v>
       </c>
@@ -35456,7 +35510,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C467" s="30"/>
+      <c r="C467" s="29"/>
       <c r="D467" s="15" t="s">
         <v>57</v>
       </c>
@@ -35496,7 +35550,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C468" s="30"/>
+      <c r="C468" s="29"/>
       <c r="D468" s="15" t="s">
         <v>0</v>
       </c>
@@ -35536,7 +35590,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C469" s="30"/>
+      <c r="C469" s="29"/>
       <c r="D469" s="15" t="s">
         <v>44</v>
       </c>
@@ -35576,7 +35630,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C470" s="30"/>
+      <c r="C470" s="29"/>
       <c r="D470" s="15" t="s">
         <v>54</v>
       </c>
@@ -35616,7 +35670,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C471" s="30"/>
+      <c r="C471" s="29"/>
       <c r="D471" s="15" t="s">
         <v>61</v>
       </c>
@@ -35656,7 +35710,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C472" s="30"/>
+      <c r="C472" s="29"/>
       <c r="D472" s="15" t="s">
         <v>62</v>
       </c>
@@ -35696,7 +35750,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C473" s="30"/>
+      <c r="C473" s="29"/>
       <c r="D473" s="15" t="s">
         <v>67</v>
       </c>
@@ -35736,7 +35790,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C474" s="30"/>
+      <c r="C474" s="29"/>
       <c r="D474" s="15" t="s">
         <v>46</v>
       </c>
@@ -35776,7 +35830,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C475" s="30"/>
+      <c r="C475" s="29"/>
       <c r="D475" s="15" t="s">
         <v>56</v>
       </c>
@@ -35816,7 +35870,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C476" s="30"/>
+      <c r="C476" s="29"/>
       <c r="D476" s="15" t="s">
         <v>72</v>
       </c>
@@ -35856,7 +35910,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C477" s="30"/>
+      <c r="C477" s="29"/>
       <c r="D477" s="15" t="s">
         <v>66</v>
       </c>
@@ -35896,7 +35950,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C478" s="30"/>
+      <c r="C478" s="29"/>
       <c r="D478" s="15" t="s">
         <v>58</v>
       </c>
@@ -35936,7 +35990,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C479" s="30"/>
+      <c r="C479" s="29"/>
       <c r="D479" s="15" t="s">
         <v>48</v>
       </c>
@@ -35976,7 +36030,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C480" s="30"/>
+      <c r="C480" s="29"/>
       <c r="D480" s="15" t="s">
         <v>47</v>
       </c>
@@ -36016,7 +36070,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C481" s="30"/>
+      <c r="C481" s="29"/>
       <c r="D481" s="15" t="s">
         <v>1</v>
       </c>
@@ -36056,7 +36110,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C482" s="30"/>
+      <c r="C482" s="29"/>
       <c r="D482" s="15" t="s">
         <v>2</v>
       </c>
@@ -36096,7 +36150,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C483" s="30"/>
+      <c r="C483" s="29"/>
       <c r="D483" s="15" t="s">
         <v>4</v>
       </c>
@@ -36136,7 +36190,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C484" s="30"/>
+      <c r="C484" s="29"/>
       <c r="D484" s="15" t="s">
         <v>45</v>
       </c>
@@ -36176,7 +36230,7 @@
         <f t="shared" si="91"/>
         <v>victory</v>
       </c>
-      <c r="C485" s="30"/>
+      <c r="C485" s="29"/>
       <c r="D485" s="15" t="s">
         <v>50</v>
       </c>
@@ -36216,7 +36270,7 @@
         <f t="shared" ref="B486:B501" si="98">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C486" s="30"/>
+      <c r="C486" s="29"/>
       <c r="D486" s="15" t="s">
         <v>49</v>
       </c>
@@ -36256,7 +36310,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C487" s="30"/>
+      <c r="C487" s="29"/>
       <c r="D487" s="15" t="s">
         <v>51</v>
       </c>
@@ -36296,7 +36350,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C488" s="30"/>
+      <c r="C488" s="29"/>
       <c r="D488" s="15" t="s">
         <v>55</v>
       </c>
@@ -36336,7 +36390,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C489" s="30"/>
+      <c r="C489" s="29"/>
       <c r="D489" s="15" t="s">
         <v>75</v>
       </c>
@@ -36376,7 +36430,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C490" s="30"/>
+      <c r="C490" s="29"/>
       <c r="D490" s="15" t="s">
         <v>64</v>
       </c>
@@ -36416,7 +36470,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C491" s="30"/>
+      <c r="C491" s="29"/>
       <c r="D491" s="15" t="s">
         <v>65</v>
       </c>
@@ -36456,7 +36510,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C492" s="30"/>
+      <c r="C492" s="29"/>
       <c r="D492" s="15" t="s">
         <v>52</v>
       </c>
@@ -36496,7 +36550,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C493" s="30"/>
+      <c r="C493" s="29"/>
       <c r="D493" s="15" t="s">
         <v>53</v>
       </c>
@@ -36536,7 +36590,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C494" s="30"/>
+      <c r="C494" s="29"/>
       <c r="D494" s="15" t="s">
         <v>60</v>
       </c>
@@ -36576,7 +36630,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C495" s="30"/>
+      <c r="C495" s="29"/>
       <c r="D495" s="15" t="s">
         <v>68</v>
       </c>
@@ -36616,7 +36670,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C496" s="30"/>
+      <c r="C496" s="29"/>
       <c r="D496" s="15" t="s">
         <v>71</v>
       </c>
@@ -36656,7 +36710,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C497" s="30"/>
+      <c r="C497" s="29"/>
       <c r="D497" s="15" t="s">
         <v>73</v>
       </c>
@@ -36696,7 +36750,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C498" s="30"/>
+      <c r="C498" s="29"/>
       <c r="D498" s="15" t="s">
         <v>59</v>
       </c>
@@ -36736,7 +36790,7 @@
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="C499" s="31"/>
+      <c r="C499" s="30"/>
       <c r="D499" s="15" t="s">
         <v>74</v>
       </c>
@@ -36769,11 +36823,11 @@
     </row>
     <row r="501" spans="1:24">
       <c r="A501" s="21"/>
-      <c r="B501" s="32" t="str">
+      <c r="B501" s="24" t="str">
         <f t="shared" si="98"/>
         <v>victory</v>
       </c>
-      <c r="D501" s="29" t="s">
+      <c r="D501" s="28" t="s">
         <v>167</v>
       </c>
       <c r="E501" s="18">
@@ -36786,10 +36840,10 @@
       </c>
     </row>
     <row r="502" spans="1:24">
-      <c r="B502" s="33" t="s">
+      <c r="B502" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D502" s="30"/>
+      <c r="D502" s="29"/>
       <c r="E502" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D501,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B502)</f>
         <v>9</v>
@@ -36800,10 +36854,10 @@
       </c>
     </row>
     <row r="503" spans="1:24">
-      <c r="B503" s="34" t="s">
+      <c r="B503" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D503" s="31"/>
+      <c r="D503" s="30"/>
       <c r="E503" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D501,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B503)</f>
         <v>1</v>
@@ -36815,11 +36869,11 @@
     </row>
     <row r="504" spans="1:24">
       <c r="A504" s="21"/>
-      <c r="B504" s="32" t="str">
-        <f t="shared" ref="B504:B506" si="100">$D$116</f>
+      <c r="B504" s="24" t="str">
+        <f t="shared" ref="B504" si="100">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D504" s="29" t="s">
+      <c r="D504" s="28" t="s">
         <v>149</v>
       </c>
       <c r="E504" s="18">
@@ -36832,10 +36886,10 @@
       </c>
     </row>
     <row r="505" spans="1:24">
-      <c r="B505" s="33" t="s">
+      <c r="B505" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D505" s="30"/>
+      <c r="D505" s="29"/>
       <c r="E505" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D504,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B505)</f>
         <v>0</v>
@@ -36846,10 +36900,10 @@
       </c>
     </row>
     <row r="506" spans="1:24">
-      <c r="B506" s="34" t="s">
+      <c r="B506" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D506" s="31"/>
+      <c r="D506" s="30"/>
       <c r="E506" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D504,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B506)</f>
         <v>0</v>
@@ -36861,11 +36915,11 @@
     </row>
     <row r="507" spans="1:24">
       <c r="A507" s="21"/>
-      <c r="B507" s="32" t="str">
-        <f t="shared" ref="B507:B512" si="102">$D$116</f>
+      <c r="B507" s="24" t="str">
+        <f t="shared" ref="B507" si="102">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D507" s="29" t="s">
+      <c r="D507" s="28" t="s">
         <v>151</v>
       </c>
       <c r="E507" s="18">
@@ -36878,10 +36932,10 @@
       </c>
     </row>
     <row r="508" spans="1:24">
-      <c r="B508" s="33" t="s">
+      <c r="B508" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D508" s="30"/>
+      <c r="D508" s="29"/>
       <c r="E508" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D507,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B508)</f>
         <v>0</v>
@@ -36892,10 +36946,10 @@
       </c>
     </row>
     <row r="509" spans="1:24">
-      <c r="B509" s="34" t="s">
+      <c r="B509" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D509" s="31"/>
+      <c r="D509" s="30"/>
       <c r="E509" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D507,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B509)</f>
         <v>0</v>
@@ -36907,11 +36961,11 @@
     </row>
     <row r="510" spans="1:24">
       <c r="A510" s="21"/>
-      <c r="B510" s="32" t="str">
-        <f t="shared" ref="B510:B512" si="103">$D$116</f>
+      <c r="B510" s="24" t="str">
+        <f t="shared" ref="B510" si="103">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D510" s="29" t="s">
+      <c r="D510" s="28" t="s">
         <v>153</v>
       </c>
       <c r="E510" s="18">
@@ -36924,10 +36978,10 @@
       </c>
     </row>
     <row r="511" spans="1:24">
-      <c r="B511" s="33" t="s">
+      <c r="B511" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D511" s="30"/>
+      <c r="D511" s="29"/>
       <c r="E511" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D510,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B511)</f>
         <v>0</v>
@@ -36938,10 +36992,10 @@
       </c>
     </row>
     <row r="512" spans="1:24">
-      <c r="B512" s="34" t="s">
+      <c r="B512" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D512" s="31"/>
+      <c r="D512" s="30"/>
       <c r="E512" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D510,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B512)</f>
         <v>0</v>
@@ -36953,11 +37007,11 @@
     </row>
     <row r="513" spans="1:24">
       <c r="A513" s="21"/>
-      <c r="B513" s="32" t="str">
-        <f t="shared" ref="B513:B524" si="105">$D$116</f>
+      <c r="B513" s="24" t="str">
+        <f t="shared" ref="B513" si="105">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D513" s="29" t="s">
+      <c r="D513" s="28" t="s">
         <v>154</v>
       </c>
       <c r="E513" s="18">
@@ -36970,10 +37024,10 @@
       </c>
     </row>
     <row r="514" spans="1:24">
-      <c r="B514" s="33" t="s">
+      <c r="B514" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D514" s="30"/>
+      <c r="D514" s="29"/>
       <c r="E514" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D513,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B514)</f>
         <v>0</v>
@@ -36984,10 +37038,10 @@
       </c>
     </row>
     <row r="515" spans="1:24">
-      <c r="B515" s="34" t="s">
+      <c r="B515" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D515" s="31"/>
+      <c r="D515" s="30"/>
       <c r="E515" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D513,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B515)</f>
         <v>1</v>
@@ -36999,11 +37053,11 @@
     </row>
     <row r="516" spans="1:24">
       <c r="A516" s="21"/>
-      <c r="B516" s="32" t="str">
-        <f t="shared" ref="B516:B518" si="106">$D$116</f>
+      <c r="B516" s="24" t="str">
+        <f t="shared" ref="B516" si="106">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D516" s="29" t="s">
+      <c r="D516" s="28" t="s">
         <v>156</v>
       </c>
       <c r="E516" s="18">
@@ -37016,10 +37070,10 @@
       </c>
     </row>
     <row r="517" spans="1:24">
-      <c r="B517" s="33" t="s">
+      <c r="B517" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D517" s="30"/>
+      <c r="D517" s="29"/>
       <c r="E517" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D516,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B517)</f>
         <v>1</v>
@@ -37030,10 +37084,10 @@
       </c>
     </row>
     <row r="518" spans="1:24">
-      <c r="B518" s="34" t="s">
+      <c r="B518" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D518" s="31"/>
+      <c r="D518" s="30"/>
       <c r="E518" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D516,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B518)</f>
         <v>1</v>
@@ -37045,11 +37099,11 @@
     </row>
     <row r="519" spans="1:24">
       <c r="A519" s="21"/>
-      <c r="B519" s="32" t="str">
-        <f t="shared" ref="B519:B524" si="107">$D$116</f>
+      <c r="B519" s="24" t="str">
+        <f t="shared" ref="B519" si="107">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D519" s="29" t="s">
+      <c r="D519" s="28" t="s">
         <v>158</v>
       </c>
       <c r="E519" s="18">
@@ -37062,10 +37116,10 @@
       </c>
     </row>
     <row r="520" spans="1:24">
-      <c r="B520" s="33" t="s">
+      <c r="B520" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D520" s="30"/>
+      <c r="D520" s="29"/>
       <c r="E520" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D519,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B520)</f>
         <v>0</v>
@@ -37076,10 +37130,10 @@
       </c>
     </row>
     <row r="521" spans="1:24">
-      <c r="B521" s="34" t="s">
+      <c r="B521" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D521" s="31"/>
+      <c r="D521" s="30"/>
       <c r="E521" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D519,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B521)</f>
         <v>0</v>
@@ -37091,11 +37145,11 @@
     </row>
     <row r="522" spans="1:24">
       <c r="A522" s="21"/>
-      <c r="B522" s="32" t="str">
-        <f t="shared" ref="B522:B524" si="108">$D$116</f>
+      <c r="B522" s="24" t="str">
+        <f t="shared" ref="B522" si="108">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D522" s="29" t="s">
+      <c r="D522" s="28" t="s">
         <v>160</v>
       </c>
       <c r="E522" s="18">
@@ -37108,10 +37162,10 @@
       </c>
     </row>
     <row r="523" spans="1:24">
-      <c r="B523" s="33" t="s">
+      <c r="B523" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D523" s="30"/>
+      <c r="D523" s="29"/>
       <c r="E523" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D522,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B523)</f>
         <v>3</v>
@@ -37122,10 +37176,10 @@
       </c>
     </row>
     <row r="524" spans="1:24">
-      <c r="B524" s="34" t="s">
+      <c r="B524" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D524" s="31"/>
+      <c r="D524" s="30"/>
       <c r="E524" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D522,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B524)</f>
         <v>0</v>
@@ -37137,11 +37191,11 @@
     </row>
     <row r="525" spans="1:24">
       <c r="A525" s="21"/>
-      <c r="B525" s="32" t="str">
-        <f t="shared" ref="B525:B540" si="110">$D$116</f>
+      <c r="B525" s="24" t="str">
+        <f t="shared" ref="B525" si="110">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D525" s="29" t="s">
+      <c r="D525" s="28" t="s">
         <v>162</v>
       </c>
       <c r="E525" s="18">
@@ -37154,10 +37208,10 @@
       </c>
     </row>
     <row r="526" spans="1:24">
-      <c r="B526" s="33" t="s">
+      <c r="B526" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D526" s="30"/>
+      <c r="D526" s="29"/>
       <c r="E526" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D525,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B526)</f>
         <v>0</v>
@@ -37168,10 +37222,10 @@
       </c>
     </row>
     <row r="527" spans="1:24">
-      <c r="B527" s="34" t="s">
+      <c r="B527" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D527" s="31"/>
+      <c r="D527" s="30"/>
       <c r="E527" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D525,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B527)</f>
         <v>0</v>
@@ -37183,11 +37237,11 @@
     </row>
     <row r="528" spans="1:24">
       <c r="A528" s="21"/>
-      <c r="B528" s="32" t="str">
-        <f t="shared" ref="B528:B530" si="111">$D$116</f>
+      <c r="B528" s="24" t="str">
+        <f t="shared" ref="B528" si="111">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D528" s="29" t="s">
+      <c r="D528" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E528" s="18">
@@ -37200,10 +37254,10 @@
       </c>
     </row>
     <row r="529" spans="1:24">
-      <c r="B529" s="33" t="s">
+      <c r="B529" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D529" s="30"/>
+      <c r="D529" s="29"/>
       <c r="E529" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D528,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B529)</f>
         <v>0</v>
@@ -37214,10 +37268,10 @@
       </c>
     </row>
     <row r="530" spans="1:24">
-      <c r="B530" s="34" t="s">
+      <c r="B530" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D530" s="31"/>
+      <c r="D530" s="30"/>
       <c r="E530" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D528,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B530)</f>
         <v>0</v>
@@ -37229,11 +37283,11 @@
     </row>
     <row r="531" spans="1:24">
       <c r="A531" s="21"/>
-      <c r="B531" s="32" t="str">
-        <f t="shared" ref="B531:B536" si="112">$D$116</f>
+      <c r="B531" s="24" t="str">
+        <f t="shared" ref="B531" si="112">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D531" s="29" t="s">
+      <c r="D531" s="28" t="s">
         <v>166</v>
       </c>
       <c r="E531" s="18">
@@ -37246,10 +37300,10 @@
       </c>
     </row>
     <row r="532" spans="1:24">
-      <c r="B532" s="33" t="s">
+      <c r="B532" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D532" s="30"/>
+      <c r="D532" s="29"/>
       <c r="E532" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D531,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B532)</f>
         <v>0</v>
@@ -37260,10 +37314,10 @@
       </c>
     </row>
     <row r="533" spans="1:24">
-      <c r="B533" s="34" t="s">
+      <c r="B533" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D533" s="31"/>
+      <c r="D533" s="30"/>
       <c r="E533" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D531,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B533)</f>
         <v>0</v>
@@ -37275,11 +37329,11 @@
     </row>
     <row r="534" spans="1:24">
       <c r="A534" s="21"/>
-      <c r="B534" s="32" t="str">
-        <f t="shared" ref="B534:B536" si="113">$D$116</f>
+      <c r="B534" s="24" t="str">
+        <f t="shared" ref="B534" si="113">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D534" s="29" t="s">
+      <c r="D534" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E534" s="18">
@@ -37292,10 +37346,10 @@
       </c>
     </row>
     <row r="535" spans="1:24">
-      <c r="B535" s="33" t="s">
+      <c r="B535" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D535" s="30"/>
+      <c r="D535" s="29"/>
       <c r="E535" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D534,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B535)</f>
         <v>0</v>
@@ -37306,10 +37360,10 @@
       </c>
     </row>
     <row r="536" spans="1:24">
-      <c r="B536" s="34" t="s">
+      <c r="B536" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D536" s="31"/>
+      <c r="D536" s="30"/>
       <c r="E536" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D534,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B536)</f>
         <v>1</v>
@@ -37321,11 +37375,11 @@
     </row>
     <row r="537" spans="1:24">
       <c r="A537" s="21"/>
-      <c r="B537" s="32" t="str">
-        <f t="shared" ref="B537:B548" si="114">$D$116</f>
+      <c r="B537" s="24" t="str">
+        <f t="shared" ref="B537" si="114">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D537" s="29"/>
+      <c r="D537" s="28"/>
       <c r="E537" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D537,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B537)</f>
         <v>0</v>
@@ -37336,10 +37390,10 @@
       </c>
     </row>
     <row r="538" spans="1:24">
-      <c r="B538" s="33" t="s">
+      <c r="B538" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D538" s="30"/>
+      <c r="D538" s="29"/>
       <c r="E538" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D537,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B538)</f>
         <v>0</v>
@@ -37350,10 +37404,10 @@
       </c>
     </row>
     <row r="539" spans="1:24">
-      <c r="B539" s="34" t="s">
+      <c r="B539" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D539" s="31"/>
+      <c r="D539" s="30"/>
       <c r="E539" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D537,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B539)</f>
         <v>0</v>
@@ -37365,11 +37419,11 @@
     </row>
     <row r="540" spans="1:24">
       <c r="A540" s="21"/>
-      <c r="B540" s="32" t="str">
-        <f t="shared" ref="B540:B542" si="115">$D$116</f>
+      <c r="B540" s="24" t="str">
+        <f t="shared" ref="B540" si="115">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D540" s="29"/>
+      <c r="D540" s="28"/>
       <c r="E540" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D540,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B540)</f>
         <v>0</v>
@@ -37380,10 +37434,10 @@
       </c>
     </row>
     <row r="541" spans="1:24">
-      <c r="B541" s="33" t="s">
+      <c r="B541" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D541" s="30"/>
+      <c r="D541" s="29"/>
       <c r="E541" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D540,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B541)</f>
         <v>0</v>
@@ -37394,10 +37448,10 @@
       </c>
     </row>
     <row r="542" spans="1:24">
-      <c r="B542" s="34" t="s">
+      <c r="B542" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D542" s="31"/>
+      <c r="D542" s="30"/>
       <c r="E542" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D540,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B542)</f>
         <v>0</v>
@@ -37409,11 +37463,11 @@
     </row>
     <row r="543" spans="1:24">
       <c r="A543" s="21"/>
-      <c r="B543" s="32" t="str">
-        <f t="shared" ref="B543:B548" si="116">$D$116</f>
+      <c r="B543" s="24" t="str">
+        <f t="shared" ref="B543" si="116">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D543" s="29"/>
+      <c r="D543" s="28"/>
       <c r="E543" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D543,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B543)</f>
         <v>0</v>
@@ -37424,10 +37478,10 @@
       </c>
     </row>
     <row r="544" spans="1:24">
-      <c r="B544" s="33" t="s">
+      <c r="B544" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D544" s="30"/>
+      <c r="D544" s="29"/>
       <c r="E544" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D543,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B544)</f>
         <v>0</v>
@@ -37438,10 +37492,10 @@
       </c>
     </row>
     <row r="545" spans="1:24">
-      <c r="B545" s="34" t="s">
+      <c r="B545" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D545" s="31"/>
+      <c r="D545" s="30"/>
       <c r="E545" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D543,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B545)</f>
         <v>0</v>
@@ -37453,11 +37507,11 @@
     </row>
     <row r="546" spans="1:24">
       <c r="A546" s="21"/>
-      <c r="B546" s="32" t="str">
-        <f t="shared" ref="B546:B548" si="117">$D$116</f>
+      <c r="B546" s="24" t="str">
+        <f t="shared" ref="B546" si="117">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D546" s="29"/>
+      <c r="D546" s="28"/>
       <c r="E546" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D546,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B546)</f>
         <v>0</v>
@@ -37468,10 +37522,10 @@
       </c>
     </row>
     <row r="547" spans="1:24">
-      <c r="B547" s="33" t="s">
+      <c r="B547" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D547" s="30"/>
+      <c r="D547" s="29"/>
       <c r="E547" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D546,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B547)</f>
         <v>0</v>
@@ -37482,10 +37536,10 @@
       </c>
     </row>
     <row r="548" spans="1:24">
-      <c r="B548" s="34" t="s">
+      <c r="B548" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D548" s="31"/>
+      <c r="D548" s="30"/>
       <c r="E548" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D546,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B548)</f>
         <v>0</v>
@@ -37495,84 +37549,594 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:24" ht="45" customHeight="1">
-      <c r="E550" s="2" t="str">
-        <f>D501</f>
+    <row r="550" spans="1:24">
+      <c r="E550" s="2">
+        <v>0</v>
+      </c>
+      <c r="F550" s="2">
+        <f>E550+1</f>
+        <v>1</v>
+      </c>
+      <c r="G550" s="2">
+        <f t="shared" ref="G550:W550" si="119">F550+1</f>
+        <v>2</v>
+      </c>
+      <c r="H550" s="2">
+        <f t="shared" si="119"/>
+        <v>3</v>
+      </c>
+      <c r="I550" s="2">
+        <f t="shared" si="119"/>
+        <v>4</v>
+      </c>
+      <c r="J550" s="2">
+        <f t="shared" si="119"/>
+        <v>5</v>
+      </c>
+      <c r="K550" s="2">
+        <f t="shared" si="119"/>
+        <v>6</v>
+      </c>
+      <c r="L550" s="2">
+        <f t="shared" si="119"/>
+        <v>7</v>
+      </c>
+      <c r="M550" s="2">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="N550" s="2">
+        <f t="shared" si="119"/>
+        <v>9</v>
+      </c>
+      <c r="O550" s="2">
+        <f t="shared" si="119"/>
+        <v>10</v>
+      </c>
+      <c r="P550" s="2">
+        <f t="shared" si="119"/>
+        <v>11</v>
+      </c>
+      <c r="Q550" s="2">
+        <f t="shared" si="119"/>
+        <v>12</v>
+      </c>
+      <c r="R550" s="2">
+        <f t="shared" si="119"/>
+        <v>13</v>
+      </c>
+      <c r="S550" s="2">
+        <f t="shared" si="119"/>
+        <v>14</v>
+      </c>
+      <c r="T550" s="2">
+        <f t="shared" si="119"/>
+        <v>15</v>
+      </c>
+      <c r="U550" s="2">
+        <f t="shared" si="119"/>
+        <v>16</v>
+      </c>
+      <c r="V550" s="2">
+        <f t="shared" si="119"/>
+        <v>17</v>
+      </c>
+      <c r="W550" s="2">
+        <f t="shared" si="119"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="551" spans="1:24" ht="45" customHeight="1">
+      <c r="E551" s="36" t="str">
+        <f ca="1">OFFSET($D$501,E550*3,0)</f>
         <v>MIX</v>
       </c>
-      <c r="F550" s="2" t="str">
-        <f>D504</f>
+      <c r="F551" s="36" t="str">
+        <f t="shared" ref="F551:W551" ca="1" si="120">OFFSET($D$501,F550*3,0)</f>
         <v>BUTPH</v>
       </c>
-      <c r="G550" s="2" t="str">
-        <f>D507</f>
+      <c r="G551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
         <v>DLT</v>
       </c>
-    </row>
-    <row r="551" spans="1:24">
-      <c r="D551" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E551" s="2">
-        <f ca="1">X501</f>
-        <v>7</v>
-      </c>
-      <c r="F551" s="2">
-        <f ca="1">E554</f>
-        <v>17</v>
+      <c r="H551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>MSD</v>
+      </c>
+      <c r="I551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>SZ</v>
+      </c>
+      <c r="J551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>TOG1R</v>
+      </c>
+      <c r="K551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>STARK</v>
+      </c>
+      <c r="L551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>YSD-N</v>
+      </c>
+      <c r="M551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>RT</v>
+      </c>
+      <c r="N551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>T_O_T</v>
+      </c>
+      <c r="O551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>TH-GT</v>
+      </c>
+      <c r="P551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>TWCAT</v>
+      </c>
+      <c r="Q551" s="36">
+        <f t="shared" ca="1" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="R551" s="36">
+        <f t="shared" ca="1" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="S551" s="36">
+        <f t="shared" ca="1" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="T551" s="36">
+        <f t="shared" ca="1" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="U551" s="36">
+        <f t="shared" ca="1" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="V551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>victory</v>
+      </c>
+      <c r="W551" s="36" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>total</v>
       </c>
     </row>
     <row r="552" spans="1:24">
       <c r="D552" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E552" s="2">
-        <f ca="1">X502</f>
-        <v>9</v>
+        <f ca="1">OFFSET($E501,E550,0)</f>
+        <v>7</v>
+      </c>
+      <c r="F552" s="2">
+        <f ca="1">OFFSET($E501,F$550*3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G552" s="2">
+        <f t="shared" ref="G552:W552" ca="1" si="121">OFFSET($E501,G550,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H552" s="2">
+        <f t="shared" ref="H552:W552" ca="1" si="122">OFFSET($E501,H$550*3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I552" s="2">
+        <f t="shared" ref="I552:W552" ca="1" si="123">OFFSET($E501,I550,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J552" s="2">
+        <f t="shared" ref="J552:W552" ca="1" si="124">OFFSET($E501,J$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K552" s="2">
+        <f t="shared" ref="K552:W552" ca="1" si="125">OFFSET($E501,K550,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L552" s="2">
+        <f t="shared" ref="L552:W552" ca="1" si="126">OFFSET($E501,L$550*3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M552" s="2">
+        <f t="shared" ref="M552:W552" ca="1" si="127">OFFSET($E501,M550,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N552" s="2">
+        <f t="shared" ref="N552:W552" ca="1" si="128">OFFSET($E501,N$550*3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O552" s="2">
+        <f t="shared" ref="O552:W552" ca="1" si="129">OFFSET($E501,O550,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P552" s="2">
+        <f t="shared" ref="P552:W552" ca="1" si="130">OFFSET($E501,P$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q552" s="2">
+        <f t="shared" ref="Q552:W552" ca="1" si="131">OFFSET($E501,Q550,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R552" s="2">
+        <f t="shared" ref="R552:W552" ca="1" si="132">OFFSET($E501,R$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S552" s="2">
+        <f t="shared" ref="S552:W552" ca="1" si="133">OFFSET($E501,S550,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T552" s="2">
+        <f t="shared" ref="T552:W552" ca="1" si="134">OFFSET($E501,T$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U552" s="2">
+        <f t="shared" ref="U552:W552" ca="1" si="135">OFFSET($E501,U550,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V552" s="2">
+        <f t="shared" ref="V552:W552" ca="1" si="136">OFFSET($E501,V$550*3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="W552" s="2">
+        <f t="shared" ref="W552" ca="1" si="137">OFFSET($E501,W550,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:24">
       <c r="D553" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E553" s="2">
+        <f ca="1">OFFSET(E502,0,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F553" s="2">
+        <f ca="1">OFFSET($E502,F$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G553" s="2">
+        <f t="shared" ref="G553:W553" ca="1" si="138">OFFSET(G502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H553" s="2">
+        <f t="shared" ref="H553:W553" ca="1" si="139">OFFSET($E502,H$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I553" s="2">
+        <f t="shared" ref="I553:W553" ca="1" si="140">OFFSET(I502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J553" s="2">
+        <f t="shared" ref="J553:W553" ca="1" si="141">OFFSET($E502,J$550*3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K553" s="2">
+        <f t="shared" ref="K553:W553" ca="1" si="142">OFFSET(K502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L553" s="2">
+        <f t="shared" ref="L553:W553" ca="1" si="143">OFFSET($E502,L$550*3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M553" s="2">
+        <f t="shared" ref="M553:W553" ca="1" si="144">OFFSET(M502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N553" s="2">
+        <f t="shared" ref="N553:W553" ca="1" si="145">OFFSET($E502,N$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O553" s="2">
+        <f t="shared" ref="O553:W553" ca="1" si="146">OFFSET(O502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P553" s="2">
+        <f t="shared" ref="P553:W553" ca="1" si="147">OFFSET($E502,P$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q553" s="2">
+        <f t="shared" ref="Q553:W553" ca="1" si="148">OFFSET(Q502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R553" s="2">
+        <f t="shared" ref="R553:W553" ca="1" si="149">OFFSET($E502,R$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S553" s="2">
+        <f t="shared" ref="S553:W553" ca="1" si="150">OFFSET(S502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T553" s="2">
+        <f t="shared" ref="T553:W553" ca="1" si="151">OFFSET($E502,T$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U553" s="2">
+        <f t="shared" ref="U553:W553" ca="1" si="152">OFFSET(U502,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V553" s="2">
+        <f t="shared" ref="V553:W553" ca="1" si="153">OFFSET($E502,V$550*3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="W553" s="2">
+        <f t="shared" ref="W553" ca="1" si="154">OFFSET(W502,0,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:24">
+      <c r="D554" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E553" s="2">
+      <c r="E554" s="2">
         <f ca="1">X503</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:24">
-      <c r="D554" s="2" t="s">
+      <c r="F554" s="2">
+        <f ca="1">OFFSET($E503,F$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G554" s="2">
+        <f t="shared" ref="G554" si="155">Z503</f>
+        <v>0</v>
+      </c>
+      <c r="H554" s="2">
+        <f t="shared" ref="H554:W554" ca="1" si="156">OFFSET($E503,H$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I554" s="2">
+        <f t="shared" ref="I554" si="157">AB503</f>
+        <v>0</v>
+      </c>
+      <c r="J554" s="2">
+        <f t="shared" ref="J554:W554" ca="1" si="158">OFFSET($E503,J$550*3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K554" s="2">
+        <f t="shared" ref="K554" si="159">AD503</f>
+        <v>0</v>
+      </c>
+      <c r="L554" s="2">
+        <f t="shared" ref="L554:W554" ca="1" si="160">OFFSET($E503,L$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M554" s="2">
+        <f t="shared" ref="M554" si="161">AF503</f>
+        <v>0</v>
+      </c>
+      <c r="N554" s="2">
+        <f t="shared" ref="N554:W554" ca="1" si="162">OFFSET($E503,N$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O554" s="2">
+        <f t="shared" ref="O554" si="163">AH503</f>
+        <v>0</v>
+      </c>
+      <c r="P554" s="2">
+        <f t="shared" ref="P554:W554" ca="1" si="164">OFFSET($E503,P$550*3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q554" s="2">
+        <f t="shared" ref="Q554" si="165">AJ503</f>
+        <v>0</v>
+      </c>
+      <c r="R554" s="2">
+        <f t="shared" ref="R554:W554" ca="1" si="166">OFFSET($E503,R$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S554" s="2">
+        <f t="shared" ref="S554" si="167">AL503</f>
+        <v>0</v>
+      </c>
+      <c r="T554" s="2">
+        <f t="shared" ref="T554:W554" ca="1" si="168">OFFSET($E503,T$550*3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U554" s="2">
+        <f t="shared" ref="U554" si="169">AN503</f>
+        <v>0</v>
+      </c>
+      <c r="V554" s="2">
+        <f t="shared" ref="V554:W554" ca="1" si="170">OFFSET($E503,V$550*3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W554" s="2">
+        <f t="shared" ref="W554" si="171">AP503</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:24">
+      <c r="D555" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E554" s="2">
-        <f ca="1">SUM(E551:E553)</f>
+      <c r="E555" s="2">
+        <f ca="1">SUM(E552:E554)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="555" spans="1:24">
-      <c r="E555" s="35">
-        <f ca="1">E551/E554</f>
+      <c r="F555" s="2">
+        <f ca="1">SUM(F552:F554)</f>
+        <v>1</v>
+      </c>
+      <c r="G555" s="2">
+        <f t="shared" ref="G555:W555" ca="1" si="172">SUM(G552:G554)</f>
+        <v>1</v>
+      </c>
+      <c r="H555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="I555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="J555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>2</v>
+      </c>
+      <c r="K555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="L555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>5</v>
+      </c>
+      <c r="M555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="N555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="O555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="P555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="Q555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="R555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="S555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="T555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="U555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="V555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>17</v>
+      </c>
+      <c r="W555" s="2">
+        <f t="shared" ca="1" si="172"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:24">
+      <c r="D556" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E556" s="27">
+        <f ca="1">IFERROR(E552/E555,"")</f>
         <v>0.41176470588235292</v>
       </c>
+      <c r="F556" s="27">
+        <f t="shared" ref="F556:W556" ca="1" si="173">IFERROR(F552/F555,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="H556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="I556" s="27" t="str">
+        <f t="shared" ca="1" si="173"/>
+        <v/>
+      </c>
+      <c r="J556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="K556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="L556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>0.4</v>
+      </c>
+      <c r="M556" s="27" t="str">
+        <f t="shared" ca="1" si="173"/>
+        <v/>
+      </c>
+      <c r="N556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="O556" s="27" t="str">
+        <f t="shared" ca="1" si="173"/>
+        <v/>
+      </c>
+      <c r="P556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="Q556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="R556" s="27" t="str">
+        <f t="shared" ca="1" si="173"/>
+        <v/>
+      </c>
+      <c r="S556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="T556" s="27" t="str">
+        <f t="shared" ca="1" si="173"/>
+        <v/>
+      </c>
+      <c r="U556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="V556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="W556" s="27">
+        <f t="shared" ca="1" si="173"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:24">
+      <c r="D558" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D546:D548"/>
-    <mergeCell ref="D531:D533"/>
-    <mergeCell ref="D534:D536"/>
-    <mergeCell ref="D537:D539"/>
-    <mergeCell ref="D540:D542"/>
-    <mergeCell ref="D543:D545"/>
-    <mergeCell ref="D516:D518"/>
-    <mergeCell ref="D519:D521"/>
-    <mergeCell ref="D522:D524"/>
-    <mergeCell ref="D525:D527"/>
-    <mergeCell ref="D528:D530"/>
-    <mergeCell ref="D501:D503"/>
-    <mergeCell ref="D504:D506"/>
-    <mergeCell ref="D507:D509"/>
-    <mergeCell ref="D510:D512"/>
-    <mergeCell ref="D513:D515"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C426:C462"/>
+    <mergeCell ref="C17:C53"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C135:C171"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C232:C233"/>
     <mergeCell ref="C463:C499"/>
     <mergeCell ref="C278:C314"/>
     <mergeCell ref="C315:C351"/>
@@ -37589,29 +38153,22 @@
     <mergeCell ref="C389:C425"/>
     <mergeCell ref="C133:C134"/>
     <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C426:C462"/>
-    <mergeCell ref="C17:C53"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C135:C171"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D501:D503"/>
+    <mergeCell ref="D504:D506"/>
+    <mergeCell ref="D507:D509"/>
+    <mergeCell ref="D510:D512"/>
+    <mergeCell ref="D513:D515"/>
+    <mergeCell ref="D516:D518"/>
+    <mergeCell ref="D519:D521"/>
+    <mergeCell ref="D522:D524"/>
+    <mergeCell ref="D525:D527"/>
+    <mergeCell ref="D528:D530"/>
+    <mergeCell ref="D546:D548"/>
+    <mergeCell ref="D531:D533"/>
+    <mergeCell ref="D534:D536"/>
+    <mergeCell ref="D537:D539"/>
+    <mergeCell ref="D540:D542"/>
+    <mergeCell ref="D543:D545"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/WoT.xlsx
+++ b/WoT.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="191">
   <si>
     <t>湖の村</t>
   </si>
@@ -1288,18 +1288,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1311,6 +1299,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -1373,28 +1373,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="57" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1755,13 +1734,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,19 +2068,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.3898305084745763E-2</c:v>
+                  <c:v>3.1746031746031744E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949152542372881E-2</c:v>
+                  <c:v>1.5873015873015872E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6949152542372881E-2</c:v>
+                  <c:v>1.5873015873015872E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6949152542372881E-2</c:v>
+                  <c:v>3.1746031746031744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2234,25 +2213,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10169491525423729</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3898305084745763E-2</c:v>
+                  <c:v>3.1746031746031744E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3898305084745763E-2</c:v>
+                  <c:v>3.1746031746031744E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3898305084745763E-2</c:v>
+                  <c:v>3.1746031746031744E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15254237288135594</c:v>
+                  <c:v>0.17460317460317459</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0847457627118647E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2379,25 +2358,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0847457627118647E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3898305084745763E-2</c:v>
+                  <c:v>3.1746031746031744E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0847457627118647E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10169491525423729</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15254237288135594</c:v>
+                  <c:v>0.15873015873015872</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11864406779661017</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,11 +2392,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="393401544"/>
-        <c:axId val="393401936"/>
+        <c:axId val="375680648"/>
+        <c:axId val="371478232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393401544"/>
+        <c:axId val="375680648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2439,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393401936"/>
+        <c:crossAx val="371478232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2468,7 +2447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393401936"/>
+        <c:axId val="371478232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2457,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393401544"/>
+        <c:crossAx val="375680648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3056,11 +3035,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="393402720"/>
-        <c:axId val="393403112"/>
+        <c:axId val="376812240"/>
+        <c:axId val="376812632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393402720"/>
+        <c:axId val="376812240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3081,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393403112"/>
+        <c:crossAx val="376812632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3110,7 +3089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393403112"/>
+        <c:axId val="376812632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3120,7 +3099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393402720"/>
+        <c:crossAx val="376812240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3559,11 +3538,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="393593560"/>
-        <c:axId val="393593952"/>
+        <c:axId val="376814200"/>
+        <c:axId val="376814592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393593560"/>
+        <c:axId val="376814200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,7 +3580,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393593952"/>
+        <c:crossAx val="376814592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3609,7 +3588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393593952"/>
+        <c:axId val="376814592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,7 +3598,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393593560"/>
+        <c:crossAx val="376814200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3909,10 +3888,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4838709677419355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.5161290322580645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4274,13 +4253,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36666666666666664</c:v>
+                  <c:v>0.35483870967741937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.35483870967741937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4620,10 +4599,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.35483870967741937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6333333333333333</c:v>
+                  <c:v>0.64516129032258063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5149,7 +5128,7 @@
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -5439,7 +5418,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5454,7 +5433,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.375</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5499,7 +5478,7 @@
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -5563,11 +5542,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="388156800"/>
-        <c:axId val="388156408"/>
+        <c:axId val="374711096"/>
+        <c:axId val="371479800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388156800"/>
+        <c:axId val="374711096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,7 +5588,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388156408"/>
+        <c:crossAx val="371479800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5617,7 +5596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388156408"/>
+        <c:axId val="371479800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,7 +5606,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388156800"/>
+        <c:crossAx val="374711096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5973,7 +5952,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6142,7 +6121,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6314,7 +6293,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6330,8 +6309,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="388157976"/>
-        <c:axId val="388177640"/>
+        <c:axId val="374600712"/>
+        <c:axId val="374599928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6378,61 +6357,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6449,11 +6428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="388176856"/>
-        <c:axId val="388177248"/>
+        <c:axId val="375677512"/>
+        <c:axId val="375677120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="388157976"/>
+        <c:axId val="374600712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,14 +6476,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388177640"/>
+        <c:crossAx val="374599928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="388177640"/>
+        <c:axId val="374599928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6547,12 +6526,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="388157976"/>
+        <c:crossAx val="374600712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388177248"/>
+        <c:axId val="375677120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6591,12 +6570,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388176856"/>
+        <c:crossAx val="375677512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="388176856"/>
+        <c:axId val="375677512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6605,7 +6584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="388177248"/>
+        <c:crossAx val="375677120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6856,7 +6835,7 @@
                   <c:v>0.54347826086956519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6922,8 +6901,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="390017856"/>
-        <c:axId val="390018248"/>
+        <c:axId val="375678296"/>
+        <c:axId val="375678688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7033,61 +7012,61 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46404682274247488</c:v>
+                  <c:v>0.44820971867007675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7104,11 +7083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390017856"/>
-        <c:axId val="390018248"/>
+        <c:axId val="375678296"/>
+        <c:axId val="375678688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390017856"/>
+        <c:axId val="375678296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,14 +7129,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390018248"/>
+        <c:crossAx val="375678688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390018248"/>
+        <c:axId val="375678688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,7 +7186,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390017856"/>
+        <c:crossAx val="375678296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7576,7 +7555,7 @@
                   <c:v>1.2469879518072289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>1.3962264150943395</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7643,8 +7622,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-25"/>
-        <c:axId val="393029912"/>
-        <c:axId val="393399584"/>
+        <c:axId val="374695952"/>
+        <c:axId val="375679472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7688,61 +7667,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3734939759036144</c:v>
+                  <c:v>1.3216071834507841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7759,11 +7738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393029912"/>
-        <c:axId val="393399584"/>
+        <c:axId val="374695952"/>
+        <c:axId val="375679472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393029912"/>
+        <c:axId val="374695952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7805,14 +7784,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393399584"/>
+        <c:crossAx val="375679472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393399584"/>
+        <c:axId val="375679472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7862,7 +7841,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393029912"/>
+        <c:crossAx val="374695952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8287,7 +8266,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8302,7 +8281,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.125</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -8347,7 +8326,7 @@
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -8651,7 +8630,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -8696,7 +8675,7 @@
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -8760,11 +8739,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="393400368"/>
-        <c:axId val="393400760"/>
+        <c:axId val="374696736"/>
+        <c:axId val="374697128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393400368"/>
+        <c:axId val="374696736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8806,7 +8785,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393400760"/>
+        <c:crossAx val="374697128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8814,7 +8793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393400760"/>
+        <c:axId val="374697128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8824,7 +8803,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393400368"/>
+        <c:crossAx val="374696736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15875,7 +15854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A52" zoomScale="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -15902,8 +15881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB594"/>
   <sheetViews>
-    <sheetView topLeftCell="B486" workbookViewId="0">
-      <selection activeCell="D551" sqref="D551:D553"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15921,38 +15900,38 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="36" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="38"/>
+      <c r="X1" s="34"/>
     </row>
     <row r="2" spans="2:24" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
@@ -16029,7 +16008,7 @@
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -16061,49 +16040,49 @@
       </c>
       <c r="K3" s="8">
         <f t="shared" ref="K3:M9" ca="1" si="1">E3/SUM($X$3:$X$9)</f>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10169491525423729</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" ref="N3:N9" ca="1" si="2">E3/SUM($E$3:$E$9)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O9" ca="1" si="3">F3/SUM($F$3:$F$9)</f>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="P3" s="8">
         <f ca="1">G3/SUM($G$3:$G$9)</f>
-        <v>0.1</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="Q3" s="8">
         <f ca="1">SUM(E$3:E$9)/SUM($X$3:$X$9)</f>
-        <v>8.4745762711864403E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="R3" s="8">
         <f ca="1">SUM(F$3:F$9)/SUM($X$3:$X$9)</f>
-        <v>0.40677966101694918</v>
+        <v>0.41269841269841268</v>
       </c>
       <c r="S3" s="8">
         <f ca="1">SUM(G$3:G$9)/SUM($X$3:$X$9)</f>
-        <v>0.50847457627118642</v>
+        <v>0.49206349206349204</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" ref="T3:T9" ca="1" si="4">SUM($E3:$G3)/SUM($X$3:$X$9)</f>
-        <v>0.1864406779661017</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="8">
         <f ca="1">X3/SUM($X$3:$X$9)</f>
-        <v>0.1864406779661017</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="X3" s="1">
         <f ca="1">SUM(E3:G3)</f>
@@ -16112,7 +16091,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
-      <c r="C4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
@@ -16142,40 +16121,40 @@
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" ref="P4:P9" ca="1" si="11">G4/SUM($G$3:$G$9)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4745762711864403E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="8">
         <f t="shared" ref="W4:W9" ca="1" si="12">X4/SUM($X$3:$X$9)</f>
-        <v>8.4745762711864403E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="X4" s="1">
         <f t="shared" ref="X4:X53" ca="1" si="13">SUM(E4:G4)</f>
@@ -16184,7 +16163,7 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
-      <c r="C5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -16218,11 +16197,11 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -16230,24 +16209,24 @@
       </c>
       <c r="O5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4745762711864403E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>8.4745762711864403E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16256,7 +16235,7 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
@@ -16286,40 +16265,40 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10169491525423729</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.2</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15254237288135594</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15254237288135594</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16328,79 +16307,79 @@
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2631578947368418E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47368421052631576</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47368421052631576</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6949152542372881E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15254237288135594</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15254237288135594</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.375</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.3</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32203389830508472</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32203389830508472</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
-      <c r="C8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
@@ -16472,7 +16451,7 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
@@ -16506,11 +16485,11 @@
       </c>
       <c r="L9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11864406779661017</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -16518,24 +16497,24 @@
       </c>
       <c r="O9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.23333333333333334</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16949152542372881</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16949152542372881</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16544,7 +16523,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -16556,7 +16535,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F53" ca="1" si="15">X181</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10:G53" ca="1" si="16">X234</f>
@@ -16564,31 +16543,31 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H53" ca="1" si="17">E10/$X10</f>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ref="I10:I53" ca="1" si="18">F10/$X10</f>
-        <v>0.42857142857142855</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ref="J10:J53" ca="1" si="19">G10/$X10</f>
-        <v>0.5357142857142857</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ref="K10:M11" ca="1" si="20">E10/SUM($X$10:$X$11)</f>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.20338983050847459</v>
+        <v>0.20634920634920634</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25423728813559321</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ref="N10:P11" ca="1" si="21">E10/SUM(E$10:E$11)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="21"/>
@@ -16596,7 +16575,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -16606,58 +16585,58 @@
       <c r="V10" s="1"/>
       <c r="W10" s="8">
         <f ca="1">X10/SUM($X$10:$X$11)</f>
-        <v>0.47457627118644069</v>
+        <v>0.46031746031746029</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.12903225806451613</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.38709677419354838</v>
+        <v>0.38235294117647056</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.4838709677419355</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6.7796610169491525E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.20338983050847459</v>
+        <v>0.20634920634920634</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25423728813559321</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="21"/>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" ca="1" si="21"/>
@@ -16665,7 +16644,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -16675,16 +16654,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="8">
         <f ca="1">X11/SUM($X$10:$X$11)</f>
-        <v>0.52542372881355937</v>
+        <v>0.53968253968253965</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -16716,27 +16695,27 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:M13" ca="1" si="22">E12/SUM($X$12:$X$14)</f>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>0.16949152542372881</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15254237288135594</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ref="N12:P14" ca="1" si="23">E12/SUM(E$12:E$14)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.41666666666666669</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.3</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -16746,7 +16725,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="8">
         <f ca="1">X12/SUM($X$12:$X$14)</f>
-        <v>0.3559322033898305</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16755,13 +16734,13 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">X131</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">X184</f>
@@ -16773,39 +16752,39 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.73333333333333328</v>
+        <v>0.6875</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>1.6949152542372881E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0847457627118647E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>0.1864406779661017</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.125</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.36666666666666664</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -16815,16 +16794,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="8">
         <f ca="1">X13/SUM($X$12:$X$14)</f>
-        <v>0.25423728813559321</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
@@ -16834,47 +16813,47 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">X185</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1">
         <f ca="1">X238</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>8.6956521739130432E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.47826086956521741</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.43478260869565216</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="K14" s="8">
         <f ca="1">E14/SUM($X$15:$X$16)</f>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="L14" s="8">
         <f ca="1">F14/SUM($X$12:$X$14)</f>
-        <v>0.1864406779661017</v>
+        <v>0.20634920634920634</v>
       </c>
       <c r="M14" s="8">
         <f ca="1">G14/SUM($X$12:$X$14)</f>
-        <v>0.16949152542372881</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.33333333333333331</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -16884,16 +16863,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="8">
         <f ca="1">X14/SUM($X$12:$X$14)</f>
-        <v>0.38983050847457629</v>
+        <v>0.41269841269841268</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -16905,19 +16884,19 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13157894736842105</v>
+        <v>0.125</v>
       </c>
       <c r="I15" s="8">
         <f ca="1">F15/$X15</f>
-        <v>0.36842105263157893</v>
+        <v>0.375</v>
       </c>
       <c r="J15" s="8">
         <f ca="1">G15/$X15</f>
@@ -16925,27 +16904,27 @@
       </c>
       <c r="K15" s="8">
         <f ca="1">E15/SUM($X$15:$X$16)</f>
-        <v>8.4745762711864403E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="L15" s="8">
         <f ca="1">F15/SUM($X$15:$X$16)</f>
-        <v>0.23728813559322035</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="M15" s="8">
         <f ca="1">G15/SUM($X$15:$X$16)</f>
-        <v>0.32203389830508472</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ref="N15:P16" ca="1" si="24">E15/SUM(E$15:E$16)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0.58333333333333337</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0.6333333333333333</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -16955,26 +16934,26 @@
       <c r="V15" s="1"/>
       <c r="W15" s="8">
         <f ca="1">X15/SUM($X$15:$X$16)</f>
-        <v>0.64406779661016944</v>
+        <v>0.63492063492063489</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -16982,39 +16961,39 @@
       </c>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="I16" s="8">
         <f ca="1">F16/$X16</f>
-        <v>0.47619047619047616</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="J16" s="8">
         <f ca="1">G16/$X16</f>
-        <v>0.52380952380952384</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="K16" s="8">
         <f ca="1">E16/SUM($X$15:$X$16)</f>
-        <v>0</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="L16" s="8">
         <f ca="1">F16/SUM($X$15:$X$16)</f>
-        <v>0.16949152542372881</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="M16" s="8">
         <f ca="1">G16/SUM($X$15:$X$16)</f>
-        <v>0.1864406779661017</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0.41666666666666669</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0.36666666666666664</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -17024,16 +17003,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="8">
         <f ca="1">X16/SUM($X$15:$X$16)</f>
-        <v>0.3559322033898305</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -17045,7 +17024,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -17057,11 +17036,11 @@
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K17" s="8">
         <f ca="1">E17/SUM($X$17:$X$53)</f>
@@ -17069,11 +17048,11 @@
       </c>
       <c r="L17" s="8">
         <f ca="1">F17/SUM($X$17:$X$53)</f>
-        <v>5.0847457627118647E-2</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="M17" s="8">
         <f ca="1">G17/SUM($X$17:$X$53)</f>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="N17" s="8">
         <f ca="1">E17/SUM($E$17:$E$53)</f>
@@ -17081,11 +17060,11 @@
       </c>
       <c r="O17" s="8">
         <f ca="1">F17/SUM($F$17:$F$53)</f>
-        <v>0.125</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="P17" s="8">
         <f ca="1">G17/SUM($G$17:$G$53)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -17095,16 +17074,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="8">
         <f ca="1">X17/SUM($X$17:$X$53)</f>
-        <v>8.4745762711864403E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
@@ -17173,7 +17152,7 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
@@ -17242,7 +17221,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
@@ -17272,27 +17251,27 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>5.0847457627118647E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ca="1" si="28"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>0.125</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -17302,7 +17281,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.10169491525423729</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -17311,7 +17290,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
@@ -17380,7 +17359,7 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
@@ -17394,43 +17373,43 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>5.0847457627118647E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>5.0847457627118647E-2</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" ca="1" si="28"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.1</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -17440,16 +17419,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.13559322033898305</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
@@ -17518,7 +17497,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="1" t="s">
         <v>54</v>
       </c>
@@ -17587,7 +17566,7 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
@@ -17621,11 +17600,11 @@
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>6.7796610169491525E-2</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -17633,11 +17612,11 @@
       </c>
       <c r="O25" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>4.1666666666666664E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.13333333333333333</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -17647,7 +17626,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>8.4745762711864403E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -17656,7 +17635,7 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
@@ -17725,7 +17704,7 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
@@ -17794,7 +17773,7 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -17863,7 +17842,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
@@ -17932,7 +17911,7 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
@@ -18001,7 +17980,7 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
@@ -18070,7 +18049,7 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="1" t="s">
         <v>58</v>
       </c>
@@ -18139,7 +18118,7 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="1" t="s">
         <v>48</v>
       </c>
@@ -18208,7 +18187,7 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B34" s="1"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
@@ -18277,7 +18256,7 @@
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
@@ -18311,11 +18290,11 @@
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -18323,11 +18302,11 @@
       </c>
       <c r="O35" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>4.1666666666666664E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -18337,7 +18316,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>5.0847457627118647E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="X35" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -18346,7 +18325,7 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B36" s="1"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="1" t="s">
         <v>2</v>
       </c>
@@ -18380,11 +18359,11 @@
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>6.7796610169491525E-2</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>0.16949152542372881</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -18392,11 +18371,11 @@
       </c>
       <c r="O36" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>0.16666666666666666</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33333333333333331</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -18406,7 +18385,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.23728813559322035</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="X36" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -18415,17 +18394,17 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
-      <c r="C37" s="34"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -18433,39 +18412,39 @@
       </c>
       <c r="H37" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.1111111111111111</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.44444444444444442</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.44444444444444442</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>1.6949152542372881E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>6.7796610169491525E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>6.7796610169491525E-2</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" ca="1" si="28"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>0.16666666666666666</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.13333333333333333</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -18475,16 +18454,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.15254237288135594</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="X37" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
@@ -18553,7 +18532,7 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
-      <c r="C39" s="34"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
@@ -18622,7 +18601,7 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B40" s="1"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
@@ -18691,7 +18670,7 @@
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
-      <c r="C41" s="34"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
@@ -18760,7 +18739,7 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B42" s="1"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="1" t="s">
         <v>55</v>
       </c>
@@ -18829,7 +18808,7 @@
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B43" s="1"/>
-      <c r="C43" s="34"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="1" t="s">
         <v>75</v>
       </c>
@@ -18898,7 +18877,7 @@
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B44" s="1"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
@@ -18967,7 +18946,7 @@
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1" t="s">
         <v>65</v>
       </c>
@@ -19036,7 +19015,7 @@
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B46" s="1"/>
-      <c r="C46" s="34"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1" t="s">
         <v>52</v>
       </c>
@@ -19070,11 +19049,11 @@
       </c>
       <c r="L46" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -19082,11 +19061,11 @@
       </c>
       <c r="O46" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>4.1666666666666664E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -19096,7 +19075,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="X46" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -19105,7 +19084,7 @@
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B47" s="1"/>
-      <c r="C47" s="34"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1" t="s">
         <v>53</v>
       </c>
@@ -19174,7 +19153,7 @@
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B48" s="1"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="1" t="s">
         <v>60</v>
       </c>
@@ -19208,11 +19187,11 @@
       </c>
       <c r="L48" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>8.4745762711864403E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>3.3898305084745763E-2</v>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -19220,11 +19199,11 @@
       </c>
       <c r="O48" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>0.20833333333333334</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -19234,7 +19213,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.11864406779661017</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -19243,7 +19222,7 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B49" s="1"/>
-      <c r="C49" s="34"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="1" t="s">
         <v>68</v>
       </c>
@@ -19312,7 +19291,7 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B50" s="1"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="1" t="s">
         <v>71</v>
       </c>
@@ -19381,7 +19360,7 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B51" s="1"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="1" t="s">
         <v>73</v>
       </c>
@@ -19450,7 +19429,7 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B52" s="1"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="1" t="s">
         <v>59</v>
       </c>
@@ -19519,7 +19498,7 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B53" s="1"/>
-      <c r="C53" s="34"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="1" t="s">
         <v>74</v>
       </c>
@@ -19666,7 +19645,7 @@
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -19682,7 +19661,7 @@
       </c>
       <c r="G56" s="9">
         <f ca="1">SUM(E17:G17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H56" s="8">
         <f ca="1">IFERROR(E56/G56,"")</f>
@@ -19690,7 +19669,7 @@
       </c>
       <c r="I56" s="8">
         <f ca="1">IFERROR(F56/G56,"")</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J56" s="11">
         <f ca="1">X352</f>
@@ -19702,11 +19681,11 @@
       </c>
       <c r="L56" s="11">
         <f ca="1">G56</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56" s="8">
         <f ca="1">IFERROR(J56/L56,"")</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N56" s="8">
         <f ca="1">IFERROR(K56/L56,"")</f>
@@ -19734,7 +19713,7 @@
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
-      <c r="C57" s="34"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="9" t="s">
         <v>70</v>
       </c>
@@ -19800,7 +19779,7 @@
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
-      <c r="C58" s="34"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="9" t="s">
         <v>69</v>
       </c>
@@ -19866,7 +19845,7 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
-      <c r="C59" s="34"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="9" t="s">
         <v>3</v>
       </c>
@@ -19932,7 +19911,7 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
-      <c r="C60" s="34"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="9" t="s">
         <v>57</v>
       </c>
@@ -19998,7 +19977,7 @@
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
-      <c r="C61" s="34"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="9" t="s">
         <v>0</v>
       </c>
@@ -20008,11 +19987,11 @@
       </c>
       <c r="F61" s="9">
         <f t="shared" ca="1" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" s="9">
         <f t="shared" ca="1" si="34"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" ca="1" si="35"/>
@@ -20020,11 +19999,11 @@
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="J61" s="11">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="11">
         <f t="shared" ca="1" si="38"/>
@@ -20032,15 +20011,15 @@
       </c>
       <c r="L61" s="11">
         <f t="shared" ca="1" si="39"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M61" s="8">
         <f t="shared" ca="1" si="40"/>
-        <v>0.125</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" ca="1" si="41"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" ca="1" si="42"/>
@@ -20064,7 +20043,7 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
-      <c r="C62" s="34"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="9" t="s">
         <v>44</v>
       </c>
@@ -20130,7 +20109,7 @@
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
-      <c r="C63" s="34"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="9" t="s">
         <v>54</v>
       </c>
@@ -20196,7 +20175,7 @@
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="9" t="s">
         <v>61</v>
       </c>
@@ -20262,7 +20241,7 @@
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
-      <c r="C65" s="34"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="9" t="s">
         <v>62</v>
       </c>
@@ -20328,7 +20307,7 @@
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
-      <c r="C66" s="34"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="9" t="s">
         <v>67</v>
       </c>
@@ -20394,7 +20373,7 @@
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
-      <c r="C67" s="34"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="9" t="s">
         <v>46</v>
       </c>
@@ -20460,7 +20439,7 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
-      <c r="C68" s="34"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="9" t="s">
         <v>56</v>
       </c>
@@ -20526,7 +20505,7 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
-      <c r="C69" s="34"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="9" t="s">
         <v>72</v>
       </c>
@@ -20592,7 +20571,7 @@
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
-      <c r="C70" s="34"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="9" t="s">
         <v>66</v>
       </c>
@@ -20658,7 +20637,7 @@
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
-      <c r="C71" s="34"/>
+      <c r="C71" s="35"/>
       <c r="D71" s="9" t="s">
         <v>58</v>
       </c>
@@ -20724,7 +20703,7 @@
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
-      <c r="C72" s="34"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="9" t="s">
         <v>48</v>
       </c>
@@ -20790,7 +20769,7 @@
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
-      <c r="C73" s="34"/>
+      <c r="C73" s="35"/>
       <c r="D73" s="9" t="s">
         <v>47</v>
       </c>
@@ -20856,7 +20835,7 @@
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
-      <c r="C74" s="34"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="9" t="s">
         <v>1</v>
       </c>
@@ -20922,7 +20901,7 @@
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
-      <c r="C75" s="34"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="9" t="s">
         <v>2</v>
       </c>
@@ -20988,7 +20967,7 @@
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
-      <c r="C76" s="34"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="9" t="s">
         <v>4</v>
       </c>
@@ -21002,15 +20981,15 @@
       </c>
       <c r="G76" s="9">
         <f t="shared" ca="1" si="34"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" ca="1" si="35"/>
-        <v>0.22222222222222221</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>0.22222222222222221</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="J76" s="11">
         <f t="shared" ca="1" si="37"/>
@@ -21022,15 +21001,15 @@
       </c>
       <c r="L76" s="11">
         <f t="shared" ca="1" si="39"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M76" s="8">
         <f t="shared" ca="1" si="40"/>
-        <v>0.33333333333333331</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N76" s="8">
         <f t="shared" ca="1" si="41"/>
-        <v>0.1111111111111111</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O76" s="11">
         <f t="shared" ca="1" si="42"/>
@@ -21054,7 +21033,7 @@
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
-      <c r="C77" s="34"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="9" t="s">
         <v>45</v>
       </c>
@@ -21120,7 +21099,7 @@
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
-      <c r="C78" s="34"/>
+      <c r="C78" s="35"/>
       <c r="D78" s="9" t="s">
         <v>50</v>
       </c>
@@ -21186,7 +21165,7 @@
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
-      <c r="C79" s="34"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="9" t="s">
         <v>49</v>
       </c>
@@ -21252,7 +21231,7 @@
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
-      <c r="C80" s="34"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="9" t="s">
         <v>51</v>
       </c>
@@ -21318,7 +21297,7 @@
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
-      <c r="C81" s="34"/>
+      <c r="C81" s="35"/>
       <c r="D81" s="9" t="s">
         <v>55</v>
       </c>
@@ -21384,7 +21363,7 @@
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
-      <c r="C82" s="34"/>
+      <c r="C82" s="35"/>
       <c r="D82" s="9" t="s">
         <v>75</v>
       </c>
@@ -21450,7 +21429,7 @@
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
-      <c r="C83" s="34"/>
+      <c r="C83" s="35"/>
       <c r="D83" s="9" t="s">
         <v>64</v>
       </c>
@@ -21516,7 +21495,7 @@
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="9" t="s">
         <v>65</v>
       </c>
@@ -21582,7 +21561,7 @@
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
-      <c r="C85" s="34"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="9" t="s">
         <v>52</v>
       </c>
@@ -21648,7 +21627,7 @@
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
-      <c r="C86" s="34"/>
+      <c r="C86" s="35"/>
       <c r="D86" s="9" t="s">
         <v>53</v>
       </c>
@@ -21714,7 +21693,7 @@
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
-      <c r="C87" s="34"/>
+      <c r="C87" s="35"/>
       <c r="D87" s="9" t="s">
         <v>60</v>
       </c>
@@ -21780,7 +21759,7 @@
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
-      <c r="C88" s="34"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="9" t="s">
         <v>68</v>
       </c>
@@ -21846,7 +21825,7 @@
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
-      <c r="C89" s="34"/>
+      <c r="C89" s="35"/>
       <c r="D89" s="9" t="s">
         <v>71</v>
       </c>
@@ -21912,7 +21891,7 @@
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
-      <c r="C90" s="34"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="9" t="s">
         <v>73</v>
       </c>
@@ -21978,7 +21957,7 @@
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
-      <c r="C91" s="34"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="9" t="s">
         <v>59</v>
       </c>
@@ -22043,7 +22022,7 @@
       <c r="X91" s="4"/>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C92" s="34"/>
+      <c r="C92" s="35"/>
       <c r="D92" s="9" t="s">
         <v>74</v>
       </c>
@@ -22167,15 +22146,15 @@
       </c>
       <c r="E95" s="14">
         <f ca="1">X126</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F95" s="14">
         <f ca="1">X127</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G95" s="14">
         <f ca="1">E95/F95</f>
-        <v>0.83333333333333337</v>
+        <v>0.84</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -22201,15 +22180,15 @@
       </c>
       <c r="E96" s="14">
         <f ca="1">X179</f>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F96" s="14">
         <f ca="1">X180</f>
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G96" s="14">
         <f ca="1">E96/F96</f>
-        <v>0.5390625</v>
+        <v>0.55474452554744524</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -22235,15 +22214,15 @@
       </c>
       <c r="E97" s="14">
         <f ca="1">X232</f>
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F97" s="14">
         <f ca="1">X233</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G97" s="14">
         <f ca="1">E97/F97</f>
-        <v>3.2321428571428572</v>
+        <v>3.2280701754385963</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -22269,15 +22248,15 @@
       </c>
       <c r="E98" s="14">
         <f ca="1">SUM(E95:E97)</f>
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F98" s="14">
         <f ca="1">SUM(F95:F97)</f>
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G98" s="14">
         <f ca="1">E98/F98</f>
-        <v>1.2980769230769231</v>
+        <v>1.2831050228310503</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -22320,7 +22299,7 @@
       <c r="W99" s="4"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="35" t="s">
         <v>125</v>
       </c>
       <c r="D100" s="14" t="s">
@@ -22332,7 +22311,7 @@
       </c>
       <c r="F100" s="14">
         <f t="shared" ref="F100:W100" ca="1" si="47">F126+F179+F232</f>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G100" s="14">
         <f t="shared" si="47"/>
@@ -22404,7 +22383,7 @@
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C101" s="34"/>
+      <c r="C101" s="35"/>
       <c r="D101" s="14" t="s">
         <v>124</v>
       </c>
@@ -22414,7 +22393,7 @@
       </c>
       <c r="F101" s="14">
         <f t="shared" ref="F101:W101" ca="1" si="48">F127+F180+F233</f>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G101" s="14">
         <f t="shared" si="48"/>
@@ -22487,7 +22466,7 @@
       <c r="X101" s="4"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C102" s="34"/>
+      <c r="C102" s="35"/>
       <c r="D102" s="14" t="s">
         <v>125</v>
       </c>
@@ -22497,7 +22476,7 @@
       </c>
       <c r="F102" s="30">
         <f ca="1">F100/F101</f>
-        <v>1.5</v>
+        <v>1.3962264150943395</v>
       </c>
       <c r="G102" s="14" t="str">
         <f t="shared" ref="G102:W102" si="49">IFERROR(G100/G101,"")</f>
@@ -22570,90 +22549,90 @@
       <c r="X102" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C103" s="34"/>
+      <c r="C103" s="35"/>
       <c r="D103" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E103" s="14">
         <f ca="1">SUM(E102:W102)/E109</f>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="F103" s="30">
         <f ca="1">E103</f>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="G103" s="14">
         <f t="shared" ref="G103:W103" ca="1" si="50">F103</f>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="H103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="I103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="J103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="K103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="M103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="N103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="O103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="P103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="Q103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="R103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="S103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="T103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="U103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="V103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="W103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3734939759036144</v>
+        <v>1.3216071834507841</v>
       </c>
       <c r="X103" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C104" s="34"/>
+      <c r="C104" s="35"/>
       <c r="D104" s="14" t="s">
         <v>122</v>
       </c>
@@ -22663,7 +22642,7 @@
       </c>
       <c r="F104" s="30">
         <f ca="1">F100/F117</f>
-        <v>4.8461538461538458</v>
+        <v>4.3529411764705879</v>
       </c>
       <c r="G104" s="14" t="str">
         <f t="shared" ref="G104:W104" si="51">IFERROR(G100/G117,"")</f>
@@ -22735,11 +22714,11 @@
       </c>
       <c r="X104" s="14">
         <f ca="1">SUM(E104:W104)</f>
-        <v>9.3461538461538467</v>
+        <v>8.852941176470587</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C105" s="34"/>
+      <c r="C105" s="35"/>
       <c r="D105" s="14" t="s">
         <v>124</v>
       </c>
@@ -22749,7 +22728,7 @@
       </c>
       <c r="F105" s="30">
         <f ca="1">F101/F117</f>
-        <v>3.2307692307692308</v>
+        <v>3.1176470588235294</v>
       </c>
       <c r="G105" s="14" t="str">
         <f t="shared" ref="G105:W105" si="52">IFERROR(G101/G117,"")</f>
@@ -22821,93 +22800,93 @@
       </c>
       <c r="X105" s="14">
         <f ca="1">SUM(E105:W105)</f>
-        <v>6.8394648829431439</v>
+        <v>6.726342710997443</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C106" s="34"/>
+      <c r="C106" s="35"/>
       <c r="D106" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E106" s="14">
         <f ca="1">X106/E109</f>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="F106" s="14">
         <f ca="1">E106</f>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="G106" s="14">
         <f t="shared" ref="G106:W106" ca="1" si="53">F106</f>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="H106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="I106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="J106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="K106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="M106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="N106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="O106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="P106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="Q106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="R106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="S106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="T106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="U106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="V106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="W106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>8.0928093645484953</v>
+        <v>7.789641943734015</v>
       </c>
       <c r="X106" s="14">
         <f ca="1">SUM(X104:X105)</f>
-        <v>16.185618729096991</v>
+        <v>15.57928388746803</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.15">
@@ -23171,79 +23150,79 @@
       </c>
       <c r="E112" s="8">
         <f ca="1">SUM(E113:W113) / E109</f>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="F112" s="8">
         <f ca="1">E112</f>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" ref="G112:W112" ca="1" si="56">F112</f>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="I112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="J112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="K112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="L112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="M112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="N112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="P112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="Q112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="R112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="S112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="T112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="U112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="V112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="W112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.46404682274247488</v>
+        <v>0.44820971867007675</v>
       </c>
       <c r="X112" s="1"/>
     </row>
@@ -23260,7 +23239,7 @@
       </c>
       <c r="F113" s="8">
         <f ca="1">IFERROR(F116/SUM(F114:F116),"")</f>
-        <v>0.38461538461538464</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" ref="G113:W113" si="57">IFERROR(G116/SUM(G114:G116),"")</f>
@@ -23335,7 +23314,7 @@
     <row r="114" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D114" s="1" t="str">
@@ -23348,7 +23327,7 @@
       </c>
       <c r="F114" s="30">
         <f t="shared" ca="1" si="58"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -23369,13 +23348,13 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1">
         <f ca="1">SUM(E114:W114)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="32"/>
+      <c r="C115" s="37"/>
       <c r="D115" s="1" t="str">
         <f>F2</f>
         <v>defeat</v>
@@ -23386,7 +23365,7 @@
       </c>
       <c r="F115" s="30">
         <f t="shared" ca="1" si="58"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -23407,13 +23386,13 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1">
         <f t="shared" ref="X115:X171" ca="1" si="59">SUM(E115:W115)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="32"/>
+      <c r="C116" s="37"/>
       <c r="D116" s="1" t="str">
         <f>G2</f>
         <v>victory</v>
@@ -23424,7 +23403,7 @@
       </c>
       <c r="F116" s="30">
         <f t="shared" ca="1" si="58"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -23445,13 +23424,13 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="32"/>
+      <c r="C117" s="37"/>
       <c r="D117" s="14" t="s">
         <v>123</v>
       </c>
@@ -23461,7 +23440,7 @@
       </c>
       <c r="F117" s="30">
         <f ca="1">SUM(F114:F116)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G117" s="14">
         <f t="shared" ref="G117:W117" si="60">SUM(G114:G116)</f>
@@ -23536,89 +23515,89 @@
     <row r="118" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="33"/>
+      <c r="C118" s="38"/>
       <c r="D118" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E118" s="11">
         <f ca="1">X118/E109</f>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="F118" s="11">
         <f ca="1">E118</f>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="G118" s="11">
         <f t="shared" ref="G118:W118" ca="1" si="61">F118</f>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="H118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="I118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="J118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="K118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="L118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="M118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="N118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="O118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="P118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="Q118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="R118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="S118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="T118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="U118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="V118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="W118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="X118" s="9">
         <f ca="1">SUM(X114:X116)</f>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.15">
@@ -23627,7 +23606,7 @@
         <f t="shared" ref="B119:B152" si="62">$D$114</f>
         <v>draw</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -23669,7 +23648,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C120" s="34"/>
+      <c r="C120" s="35"/>
       <c r="D120" s="1" t="s">
         <v>30</v>
       </c>
@@ -23709,7 +23688,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C121" s="34"/>
+      <c r="C121" s="35"/>
       <c r="D121" s="1" t="s">
         <v>31</v>
       </c>
@@ -23749,7 +23728,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C122" s="34"/>
+      <c r="C122" s="35"/>
       <c r="D122" s="1" t="s">
         <v>32</v>
       </c>
@@ -23789,7 +23768,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="35"/>
       <c r="D123" s="1" t="s">
         <v>33</v>
       </c>
@@ -23799,7 +23778,7 @@
       </c>
       <c r="F123" s="30">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -23820,7 +23799,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.15">
@@ -23829,7 +23808,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C124" s="34"/>
+      <c r="C124" s="35"/>
       <c r="D124" s="1" t="s">
         <v>34</v>
       </c>
@@ -23869,7 +23848,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C125" s="34"/>
+      <c r="C125" s="35"/>
       <c r="D125" s="1" t="s">
         <v>35</v>
       </c>
@@ -23909,7 +23888,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D126" s="12" t="s">
@@ -23921,7 +23900,7 @@
       </c>
       <c r="F126" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!D:D"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B126)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -23942,7 +23921,7 @@
       <c r="W126" s="12"/>
       <c r="X126" s="12">
         <f ca="1">SUM(E126:W126)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.15">
@@ -23951,7 +23930,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C127" s="33"/>
+      <c r="C127" s="38"/>
       <c r="D127" s="12" t="s">
         <v>118</v>
       </c>
@@ -23961,7 +23940,7 @@
       </c>
       <c r="F127" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!E:E"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B127)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -23982,7 +23961,7 @@
       <c r="W127" s="12"/>
       <c r="X127" s="12">
         <f ca="1">SUM(E127:W127)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.15">
@@ -23991,7 +23970,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C128" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -24033,7 +24012,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C129" s="33"/>
+      <c r="C129" s="38"/>
       <c r="D129" s="1" t="s">
         <v>39</v>
       </c>
@@ -24043,7 +24022,7 @@
       </c>
       <c r="F129" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!F:F"),$D129,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B129)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -24064,7 +24043,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.15">
@@ -24073,7 +24052,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="36" t="s">
         <v>76</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -24115,7 +24094,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C131" s="32"/>
+      <c r="C131" s="37"/>
       <c r="D131" s="1" t="s">
         <v>79</v>
       </c>
@@ -24125,7 +24104,7 @@
       </c>
       <c r="F131" s="30">
         <f t="shared" ca="1" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -24146,7 +24125,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.15">
@@ -24155,7 +24134,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C132" s="33"/>
+      <c r="C132" s="38"/>
       <c r="D132" s="1" t="s">
         <v>77</v>
       </c>
@@ -24195,7 +24174,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -24237,7 +24216,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C134" s="33"/>
+      <c r="C134" s="38"/>
       <c r="D134" s="1" t="s">
         <v>82</v>
       </c>
@@ -24247,7 +24226,7 @@
       </c>
       <c r="F134" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!H:H"),$D134,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B134)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -24268,7 +24247,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.15">
@@ -24277,7 +24256,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -24319,7 +24298,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C136" s="32"/>
+      <c r="C136" s="37"/>
       <c r="D136" s="1" t="s">
         <v>70</v>
       </c>
@@ -24359,7 +24338,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C137" s="32"/>
+      <c r="C137" s="37"/>
       <c r="D137" s="1" t="s">
         <v>69</v>
       </c>
@@ -24399,7 +24378,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C138" s="32"/>
+      <c r="C138" s="37"/>
       <c r="D138" s="1" t="s">
         <v>3</v>
       </c>
@@ -24439,7 +24418,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C139" s="32"/>
+      <c r="C139" s="37"/>
       <c r="D139" s="1" t="s">
         <v>57</v>
       </c>
@@ -24479,7 +24458,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C140" s="32"/>
+      <c r="C140" s="37"/>
       <c r="D140" s="1" t="s">
         <v>0</v>
       </c>
@@ -24519,7 +24498,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C141" s="32"/>
+      <c r="C141" s="37"/>
       <c r="D141" s="1" t="s">
         <v>44</v>
       </c>
@@ -24559,7 +24538,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C142" s="32"/>
+      <c r="C142" s="37"/>
       <c r="D142" s="1" t="s">
         <v>54</v>
       </c>
@@ -24599,7 +24578,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C143" s="32"/>
+      <c r="C143" s="37"/>
       <c r="D143" s="1" t="s">
         <v>61</v>
       </c>
@@ -24639,7 +24618,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C144" s="32"/>
+      <c r="C144" s="37"/>
       <c r="D144" s="1" t="s">
         <v>62</v>
       </c>
@@ -24679,7 +24658,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C145" s="32"/>
+      <c r="C145" s="37"/>
       <c r="D145" s="1" t="s">
         <v>67</v>
       </c>
@@ -24719,7 +24698,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C146" s="32"/>
+      <c r="C146" s="37"/>
       <c r="D146" s="1" t="s">
         <v>46</v>
       </c>
@@ -24759,7 +24738,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C147" s="32"/>
+      <c r="C147" s="37"/>
       <c r="D147" s="1" t="s">
         <v>56</v>
       </c>
@@ -24799,7 +24778,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C148" s="32"/>
+      <c r="C148" s="37"/>
       <c r="D148" s="1" t="s">
         <v>72</v>
       </c>
@@ -24839,7 +24818,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C149" s="32"/>
+      <c r="C149" s="37"/>
       <c r="D149" s="1" t="s">
         <v>66</v>
       </c>
@@ -24879,7 +24858,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C150" s="32"/>
+      <c r="C150" s="37"/>
       <c r="D150" s="1" t="s">
         <v>58</v>
       </c>
@@ -24919,7 +24898,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C151" s="32"/>
+      <c r="C151" s="37"/>
       <c r="D151" s="1" t="s">
         <v>48</v>
       </c>
@@ -24959,7 +24938,7 @@
         <f t="shared" si="62"/>
         <v>draw</v>
       </c>
-      <c r="C152" s="32"/>
+      <c r="C152" s="37"/>
       <c r="D152" s="1" t="s">
         <v>47</v>
       </c>
@@ -24999,7 +24978,7 @@
         <f t="shared" ref="B153:B171" si="67">$D$114</f>
         <v>draw</v>
       </c>
-      <c r="C153" s="32"/>
+      <c r="C153" s="37"/>
       <c r="D153" s="1" t="s">
         <v>1</v>
       </c>
@@ -25039,7 +25018,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C154" s="32"/>
+      <c r="C154" s="37"/>
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
@@ -25079,7 +25058,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C155" s="32"/>
+      <c r="C155" s="37"/>
       <c r="D155" s="1" t="s">
         <v>4</v>
       </c>
@@ -25089,7 +25068,7 @@
       </c>
       <c r="F155" s="30">
         <f t="shared" ca="1" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -25110,7 +25089,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.15">
@@ -25119,7 +25098,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C156" s="32"/>
+      <c r="C156" s="37"/>
       <c r="D156" s="1" t="s">
         <v>45</v>
       </c>
@@ -25159,7 +25138,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C157" s="32"/>
+      <c r="C157" s="37"/>
       <c r="D157" s="1" t="s">
         <v>50</v>
       </c>
@@ -25199,7 +25178,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C158" s="32"/>
+      <c r="C158" s="37"/>
       <c r="D158" s="1" t="s">
         <v>49</v>
       </c>
@@ -25239,7 +25218,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C159" s="32"/>
+      <c r="C159" s="37"/>
       <c r="D159" s="1" t="s">
         <v>51</v>
       </c>
@@ -25279,7 +25258,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C160" s="32"/>
+      <c r="C160" s="37"/>
       <c r="D160" s="1" t="s">
         <v>55</v>
       </c>
@@ -25319,7 +25298,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C161" s="32"/>
+      <c r="C161" s="37"/>
       <c r="D161" s="1" t="s">
         <v>75</v>
       </c>
@@ -25359,7 +25338,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C162" s="32"/>
+      <c r="C162" s="37"/>
       <c r="D162" s="1" t="s">
         <v>64</v>
       </c>
@@ -25399,7 +25378,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C163" s="32"/>
+      <c r="C163" s="37"/>
       <c r="D163" s="1" t="s">
         <v>65</v>
       </c>
@@ -25439,7 +25418,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C164" s="32"/>
+      <c r="C164" s="37"/>
       <c r="D164" s="1" t="s">
         <v>52</v>
       </c>
@@ -25479,7 +25458,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C165" s="32"/>
+      <c r="C165" s="37"/>
       <c r="D165" s="1" t="s">
         <v>53</v>
       </c>
@@ -25519,7 +25498,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C166" s="32"/>
+      <c r="C166" s="37"/>
       <c r="D166" s="1" t="s">
         <v>60</v>
       </c>
@@ -25559,7 +25538,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C167" s="32"/>
+      <c r="C167" s="37"/>
       <c r="D167" s="1" t="s">
         <v>68</v>
       </c>
@@ -25599,7 +25578,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C168" s="32"/>
+      <c r="C168" s="37"/>
       <c r="D168" s="1" t="s">
         <v>71</v>
       </c>
@@ -25639,7 +25618,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C169" s="32"/>
+      <c r="C169" s="37"/>
       <c r="D169" s="1" t="s">
         <v>73</v>
       </c>
@@ -25679,7 +25658,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C170" s="32"/>
+      <c r="C170" s="37"/>
       <c r="D170" s="1" t="s">
         <v>59</v>
       </c>
@@ -25719,7 +25698,7 @@
         <f t="shared" si="67"/>
         <v>draw</v>
       </c>
-      <c r="C171" s="33"/>
+      <c r="C171" s="38"/>
       <c r="D171" s="1" t="s">
         <v>74</v>
       </c>
@@ -25759,7 +25738,7 @@
         <f t="shared" ref="B172:B205" si="68">$D$115</f>
         <v>defeat</v>
       </c>
-      <c r="C172" s="34" t="s">
+      <c r="C172" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -25801,7 +25780,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C173" s="34"/>
+      <c r="C173" s="35"/>
       <c r="D173" s="1" t="s">
         <v>30</v>
       </c>
@@ -25841,7 +25820,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C174" s="34"/>
+      <c r="C174" s="35"/>
       <c r="D174" s="1" t="s">
         <v>31</v>
       </c>
@@ -25881,7 +25860,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C175" s="34"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="1" t="s">
         <v>32</v>
       </c>
@@ -25921,7 +25900,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C176" s="34"/>
+      <c r="C176" s="35"/>
       <c r="D176" s="1" t="s">
         <v>33</v>
       </c>
@@ -25931,7 +25910,7 @@
       </c>
       <c r="F176" s="30">
         <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -25952,7 +25931,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.15">
@@ -25961,7 +25940,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C177" s="34"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="1" t="s">
         <v>34</v>
       </c>
@@ -26001,7 +25980,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C178" s="34"/>
+      <c r="C178" s="35"/>
       <c r="D178" s="1" t="s">
         <v>35</v>
       </c>
@@ -26041,7 +26020,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C179" s="31" t="s">
+      <c r="C179" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D179" s="12" t="s">
@@ -26053,7 +26032,7 @@
       </c>
       <c r="F179" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!D:D"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B179)</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -26074,7 +26053,7 @@
       <c r="W179" s="12"/>
       <c r="X179" s="12">
         <f t="shared" ca="1" si="69"/>
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.15">
@@ -26083,7 +26062,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C180" s="33"/>
+      <c r="C180" s="38"/>
       <c r="D180" s="12" t="s">
         <v>118</v>
       </c>
@@ -26093,7 +26072,7 @@
       </c>
       <c r="F180" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!E:E"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B180)</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
@@ -26114,7 +26093,7 @@
       <c r="W180" s="12"/>
       <c r="X180" s="12">
         <f t="shared" ca="1" si="69"/>
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.15">
@@ -26123,7 +26102,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C181" s="31" t="s">
+      <c r="C181" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -26135,7 +26114,7 @@
       </c>
       <c r="F181" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!F:F"),$D181,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B181)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -26156,7 +26135,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.15">
@@ -26165,7 +26144,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C182" s="33"/>
+      <c r="C182" s="38"/>
       <c r="D182" s="1" t="s">
         <v>39</v>
       </c>
@@ -26175,7 +26154,7 @@
       </c>
       <c r="F182" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!F:F"),$D182,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B182)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -26196,7 +26175,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.15">
@@ -26205,7 +26184,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C183" s="31" t="s">
+      <c r="C183" s="36" t="s">
         <v>76</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -26247,7 +26226,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C184" s="32"/>
+      <c r="C184" s="37"/>
       <c r="D184" s="1" t="s">
         <v>79</v>
       </c>
@@ -26287,7 +26266,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C185" s="33"/>
+      <c r="C185" s="38"/>
       <c r="D185" s="1" t="s">
         <v>77</v>
       </c>
@@ -26297,7 +26276,7 @@
       </c>
       <c r="F185" s="30">
         <f t="shared" ca="1" si="71"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -26318,7 +26297,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.15">
@@ -26327,7 +26306,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C186" s="31" t="s">
+      <c r="C186" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -26339,7 +26318,7 @@
       </c>
       <c r="F186" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!H:H"),$D186,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B186)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -26360,7 +26339,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.15">
@@ -26369,7 +26348,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C187" s="33"/>
+      <c r="C187" s="38"/>
       <c r="D187" s="1" t="s">
         <v>82</v>
       </c>
@@ -26379,7 +26358,7 @@
       </c>
       <c r="F187" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!H:H"),$D187,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B187)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -26400,7 +26379,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.15">
@@ -26409,7 +26388,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C188" s="31" t="s">
+      <c r="C188" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -26421,7 +26400,7 @@
       </c>
       <c r="F188" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D188,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B188)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -26442,7 +26421,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1">
         <f t="shared" ref="X188:X240" ca="1" si="72">SUM(E188:W188)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.15">
@@ -26451,7 +26430,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C189" s="32"/>
+      <c r="C189" s="37"/>
       <c r="D189" s="1" t="s">
         <v>70</v>
       </c>
@@ -26491,7 +26470,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C190" s="32"/>
+      <c r="C190" s="37"/>
       <c r="D190" s="1" t="s">
         <v>69</v>
       </c>
@@ -26531,7 +26510,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C191" s="32"/>
+      <c r="C191" s="37"/>
       <c r="D191" s="1" t="s">
         <v>3</v>
       </c>
@@ -26571,7 +26550,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C192" s="32"/>
+      <c r="C192" s="37"/>
       <c r="D192" s="1" t="s">
         <v>57</v>
       </c>
@@ -26611,7 +26590,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C193" s="32"/>
+      <c r="C193" s="37"/>
       <c r="D193" s="1" t="s">
         <v>0</v>
       </c>
@@ -26651,7 +26630,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C194" s="32"/>
+      <c r="C194" s="37"/>
       <c r="D194" s="1" t="s">
         <v>44</v>
       </c>
@@ -26691,7 +26670,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C195" s="32"/>
+      <c r="C195" s="37"/>
       <c r="D195" s="1" t="s">
         <v>54</v>
       </c>
@@ -26731,7 +26710,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C196" s="32"/>
+      <c r="C196" s="37"/>
       <c r="D196" s="1" t="s">
         <v>61</v>
       </c>
@@ -26771,7 +26750,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C197" s="32"/>
+      <c r="C197" s="37"/>
       <c r="D197" s="1" t="s">
         <v>62</v>
       </c>
@@ -26811,7 +26790,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C198" s="32"/>
+      <c r="C198" s="37"/>
       <c r="D198" s="1" t="s">
         <v>67</v>
       </c>
@@ -26851,7 +26830,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C199" s="32"/>
+      <c r="C199" s="37"/>
       <c r="D199" s="1" t="s">
         <v>46</v>
       </c>
@@ -26891,7 +26870,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C200" s="32"/>
+      <c r="C200" s="37"/>
       <c r="D200" s="1" t="s">
         <v>56</v>
       </c>
@@ -26931,7 +26910,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C201" s="32"/>
+      <c r="C201" s="37"/>
       <c r="D201" s="1" t="s">
         <v>72</v>
       </c>
@@ -26971,7 +26950,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C202" s="32"/>
+      <c r="C202" s="37"/>
       <c r="D202" s="1" t="s">
         <v>66</v>
       </c>
@@ -27011,7 +26990,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C203" s="32"/>
+      <c r="C203" s="37"/>
       <c r="D203" s="1" t="s">
         <v>58</v>
       </c>
@@ -27051,7 +27030,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C204" s="32"/>
+      <c r="C204" s="37"/>
       <c r="D204" s="1" t="s">
         <v>48</v>
       </c>
@@ -27091,7 +27070,7 @@
         <f t="shared" si="68"/>
         <v>defeat</v>
       </c>
-      <c r="C205" s="32"/>
+      <c r="C205" s="37"/>
       <c r="D205" s="1" t="s">
         <v>47</v>
       </c>
@@ -27131,7 +27110,7 @@
         <f t="shared" ref="B206:B224" si="74">$D$115</f>
         <v>defeat</v>
       </c>
-      <c r="C206" s="32"/>
+      <c r="C206" s="37"/>
       <c r="D206" s="1" t="s">
         <v>1</v>
       </c>
@@ -27171,7 +27150,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C207" s="32"/>
+      <c r="C207" s="37"/>
       <c r="D207" s="1" t="s">
         <v>2</v>
       </c>
@@ -27211,7 +27190,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C208" s="32"/>
+      <c r="C208" s="37"/>
       <c r="D208" s="1" t="s">
         <v>4</v>
       </c>
@@ -27221,7 +27200,7 @@
       </c>
       <c r="F208" s="30">
         <f t="shared" ca="1" si="73"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -27242,7 +27221,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.15">
@@ -27251,7 +27230,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C209" s="32"/>
+      <c r="C209" s="37"/>
       <c r="D209" s="1" t="s">
         <v>45</v>
       </c>
@@ -27291,7 +27270,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C210" s="32"/>
+      <c r="C210" s="37"/>
       <c r="D210" s="1" t="s">
         <v>50</v>
       </c>
@@ -27331,7 +27310,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C211" s="32"/>
+      <c r="C211" s="37"/>
       <c r="D211" s="1" t="s">
         <v>49</v>
       </c>
@@ -27371,7 +27350,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C212" s="32"/>
+      <c r="C212" s="37"/>
       <c r="D212" s="1" t="s">
         <v>51</v>
       </c>
@@ -27411,7 +27390,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C213" s="32"/>
+      <c r="C213" s="37"/>
       <c r="D213" s="1" t="s">
         <v>55</v>
       </c>
@@ -27451,7 +27430,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C214" s="32"/>
+      <c r="C214" s="37"/>
       <c r="D214" s="1" t="s">
         <v>75</v>
       </c>
@@ -27491,7 +27470,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C215" s="32"/>
+      <c r="C215" s="37"/>
       <c r="D215" s="1" t="s">
         <v>64</v>
       </c>
@@ -27531,7 +27510,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C216" s="32"/>
+      <c r="C216" s="37"/>
       <c r="D216" s="1" t="s">
         <v>65</v>
       </c>
@@ -27571,7 +27550,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C217" s="32"/>
+      <c r="C217" s="37"/>
       <c r="D217" s="1" t="s">
         <v>52</v>
       </c>
@@ -27611,7 +27590,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C218" s="32"/>
+      <c r="C218" s="37"/>
       <c r="D218" s="1" t="s">
         <v>53</v>
       </c>
@@ -27651,7 +27630,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C219" s="32"/>
+      <c r="C219" s="37"/>
       <c r="D219" s="1" t="s">
         <v>60</v>
       </c>
@@ -27691,7 +27670,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C220" s="32"/>
+      <c r="C220" s="37"/>
       <c r="D220" s="1" t="s">
         <v>68</v>
       </c>
@@ -27731,7 +27710,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C221" s="32"/>
+      <c r="C221" s="37"/>
       <c r="D221" s="1" t="s">
         <v>71</v>
       </c>
@@ -27771,7 +27750,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C222" s="32"/>
+      <c r="C222" s="37"/>
       <c r="D222" s="1" t="s">
         <v>73</v>
       </c>
@@ -27811,7 +27790,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C223" s="32"/>
+      <c r="C223" s="37"/>
       <c r="D223" s="1" t="s">
         <v>59</v>
       </c>
@@ -27851,7 +27830,7 @@
         <f t="shared" si="74"/>
         <v>defeat</v>
       </c>
-      <c r="C224" s="33"/>
+      <c r="C224" s="38"/>
       <c r="D224" s="1" t="s">
         <v>74</v>
       </c>
@@ -27891,7 +27870,7 @@
         <f>$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C225" s="34" t="s">
+      <c r="C225" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -27933,7 +27912,7 @@
         <f t="shared" ref="B226:B291" si="75">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C226" s="34"/>
+      <c r="C226" s="35"/>
       <c r="D226" s="1" t="s">
         <v>30</v>
       </c>
@@ -27973,7 +27952,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C227" s="34"/>
+      <c r="C227" s="35"/>
       <c r="D227" s="1" t="s">
         <v>31</v>
       </c>
@@ -28013,7 +27992,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C228" s="34"/>
+      <c r="C228" s="35"/>
       <c r="D228" s="1" t="s">
         <v>32</v>
       </c>
@@ -28053,7 +28032,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C229" s="34"/>
+      <c r="C229" s="35"/>
       <c r="D229" s="1" t="s">
         <v>33</v>
       </c>
@@ -28063,7 +28042,7 @@
       </c>
       <c r="F229" s="30">
         <f t="shared" ca="1" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -28084,7 +28063,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.15">
@@ -28093,7 +28072,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C230" s="34"/>
+      <c r="C230" s="35"/>
       <c r="D230" s="1" t="s">
         <v>34</v>
       </c>
@@ -28133,7 +28112,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C231" s="34"/>
+      <c r="C231" s="35"/>
       <c r="D231" s="1" t="s">
         <v>35</v>
       </c>
@@ -28173,7 +28152,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C232" s="31" t="s">
+      <c r="C232" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D232" s="12" t="s">
@@ -28185,7 +28164,7 @@
       </c>
       <c r="F232" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!D:D"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B232)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
@@ -28206,7 +28185,7 @@
       <c r="W232" s="12"/>
       <c r="X232" s="12">
         <f t="shared" ca="1" si="72"/>
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.15">
@@ -28215,7 +28194,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C233" s="33"/>
+      <c r="C233" s="38"/>
       <c r="D233" s="12" t="s">
         <v>118</v>
       </c>
@@ -28225,7 +28204,7 @@
       </c>
       <c r="F233" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!E:E"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B233)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G233" s="12"/>
       <c r="H233" s="12"/>
@@ -28246,7 +28225,7 @@
       <c r="W233" s="12"/>
       <c r="X233" s="12">
         <f t="shared" ca="1" si="72"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.15">
@@ -28255,7 +28234,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C234" s="31" t="s">
+      <c r="C234" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -28297,7 +28276,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C235" s="33"/>
+      <c r="C235" s="38"/>
       <c r="D235" s="1" t="s">
         <v>39</v>
       </c>
@@ -28307,7 +28286,7 @@
       </c>
       <c r="F235" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!F:F"),$D235,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B235)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -28328,7 +28307,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.15">
@@ -28337,7 +28316,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C236" s="31" t="s">
+      <c r="C236" s="36" t="s">
         <v>76</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -28379,7 +28358,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C237" s="32"/>
+      <c r="C237" s="37"/>
       <c r="D237" s="1" t="s">
         <v>79</v>
       </c>
@@ -28419,7 +28398,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C238" s="33"/>
+      <c r="C238" s="38"/>
       <c r="D238" s="1" t="s">
         <v>77</v>
       </c>
@@ -28429,7 +28408,7 @@
       </c>
       <c r="F238" s="30">
         <f t="shared" ca="1" si="77"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -28450,7 +28429,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.15">
@@ -28459,7 +28438,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C239" s="31" t="s">
+      <c r="C239" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -28471,7 +28450,7 @@
       </c>
       <c r="F239" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!H:H"),$D239,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B239)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -28492,7 +28471,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.15">
@@ -28501,7 +28480,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C240" s="33"/>
+      <c r="C240" s="38"/>
       <c r="D240" s="1" t="s">
         <v>82</v>
       </c>
@@ -28541,7 +28520,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C241" s="31" t="s">
+      <c r="C241" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -28583,7 +28562,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C242" s="32"/>
+      <c r="C242" s="37"/>
       <c r="D242" s="1" t="s">
         <v>70</v>
       </c>
@@ -28623,7 +28602,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C243" s="32"/>
+      <c r="C243" s="37"/>
       <c r="D243" s="1" t="s">
         <v>69</v>
       </c>
@@ -28663,7 +28642,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C244" s="32"/>
+      <c r="C244" s="37"/>
       <c r="D244" s="1" t="s">
         <v>3</v>
       </c>
@@ -28703,7 +28682,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C245" s="32"/>
+      <c r="C245" s="37"/>
       <c r="D245" s="1" t="s">
         <v>57</v>
       </c>
@@ -28743,7 +28722,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C246" s="32"/>
+      <c r="C246" s="37"/>
       <c r="D246" s="1" t="s">
         <v>0</v>
       </c>
@@ -28753,7 +28732,7 @@
       </c>
       <c r="F246" s="30">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -28774,7 +28753,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.15">
@@ -28783,7 +28762,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C247" s="32"/>
+      <c r="C247" s="37"/>
       <c r="D247" s="1" t="s">
         <v>44</v>
       </c>
@@ -28823,7 +28802,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C248" s="32"/>
+      <c r="C248" s="37"/>
       <c r="D248" s="1" t="s">
         <v>54</v>
       </c>
@@ -28863,7 +28842,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C249" s="32"/>
+      <c r="C249" s="37"/>
       <c r="D249" s="1" t="s">
         <v>61</v>
       </c>
@@ -28903,7 +28882,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C250" s="32"/>
+      <c r="C250" s="37"/>
       <c r="D250" s="1" t="s">
         <v>62</v>
       </c>
@@ -28943,7 +28922,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C251" s="32"/>
+      <c r="C251" s="37"/>
       <c r="D251" s="1" t="s">
         <v>67</v>
       </c>
@@ -28983,7 +28962,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C252" s="32"/>
+      <c r="C252" s="37"/>
       <c r="D252" s="1" t="s">
         <v>46</v>
       </c>
@@ -29023,7 +29002,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C253" s="32"/>
+      <c r="C253" s="37"/>
       <c r="D253" s="1" t="s">
         <v>56</v>
       </c>
@@ -29063,7 +29042,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C254" s="32"/>
+      <c r="C254" s="37"/>
       <c r="D254" s="1" t="s">
         <v>72</v>
       </c>
@@ -29103,7 +29082,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C255" s="32"/>
+      <c r="C255" s="37"/>
       <c r="D255" s="1" t="s">
         <v>66</v>
       </c>
@@ -29143,7 +29122,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C256" s="32"/>
+      <c r="C256" s="37"/>
       <c r="D256" s="1" t="s">
         <v>58</v>
       </c>
@@ -29183,7 +29162,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C257" s="32"/>
+      <c r="C257" s="37"/>
       <c r="D257" s="1" t="s">
         <v>48</v>
       </c>
@@ -29223,7 +29202,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C258" s="32"/>
+      <c r="C258" s="37"/>
       <c r="D258" s="1" t="s">
         <v>47</v>
       </c>
@@ -29263,7 +29242,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C259" s="32"/>
+      <c r="C259" s="37"/>
       <c r="D259" s="1" t="s">
         <v>1</v>
       </c>
@@ -29303,7 +29282,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C260" s="32"/>
+      <c r="C260" s="37"/>
       <c r="D260" s="1" t="s">
         <v>2</v>
       </c>
@@ -29343,7 +29322,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C261" s="32"/>
+      <c r="C261" s="37"/>
       <c r="D261" s="1" t="s">
         <v>4</v>
       </c>
@@ -29383,7 +29362,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C262" s="32"/>
+      <c r="C262" s="37"/>
       <c r="D262" s="1" t="s">
         <v>45</v>
       </c>
@@ -29423,7 +29402,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C263" s="32"/>
+      <c r="C263" s="37"/>
       <c r="D263" s="1" t="s">
         <v>50</v>
       </c>
@@ -29463,7 +29442,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C264" s="32"/>
+      <c r="C264" s="37"/>
       <c r="D264" s="1" t="s">
         <v>49</v>
       </c>
@@ -29503,7 +29482,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C265" s="32"/>
+      <c r="C265" s="37"/>
       <c r="D265" s="1" t="s">
         <v>51</v>
       </c>
@@ -29543,7 +29522,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C266" s="32"/>
+      <c r="C266" s="37"/>
       <c r="D266" s="1" t="s">
         <v>55</v>
       </c>
@@ -29583,7 +29562,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C267" s="32"/>
+      <c r="C267" s="37"/>
       <c r="D267" s="1" t="s">
         <v>75</v>
       </c>
@@ -29623,7 +29602,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C268" s="32"/>
+      <c r="C268" s="37"/>
       <c r="D268" s="1" t="s">
         <v>64</v>
       </c>
@@ -29663,7 +29642,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C269" s="32"/>
+      <c r="C269" s="37"/>
       <c r="D269" s="1" t="s">
         <v>65</v>
       </c>
@@ -29703,7 +29682,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C270" s="32"/>
+      <c r="C270" s="37"/>
       <c r="D270" s="1" t="s">
         <v>52</v>
       </c>
@@ -29743,7 +29722,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C271" s="32"/>
+      <c r="C271" s="37"/>
       <c r="D271" s="1" t="s">
         <v>53</v>
       </c>
@@ -29783,7 +29762,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C272" s="32"/>
+      <c r="C272" s="37"/>
       <c r="D272" s="1" t="s">
         <v>60</v>
       </c>
@@ -29823,7 +29802,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C273" s="32"/>
+      <c r="C273" s="37"/>
       <c r="D273" s="1" t="s">
         <v>68</v>
       </c>
@@ -29863,7 +29842,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C274" s="32"/>
+      <c r="C274" s="37"/>
       <c r="D274" s="1" t="s">
         <v>71</v>
       </c>
@@ -29903,7 +29882,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C275" s="32"/>
+      <c r="C275" s="37"/>
       <c r="D275" s="1" t="s">
         <v>73</v>
       </c>
@@ -29943,7 +29922,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C276" s="32"/>
+      <c r="C276" s="37"/>
       <c r="D276" s="1" t="s">
         <v>59</v>
       </c>
@@ -29983,7 +29962,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C277" s="33"/>
+      <c r="C277" s="38"/>
       <c r="D277" s="1" t="s">
         <v>74</v>
       </c>
@@ -30026,7 +30005,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C278" s="31" t="s">
+      <c r="C278" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D278" s="9" t="s">
@@ -30071,7 +30050,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C279" s="32"/>
+      <c r="C279" s="37"/>
       <c r="D279" s="9" t="s">
         <v>70</v>
       </c>
@@ -30114,7 +30093,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C280" s="32"/>
+      <c r="C280" s="37"/>
       <c r="D280" s="9" t="s">
         <v>69</v>
       </c>
@@ -30157,7 +30136,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C281" s="32"/>
+      <c r="C281" s="37"/>
       <c r="D281" s="9" t="s">
         <v>3</v>
       </c>
@@ -30200,7 +30179,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C282" s="32"/>
+      <c r="C282" s="37"/>
       <c r="D282" s="9" t="s">
         <v>57</v>
       </c>
@@ -30243,7 +30222,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C283" s="32"/>
+      <c r="C283" s="37"/>
       <c r="D283" s="9" t="s">
         <v>0</v>
       </c>
@@ -30286,7 +30265,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C284" s="32"/>
+      <c r="C284" s="37"/>
       <c r="D284" s="9" t="s">
         <v>44</v>
       </c>
@@ -30329,7 +30308,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C285" s="32"/>
+      <c r="C285" s="37"/>
       <c r="D285" s="9" t="s">
         <v>54</v>
       </c>
@@ -30372,7 +30351,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C286" s="32"/>
+      <c r="C286" s="37"/>
       <c r="D286" s="9" t="s">
         <v>61</v>
       </c>
@@ -30415,7 +30394,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C287" s="32"/>
+      <c r="C287" s="37"/>
       <c r="D287" s="9" t="s">
         <v>62</v>
       </c>
@@ -30458,7 +30437,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C288" s="32"/>
+      <c r="C288" s="37"/>
       <c r="D288" s="9" t="s">
         <v>67</v>
       </c>
@@ -30501,7 +30480,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C289" s="32"/>
+      <c r="C289" s="37"/>
       <c r="D289" s="9" t="s">
         <v>46</v>
       </c>
@@ -30544,7 +30523,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C290" s="32"/>
+      <c r="C290" s="37"/>
       <c r="D290" s="9" t="s">
         <v>56</v>
       </c>
@@ -30587,7 +30566,7 @@
         <f t="shared" si="75"/>
         <v>victory</v>
       </c>
-      <c r="C291" s="32"/>
+      <c r="C291" s="37"/>
       <c r="D291" s="9" t="s">
         <v>72</v>
       </c>
@@ -30630,7 +30609,7 @@
         <f t="shared" ref="B292:B355" si="82">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C292" s="32"/>
+      <c r="C292" s="37"/>
       <c r="D292" s="9" t="s">
         <v>66</v>
       </c>
@@ -30673,7 +30652,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C293" s="32"/>
+      <c r="C293" s="37"/>
       <c r="D293" s="9" t="s">
         <v>58</v>
       </c>
@@ -30716,7 +30695,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C294" s="32"/>
+      <c r="C294" s="37"/>
       <c r="D294" s="9" t="s">
         <v>48</v>
       </c>
@@ -30759,7 +30738,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C295" s="32"/>
+      <c r="C295" s="37"/>
       <c r="D295" s="9" t="s">
         <v>47</v>
       </c>
@@ -30802,7 +30781,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C296" s="32"/>
+      <c r="C296" s="37"/>
       <c r="D296" s="9" t="s">
         <v>1</v>
       </c>
@@ -30845,7 +30824,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C297" s="32"/>
+      <c r="C297" s="37"/>
       <c r="D297" s="9" t="s">
         <v>2</v>
       </c>
@@ -30888,7 +30867,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C298" s="32"/>
+      <c r="C298" s="37"/>
       <c r="D298" s="9" t="s">
         <v>4</v>
       </c>
@@ -30931,7 +30910,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C299" s="32"/>
+      <c r="C299" s="37"/>
       <c r="D299" s="9" t="s">
         <v>45</v>
       </c>
@@ -30974,7 +30953,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C300" s="32"/>
+      <c r="C300" s="37"/>
       <c r="D300" s="9" t="s">
         <v>50</v>
       </c>
@@ -31017,7 +30996,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C301" s="32"/>
+      <c r="C301" s="37"/>
       <c r="D301" s="9" t="s">
         <v>49</v>
       </c>
@@ -31060,7 +31039,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C302" s="32"/>
+      <c r="C302" s="37"/>
       <c r="D302" s="9" t="s">
         <v>51</v>
       </c>
@@ -31103,7 +31082,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C303" s="32"/>
+      <c r="C303" s="37"/>
       <c r="D303" s="9" t="s">
         <v>55</v>
       </c>
@@ -31146,7 +31125,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C304" s="32"/>
+      <c r="C304" s="37"/>
       <c r="D304" s="9" t="s">
         <v>75</v>
       </c>
@@ -31189,7 +31168,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C305" s="32"/>
+      <c r="C305" s="37"/>
       <c r="D305" s="9" t="s">
         <v>64</v>
       </c>
@@ -31232,7 +31211,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C306" s="32"/>
+      <c r="C306" s="37"/>
       <c r="D306" s="9" t="s">
         <v>65</v>
       </c>
@@ -31275,7 +31254,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C307" s="32"/>
+      <c r="C307" s="37"/>
       <c r="D307" s="9" t="s">
         <v>52</v>
       </c>
@@ -31318,7 +31297,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C308" s="32"/>
+      <c r="C308" s="37"/>
       <c r="D308" s="9" t="s">
         <v>53</v>
       </c>
@@ -31361,7 +31340,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C309" s="32"/>
+      <c r="C309" s="37"/>
       <c r="D309" s="9" t="s">
         <v>60</v>
       </c>
@@ -31404,7 +31383,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C310" s="32"/>
+      <c r="C310" s="37"/>
       <c r="D310" s="9" t="s">
         <v>68</v>
       </c>
@@ -31447,7 +31426,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C311" s="32"/>
+      <c r="C311" s="37"/>
       <c r="D311" s="9" t="s">
         <v>71</v>
       </c>
@@ -31490,7 +31469,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C312" s="32"/>
+      <c r="C312" s="37"/>
       <c r="D312" s="9" t="s">
         <v>73</v>
       </c>
@@ -31533,7 +31512,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C313" s="32"/>
+      <c r="C313" s="37"/>
       <c r="D313" s="9" t="s">
         <v>59</v>
       </c>
@@ -31576,7 +31555,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C314" s="33"/>
+      <c r="C314" s="38"/>
       <c r="D314" s="9" t="s">
         <v>74</v>
       </c>
@@ -31619,7 +31598,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C315" s="31" t="s">
+      <c r="C315" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D315" s="9" t="s">
@@ -31664,7 +31643,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C316" s="32"/>
+      <c r="C316" s="37"/>
       <c r="D316" s="9" t="s">
         <v>70</v>
       </c>
@@ -31707,7 +31686,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C317" s="32"/>
+      <c r="C317" s="37"/>
       <c r="D317" s="9" t="s">
         <v>69</v>
       </c>
@@ -31750,7 +31729,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C318" s="32"/>
+      <c r="C318" s="37"/>
       <c r="D318" s="9" t="s">
         <v>3</v>
       </c>
@@ -31793,7 +31772,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C319" s="32"/>
+      <c r="C319" s="37"/>
       <c r="D319" s="9" t="s">
         <v>57</v>
       </c>
@@ -31836,7 +31815,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C320" s="32"/>
+      <c r="C320" s="37"/>
       <c r="D320" s="9" t="s">
         <v>0</v>
       </c>
@@ -31846,7 +31825,7 @@
       </c>
       <c r="F320" s="30">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G320" s="14"/>
       <c r="H320" s="14"/>
@@ -31867,7 +31846,7 @@
       <c r="W320" s="14"/>
       <c r="X320" s="14">
         <f t="shared" ca="1" si="83"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:24" x14ac:dyDescent="0.15">
@@ -31879,7 +31858,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C321" s="32"/>
+      <c r="C321" s="37"/>
       <c r="D321" s="9" t="s">
         <v>44</v>
       </c>
@@ -31922,7 +31901,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C322" s="32"/>
+      <c r="C322" s="37"/>
       <c r="D322" s="9" t="s">
         <v>54</v>
       </c>
@@ -31965,7 +31944,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C323" s="32"/>
+      <c r="C323" s="37"/>
       <c r="D323" s="9" t="s">
         <v>61</v>
       </c>
@@ -32008,7 +31987,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C324" s="32"/>
+      <c r="C324" s="37"/>
       <c r="D324" s="9" t="s">
         <v>62</v>
       </c>
@@ -32051,7 +32030,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C325" s="32"/>
+      <c r="C325" s="37"/>
       <c r="D325" s="9" t="s">
         <v>67</v>
       </c>
@@ -32094,7 +32073,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C326" s="32"/>
+      <c r="C326" s="37"/>
       <c r="D326" s="9" t="s">
         <v>46</v>
       </c>
@@ -32137,7 +32116,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C327" s="32"/>
+      <c r="C327" s="37"/>
       <c r="D327" s="9" t="s">
         <v>56</v>
       </c>
@@ -32180,7 +32159,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C328" s="32"/>
+      <c r="C328" s="37"/>
       <c r="D328" s="9" t="s">
         <v>72</v>
       </c>
@@ -32223,7 +32202,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C329" s="32"/>
+      <c r="C329" s="37"/>
       <c r="D329" s="9" t="s">
         <v>66</v>
       </c>
@@ -32266,7 +32245,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C330" s="32"/>
+      <c r="C330" s="37"/>
       <c r="D330" s="9" t="s">
         <v>58</v>
       </c>
@@ -32309,7 +32288,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C331" s="32"/>
+      <c r="C331" s="37"/>
       <c r="D331" s="9" t="s">
         <v>48</v>
       </c>
@@ -32352,7 +32331,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C332" s="32"/>
+      <c r="C332" s="37"/>
       <c r="D332" s="9" t="s">
         <v>47</v>
       </c>
@@ -32395,7 +32374,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C333" s="32"/>
+      <c r="C333" s="37"/>
       <c r="D333" s="9" t="s">
         <v>1</v>
       </c>
@@ -32438,7 +32417,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C334" s="32"/>
+      <c r="C334" s="37"/>
       <c r="D334" s="9" t="s">
         <v>2</v>
       </c>
@@ -32481,7 +32460,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C335" s="32"/>
+      <c r="C335" s="37"/>
       <c r="D335" s="9" t="s">
         <v>4</v>
       </c>
@@ -32524,7 +32503,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C336" s="32"/>
+      <c r="C336" s="37"/>
       <c r="D336" s="9" t="s">
         <v>45</v>
       </c>
@@ -32567,7 +32546,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C337" s="32"/>
+      <c r="C337" s="37"/>
       <c r="D337" s="9" t="s">
         <v>50</v>
       </c>
@@ -32610,7 +32589,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C338" s="32"/>
+      <c r="C338" s="37"/>
       <c r="D338" s="9" t="s">
         <v>49</v>
       </c>
@@ -32653,7 +32632,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C339" s="32"/>
+      <c r="C339" s="37"/>
       <c r="D339" s="9" t="s">
         <v>51</v>
       </c>
@@ -32696,7 +32675,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C340" s="32"/>
+      <c r="C340" s="37"/>
       <c r="D340" s="9" t="s">
         <v>55</v>
       </c>
@@ -32739,7 +32718,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C341" s="32"/>
+      <c r="C341" s="37"/>
       <c r="D341" s="9" t="s">
         <v>75</v>
       </c>
@@ -32782,7 +32761,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C342" s="32"/>
+      <c r="C342" s="37"/>
       <c r="D342" s="9" t="s">
         <v>64</v>
       </c>
@@ -32825,7 +32804,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C343" s="32"/>
+      <c r="C343" s="37"/>
       <c r="D343" s="9" t="s">
         <v>65</v>
       </c>
@@ -32868,7 +32847,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C344" s="32"/>
+      <c r="C344" s="37"/>
       <c r="D344" s="9" t="s">
         <v>52</v>
       </c>
@@ -32911,7 +32890,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C345" s="32"/>
+      <c r="C345" s="37"/>
       <c r="D345" s="9" t="s">
         <v>53</v>
       </c>
@@ -32954,7 +32933,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C346" s="32"/>
+      <c r="C346" s="37"/>
       <c r="D346" s="9" t="s">
         <v>60</v>
       </c>
@@ -32997,7 +32976,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C347" s="32"/>
+      <c r="C347" s="37"/>
       <c r="D347" s="9" t="s">
         <v>68</v>
       </c>
@@ -33040,7 +33019,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C348" s="32"/>
+      <c r="C348" s="37"/>
       <c r="D348" s="9" t="s">
         <v>71</v>
       </c>
@@ -33083,7 +33062,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C349" s="32"/>
+      <c r="C349" s="37"/>
       <c r="D349" s="9" t="s">
         <v>73</v>
       </c>
@@ -33126,7 +33105,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C350" s="32"/>
+      <c r="C350" s="37"/>
       <c r="D350" s="9" t="s">
         <v>59</v>
       </c>
@@ -33169,7 +33148,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C351" s="33"/>
+      <c r="C351" s="38"/>
       <c r="D351" s="9" t="s">
         <v>74</v>
       </c>
@@ -33211,7 +33190,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C352" s="31" t="s">
+      <c r="C352" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D352" s="14" t="s">
@@ -33256,7 +33235,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C353" s="32"/>
+      <c r="C353" s="37"/>
       <c r="D353" s="14" t="s">
         <v>70</v>
       </c>
@@ -33299,7 +33278,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C354" s="32"/>
+      <c r="C354" s="37"/>
       <c r="D354" s="14" t="s">
         <v>69</v>
       </c>
@@ -33342,7 +33321,7 @@
         <f t="shared" si="82"/>
         <v>victory</v>
       </c>
-      <c r="C355" s="32"/>
+      <c r="C355" s="37"/>
       <c r="D355" s="14" t="s">
         <v>3</v>
       </c>
@@ -33385,7 +33364,7 @@
         <f t="shared" ref="B356:B421" si="90">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C356" s="32"/>
+      <c r="C356" s="37"/>
       <c r="D356" s="14" t="s">
         <v>57</v>
       </c>
@@ -33428,7 +33407,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C357" s="32"/>
+      <c r="C357" s="37"/>
       <c r="D357" s="14" t="s">
         <v>0</v>
       </c>
@@ -33438,7 +33417,7 @@
       </c>
       <c r="F357" s="30">
         <f t="shared" ca="1" si="88"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G357" s="14"/>
       <c r="H357" s="14"/>
@@ -33459,7 +33438,7 @@
       <c r="W357" s="14"/>
       <c r="X357" s="14">
         <f t="shared" ca="1" si="87"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:24" x14ac:dyDescent="0.15">
@@ -33471,7 +33450,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C358" s="32"/>
+      <c r="C358" s="37"/>
       <c r="D358" s="14" t="s">
         <v>44</v>
       </c>
@@ -33514,7 +33493,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C359" s="32"/>
+      <c r="C359" s="37"/>
       <c r="D359" s="14" t="s">
         <v>54</v>
       </c>
@@ -33557,7 +33536,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C360" s="32"/>
+      <c r="C360" s="37"/>
       <c r="D360" s="14" t="s">
         <v>61</v>
       </c>
@@ -33600,7 +33579,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C361" s="32"/>
+      <c r="C361" s="37"/>
       <c r="D361" s="14" t="s">
         <v>62</v>
       </c>
@@ -33643,7 +33622,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C362" s="32"/>
+      <c r="C362" s="37"/>
       <c r="D362" s="14" t="s">
         <v>67</v>
       </c>
@@ -33686,7 +33665,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C363" s="32"/>
+      <c r="C363" s="37"/>
       <c r="D363" s="14" t="s">
         <v>46</v>
       </c>
@@ -33729,7 +33708,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C364" s="32"/>
+      <c r="C364" s="37"/>
       <c r="D364" s="14" t="s">
         <v>56</v>
       </c>
@@ -33772,7 +33751,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C365" s="32"/>
+      <c r="C365" s="37"/>
       <c r="D365" s="14" t="s">
         <v>72</v>
       </c>
@@ -33815,7 +33794,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C366" s="32"/>
+      <c r="C366" s="37"/>
       <c r="D366" s="14" t="s">
         <v>66</v>
       </c>
@@ -33858,7 +33837,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C367" s="32"/>
+      <c r="C367" s="37"/>
       <c r="D367" s="14" t="s">
         <v>58</v>
       </c>
@@ -33901,7 +33880,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C368" s="32"/>
+      <c r="C368" s="37"/>
       <c r="D368" s="14" t="s">
         <v>48</v>
       </c>
@@ -33944,7 +33923,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C369" s="32"/>
+      <c r="C369" s="37"/>
       <c r="D369" s="14" t="s">
         <v>47</v>
       </c>
@@ -33987,7 +33966,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C370" s="32"/>
+      <c r="C370" s="37"/>
       <c r="D370" s="14" t="s">
         <v>1</v>
       </c>
@@ -34030,7 +34009,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C371" s="32"/>
+      <c r="C371" s="37"/>
       <c r="D371" s="14" t="s">
         <v>2</v>
       </c>
@@ -34073,7 +34052,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C372" s="32"/>
+      <c r="C372" s="37"/>
       <c r="D372" s="14" t="s">
         <v>4</v>
       </c>
@@ -34116,7 +34095,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C373" s="32"/>
+      <c r="C373" s="37"/>
       <c r="D373" s="14" t="s">
         <v>45</v>
       </c>
@@ -34159,7 +34138,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C374" s="32"/>
+      <c r="C374" s="37"/>
       <c r="D374" s="14" t="s">
         <v>50</v>
       </c>
@@ -34202,7 +34181,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C375" s="32"/>
+      <c r="C375" s="37"/>
       <c r="D375" s="14" t="s">
         <v>49</v>
       </c>
@@ -34245,7 +34224,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C376" s="32"/>
+      <c r="C376" s="37"/>
       <c r="D376" s="14" t="s">
         <v>51</v>
       </c>
@@ -34288,7 +34267,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C377" s="32"/>
+      <c r="C377" s="37"/>
       <c r="D377" s="14" t="s">
         <v>55</v>
       </c>
@@ -34331,7 +34310,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C378" s="32"/>
+      <c r="C378" s="37"/>
       <c r="D378" s="14" t="s">
         <v>75</v>
       </c>
@@ -34374,7 +34353,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C379" s="32"/>
+      <c r="C379" s="37"/>
       <c r="D379" s="14" t="s">
         <v>64</v>
       </c>
@@ -34417,7 +34396,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C380" s="32"/>
+      <c r="C380" s="37"/>
       <c r="D380" s="14" t="s">
         <v>65</v>
       </c>
@@ -34460,7 +34439,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C381" s="32"/>
+      <c r="C381" s="37"/>
       <c r="D381" s="14" t="s">
         <v>52</v>
       </c>
@@ -34503,7 +34482,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C382" s="32"/>
+      <c r="C382" s="37"/>
       <c r="D382" s="14" t="s">
         <v>53</v>
       </c>
@@ -34546,7 +34525,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C383" s="32"/>
+      <c r="C383" s="37"/>
       <c r="D383" s="14" t="s">
         <v>60</v>
       </c>
@@ -34589,7 +34568,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C384" s="32"/>
+      <c r="C384" s="37"/>
       <c r="D384" s="14" t="s">
         <v>68</v>
       </c>
@@ -34632,7 +34611,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C385" s="32"/>
+      <c r="C385" s="37"/>
       <c r="D385" s="14" t="s">
         <v>71</v>
       </c>
@@ -34675,7 +34654,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C386" s="32"/>
+      <c r="C386" s="37"/>
       <c r="D386" s="14" t="s">
         <v>73</v>
       </c>
@@ -34718,7 +34697,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C387" s="32"/>
+      <c r="C387" s="37"/>
       <c r="D387" s="14" t="s">
         <v>59</v>
       </c>
@@ -34761,7 +34740,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C388" s="33"/>
+      <c r="C388" s="38"/>
       <c r="D388" s="14" t="s">
         <v>74</v>
       </c>
@@ -34803,7 +34782,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C389" s="31" t="s">
+      <c r="C389" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D389" s="14" t="s">
@@ -34848,7 +34827,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C390" s="32"/>
+      <c r="C390" s="37"/>
       <c r="D390" s="14" t="s">
         <v>70</v>
       </c>
@@ -34891,7 +34870,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C391" s="32"/>
+      <c r="C391" s="37"/>
       <c r="D391" s="14" t="s">
         <v>69</v>
       </c>
@@ -34934,7 +34913,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C392" s="32"/>
+      <c r="C392" s="37"/>
       <c r="D392" s="14" t="s">
         <v>3</v>
       </c>
@@ -34977,7 +34956,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C393" s="32"/>
+      <c r="C393" s="37"/>
       <c r="D393" s="14" t="s">
         <v>57</v>
       </c>
@@ -35020,7 +34999,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C394" s="32"/>
+      <c r="C394" s="37"/>
       <c r="D394" s="14" t="s">
         <v>0</v>
       </c>
@@ -35063,7 +35042,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C395" s="32"/>
+      <c r="C395" s="37"/>
       <c r="D395" s="14" t="s">
         <v>44</v>
       </c>
@@ -35106,7 +35085,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C396" s="32"/>
+      <c r="C396" s="37"/>
       <c r="D396" s="14" t="s">
         <v>54</v>
       </c>
@@ -35149,7 +35128,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C397" s="32"/>
+      <c r="C397" s="37"/>
       <c r="D397" s="14" t="s">
         <v>61</v>
       </c>
@@ -35192,7 +35171,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C398" s="32"/>
+      <c r="C398" s="37"/>
       <c r="D398" s="14" t="s">
         <v>62</v>
       </c>
@@ -35235,7 +35214,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C399" s="32"/>
+      <c r="C399" s="37"/>
       <c r="D399" s="14" t="s">
         <v>67</v>
       </c>
@@ -35278,7 +35257,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C400" s="32"/>
+      <c r="C400" s="37"/>
       <c r="D400" s="14" t="s">
         <v>46</v>
       </c>
@@ -35321,7 +35300,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C401" s="32"/>
+      <c r="C401" s="37"/>
       <c r="D401" s="14" t="s">
         <v>56</v>
       </c>
@@ -35364,7 +35343,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C402" s="32"/>
+      <c r="C402" s="37"/>
       <c r="D402" s="14" t="s">
         <v>72</v>
       </c>
@@ -35407,7 +35386,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C403" s="32"/>
+      <c r="C403" s="37"/>
       <c r="D403" s="14" t="s">
         <v>66</v>
       </c>
@@ -35450,7 +35429,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C404" s="32"/>
+      <c r="C404" s="37"/>
       <c r="D404" s="14" t="s">
         <v>58</v>
       </c>
@@ -35493,7 +35472,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C405" s="32"/>
+      <c r="C405" s="37"/>
       <c r="D405" s="14" t="s">
         <v>48</v>
       </c>
@@ -35536,7 +35515,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C406" s="32"/>
+      <c r="C406" s="37"/>
       <c r="D406" s="14" t="s">
         <v>47</v>
       </c>
@@ -35579,7 +35558,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C407" s="32"/>
+      <c r="C407" s="37"/>
       <c r="D407" s="14" t="s">
         <v>1</v>
       </c>
@@ -35622,7 +35601,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C408" s="32"/>
+      <c r="C408" s="37"/>
       <c r="D408" s="14" t="s">
         <v>2</v>
       </c>
@@ -35665,7 +35644,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C409" s="32"/>
+      <c r="C409" s="37"/>
       <c r="D409" s="14" t="s">
         <v>4</v>
       </c>
@@ -35708,7 +35687,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C410" s="32"/>
+      <c r="C410" s="37"/>
       <c r="D410" s="14" t="s">
         <v>45</v>
       </c>
@@ -35751,7 +35730,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C411" s="32"/>
+      <c r="C411" s="37"/>
       <c r="D411" s="14" t="s">
         <v>50</v>
       </c>
@@ -35794,7 +35773,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C412" s="32"/>
+      <c r="C412" s="37"/>
       <c r="D412" s="14" t="s">
         <v>49</v>
       </c>
@@ -35837,7 +35816,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C413" s="32"/>
+      <c r="C413" s="37"/>
       <c r="D413" s="14" t="s">
         <v>51</v>
       </c>
@@ -35880,7 +35859,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C414" s="32"/>
+      <c r="C414" s="37"/>
       <c r="D414" s="14" t="s">
         <v>55</v>
       </c>
@@ -35923,7 +35902,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C415" s="32"/>
+      <c r="C415" s="37"/>
       <c r="D415" s="14" t="s">
         <v>75</v>
       </c>
@@ -35966,7 +35945,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C416" s="32"/>
+      <c r="C416" s="37"/>
       <c r="D416" s="14" t="s">
         <v>64</v>
       </c>
@@ -36009,7 +35988,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C417" s="32"/>
+      <c r="C417" s="37"/>
       <c r="D417" s="14" t="s">
         <v>65</v>
       </c>
@@ -36052,7 +36031,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C418" s="32"/>
+      <c r="C418" s="37"/>
       <c r="D418" s="14" t="s">
         <v>52</v>
       </c>
@@ -36095,7 +36074,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C419" s="32"/>
+      <c r="C419" s="37"/>
       <c r="D419" s="14" t="s">
         <v>53</v>
       </c>
@@ -36138,7 +36117,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C420" s="32"/>
+      <c r="C420" s="37"/>
       <c r="D420" s="14" t="s">
         <v>60</v>
       </c>
@@ -36181,7 +36160,7 @@
         <f t="shared" si="90"/>
         <v>victory</v>
       </c>
-      <c r="C421" s="32"/>
+      <c r="C421" s="37"/>
       <c r="D421" s="14" t="s">
         <v>68</v>
       </c>
@@ -36224,7 +36203,7 @@
         <f t="shared" ref="B422:B485" si="95">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C422" s="32"/>
+      <c r="C422" s="37"/>
       <c r="D422" s="14" t="s">
         <v>71</v>
       </c>
@@ -36267,7 +36246,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C423" s="32"/>
+      <c r="C423" s="37"/>
       <c r="D423" s="14" t="s">
         <v>73</v>
       </c>
@@ -36310,7 +36289,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C424" s="32"/>
+      <c r="C424" s="37"/>
       <c r="D424" s="14" t="s">
         <v>59</v>
       </c>
@@ -36353,7 +36332,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C425" s="33"/>
+      <c r="C425" s="38"/>
       <c r="D425" s="14" t="s">
         <v>74</v>
       </c>
@@ -36395,7 +36374,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C426" s="31" t="s">
+      <c r="C426" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D426" s="15" t="s">
@@ -36407,7 +36386,7 @@
       </c>
       <c r="F426" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!D:D"),INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D426)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G426" s="15"/>
       <c r="H426" s="15"/>
@@ -36428,7 +36407,7 @@
       <c r="W426" s="15"/>
       <c r="X426" s="15">
         <f t="shared" ref="X426:X452" ca="1" si="96">SUM(E426:W426)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="427" spans="1:24" x14ac:dyDescent="0.15">
@@ -36440,7 +36419,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C427" s="32"/>
+      <c r="C427" s="37"/>
       <c r="D427" s="15" t="s">
         <v>70</v>
       </c>
@@ -36483,7 +36462,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C428" s="32"/>
+      <c r="C428" s="37"/>
       <c r="D428" s="15" t="s">
         <v>69</v>
       </c>
@@ -36526,7 +36505,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C429" s="32"/>
+      <c r="C429" s="37"/>
       <c r="D429" s="15" t="s">
         <v>3</v>
       </c>
@@ -36569,7 +36548,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C430" s="32"/>
+      <c r="C430" s="37"/>
       <c r="D430" s="15" t="s">
         <v>57</v>
       </c>
@@ -36612,7 +36591,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C431" s="32"/>
+      <c r="C431" s="37"/>
       <c r="D431" s="15" t="s">
         <v>0</v>
       </c>
@@ -36622,7 +36601,7 @@
       </c>
       <c r="F431" s="30">
         <f t="shared" ca="1" si="97"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G431" s="15"/>
       <c r="H431" s="15"/>
@@ -36643,7 +36622,7 @@
       <c r="W431" s="15"/>
       <c r="X431" s="15">
         <f t="shared" ca="1" si="96"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="432" spans="1:24" x14ac:dyDescent="0.15">
@@ -36655,7 +36634,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C432" s="32"/>
+      <c r="C432" s="37"/>
       <c r="D432" s="15" t="s">
         <v>44</v>
       </c>
@@ -36698,7 +36677,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C433" s="32"/>
+      <c r="C433" s="37"/>
       <c r="D433" s="15" t="s">
         <v>54</v>
       </c>
@@ -36741,7 +36720,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C434" s="32"/>
+      <c r="C434" s="37"/>
       <c r="D434" s="15" t="s">
         <v>61</v>
       </c>
@@ -36784,7 +36763,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C435" s="32"/>
+      <c r="C435" s="37"/>
       <c r="D435" s="15" t="s">
         <v>62</v>
       </c>
@@ -36827,7 +36806,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C436" s="32"/>
+      <c r="C436" s="37"/>
       <c r="D436" s="15" t="s">
         <v>67</v>
       </c>
@@ -36870,7 +36849,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C437" s="32"/>
+      <c r="C437" s="37"/>
       <c r="D437" s="15" t="s">
         <v>46</v>
       </c>
@@ -36913,7 +36892,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C438" s="32"/>
+      <c r="C438" s="37"/>
       <c r="D438" s="15" t="s">
         <v>56</v>
       </c>
@@ -36956,7 +36935,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C439" s="32"/>
+      <c r="C439" s="37"/>
       <c r="D439" s="15" t="s">
         <v>72</v>
       </c>
@@ -36999,7 +36978,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C440" s="32"/>
+      <c r="C440" s="37"/>
       <c r="D440" s="15" t="s">
         <v>66</v>
       </c>
@@ -37042,7 +37021,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C441" s="32"/>
+      <c r="C441" s="37"/>
       <c r="D441" s="15" t="s">
         <v>58</v>
       </c>
@@ -37085,7 +37064,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C442" s="32"/>
+      <c r="C442" s="37"/>
       <c r="D442" s="15" t="s">
         <v>48</v>
       </c>
@@ -37128,7 +37107,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C443" s="32"/>
+      <c r="C443" s="37"/>
       <c r="D443" s="15" t="s">
         <v>47</v>
       </c>
@@ -37171,7 +37150,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C444" s="32"/>
+      <c r="C444" s="37"/>
       <c r="D444" s="15" t="s">
         <v>1</v>
       </c>
@@ -37214,7 +37193,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C445" s="32"/>
+      <c r="C445" s="37"/>
       <c r="D445" s="15" t="s">
         <v>2</v>
       </c>
@@ -37257,7 +37236,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C446" s="32"/>
+      <c r="C446" s="37"/>
       <c r="D446" s="15" t="s">
         <v>4</v>
       </c>
@@ -37267,7 +37246,7 @@
       </c>
       <c r="F446" s="30">
         <f t="shared" ca="1" si="97"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G446" s="15"/>
       <c r="H446" s="15"/>
@@ -37288,7 +37267,7 @@
       <c r="W446" s="15"/>
       <c r="X446" s="15">
         <f t="shared" ca="1" si="96"/>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="447" spans="1:24" x14ac:dyDescent="0.15">
@@ -37300,7 +37279,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C447" s="32"/>
+      <c r="C447" s="37"/>
       <c r="D447" s="15" t="s">
         <v>45</v>
       </c>
@@ -37343,7 +37322,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C448" s="32"/>
+      <c r="C448" s="37"/>
       <c r="D448" s="15" t="s">
         <v>50</v>
       </c>
@@ -37386,7 +37365,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C449" s="32"/>
+      <c r="C449" s="37"/>
       <c r="D449" s="15" t="s">
         <v>49</v>
       </c>
@@ -37429,7 +37408,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C450" s="32"/>
+      <c r="C450" s="37"/>
       <c r="D450" s="15" t="s">
         <v>51</v>
       </c>
@@ -37472,7 +37451,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C451" s="32"/>
+      <c r="C451" s="37"/>
       <c r="D451" s="15" t="s">
         <v>55</v>
       </c>
@@ -37515,7 +37494,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C452" s="32"/>
+      <c r="C452" s="37"/>
       <c r="D452" s="15" t="s">
         <v>75</v>
       </c>
@@ -37558,7 +37537,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C453" s="32"/>
+      <c r="C453" s="37"/>
       <c r="D453" s="15" t="s">
         <v>64</v>
       </c>
@@ -37601,7 +37580,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C454" s="32"/>
+      <c r="C454" s="37"/>
       <c r="D454" s="15" t="s">
         <v>65</v>
       </c>
@@ -37644,7 +37623,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C455" s="32"/>
+      <c r="C455" s="37"/>
       <c r="D455" s="15" t="s">
         <v>52</v>
       </c>
@@ -37687,7 +37666,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C456" s="32"/>
+      <c r="C456" s="37"/>
       <c r="D456" s="15" t="s">
         <v>53</v>
       </c>
@@ -37730,7 +37709,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C457" s="32"/>
+      <c r="C457" s="37"/>
       <c r="D457" s="15" t="s">
         <v>60</v>
       </c>
@@ -37773,7 +37752,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C458" s="32"/>
+      <c r="C458" s="37"/>
       <c r="D458" s="15" t="s">
         <v>68</v>
       </c>
@@ -37816,7 +37795,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C459" s="32"/>
+      <c r="C459" s="37"/>
       <c r="D459" s="15" t="s">
         <v>71</v>
       </c>
@@ -37859,7 +37838,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C460" s="32"/>
+      <c r="C460" s="37"/>
       <c r="D460" s="15" t="s">
         <v>73</v>
       </c>
@@ -37902,7 +37881,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C461" s="32"/>
+      <c r="C461" s="37"/>
       <c r="D461" s="15" t="s">
         <v>59</v>
       </c>
@@ -37945,7 +37924,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C462" s="33"/>
+      <c r="C462" s="38"/>
       <c r="D462" s="15" t="s">
         <v>74</v>
       </c>
@@ -37987,7 +37966,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C463" s="31" t="s">
+      <c r="C463" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D463" s="15" t="s">
@@ -37999,7 +37978,7 @@
       </c>
       <c r="F463" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!E:E"),INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D463)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G463" s="15"/>
       <c r="H463" s="15"/>
@@ -38020,7 +37999,7 @@
       <c r="W463" s="15"/>
       <c r="X463" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="464" spans="1:24" x14ac:dyDescent="0.15">
@@ -38032,7 +38011,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C464" s="32"/>
+      <c r="C464" s="37"/>
       <c r="D464" s="15" t="s">
         <v>70</v>
       </c>
@@ -38075,7 +38054,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C465" s="32"/>
+      <c r="C465" s="37"/>
       <c r="D465" s="15" t="s">
         <v>69</v>
       </c>
@@ -38118,7 +38097,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C466" s="32"/>
+      <c r="C466" s="37"/>
       <c r="D466" s="15" t="s">
         <v>3</v>
       </c>
@@ -38161,7 +38140,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C467" s="32"/>
+      <c r="C467" s="37"/>
       <c r="D467" s="15" t="s">
         <v>57</v>
       </c>
@@ -38204,7 +38183,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C468" s="32"/>
+      <c r="C468" s="37"/>
       <c r="D468" s="15" t="s">
         <v>0</v>
       </c>
@@ -38214,7 +38193,7 @@
       </c>
       <c r="F468" s="30">
         <f t="shared" ca="1" si="100"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G468" s="15"/>
       <c r="H468" s="15"/>
@@ -38235,7 +38214,7 @@
       <c r="W468" s="15"/>
       <c r="X468" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="469" spans="1:24" x14ac:dyDescent="0.15">
@@ -38247,7 +38226,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C469" s="32"/>
+      <c r="C469" s="37"/>
       <c r="D469" s="15" t="s">
         <v>44</v>
       </c>
@@ -38290,7 +38269,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C470" s="32"/>
+      <c r="C470" s="37"/>
       <c r="D470" s="15" t="s">
         <v>54</v>
       </c>
@@ -38333,7 +38312,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C471" s="32"/>
+      <c r="C471" s="37"/>
       <c r="D471" s="15" t="s">
         <v>61</v>
       </c>
@@ -38376,7 +38355,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C472" s="32"/>
+      <c r="C472" s="37"/>
       <c r="D472" s="15" t="s">
         <v>62</v>
       </c>
@@ -38419,7 +38398,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C473" s="32"/>
+      <c r="C473" s="37"/>
       <c r="D473" s="15" t="s">
         <v>67</v>
       </c>
@@ -38462,7 +38441,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C474" s="32"/>
+      <c r="C474" s="37"/>
       <c r="D474" s="15" t="s">
         <v>46</v>
       </c>
@@ -38505,7 +38484,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C475" s="32"/>
+      <c r="C475" s="37"/>
       <c r="D475" s="15" t="s">
         <v>56</v>
       </c>
@@ -38548,7 +38527,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C476" s="32"/>
+      <c r="C476" s="37"/>
       <c r="D476" s="15" t="s">
         <v>72</v>
       </c>
@@ -38591,7 +38570,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C477" s="32"/>
+      <c r="C477" s="37"/>
       <c r="D477" s="15" t="s">
         <v>66</v>
       </c>
@@ -38634,7 +38613,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C478" s="32"/>
+      <c r="C478" s="37"/>
       <c r="D478" s="15" t="s">
         <v>58</v>
       </c>
@@ -38677,7 +38656,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C479" s="32"/>
+      <c r="C479" s="37"/>
       <c r="D479" s="15" t="s">
         <v>48</v>
       </c>
@@ -38720,7 +38699,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C480" s="32"/>
+      <c r="C480" s="37"/>
       <c r="D480" s="15" t="s">
         <v>47</v>
       </c>
@@ -38763,7 +38742,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C481" s="32"/>
+      <c r="C481" s="37"/>
       <c r="D481" s="15" t="s">
         <v>1</v>
       </c>
@@ -38806,7 +38785,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C482" s="32"/>
+      <c r="C482" s="37"/>
       <c r="D482" s="15" t="s">
         <v>2</v>
       </c>
@@ -38849,7 +38828,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C483" s="32"/>
+      <c r="C483" s="37"/>
       <c r="D483" s="15" t="s">
         <v>4</v>
       </c>
@@ -38859,7 +38838,7 @@
       </c>
       <c r="F483" s="30">
         <f t="shared" ca="1" si="100"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G483" s="15"/>
       <c r="H483" s="15"/>
@@ -38880,7 +38859,7 @@
       <c r="W483" s="15"/>
       <c r="X483" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="484" spans="1:24" x14ac:dyDescent="0.15">
@@ -38892,7 +38871,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C484" s="32"/>
+      <c r="C484" s="37"/>
       <c r="D484" s="15" t="s">
         <v>45</v>
       </c>
@@ -38935,7 +38914,7 @@
         <f t="shared" si="95"/>
         <v>victory</v>
       </c>
-      <c r="C485" s="32"/>
+      <c r="C485" s="37"/>
       <c r="D485" s="15" t="s">
         <v>50</v>
       </c>
@@ -38978,7 +38957,7 @@
         <f t="shared" ref="B486:B500" si="102">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="C486" s="32"/>
+      <c r="C486" s="37"/>
       <c r="D486" s="15" t="s">
         <v>49</v>
       </c>
@@ -39021,7 +39000,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C487" s="32"/>
+      <c r="C487" s="37"/>
       <c r="D487" s="15" t="s">
         <v>51</v>
       </c>
@@ -39064,7 +39043,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C488" s="32"/>
+      <c r="C488" s="37"/>
       <c r="D488" s="15" t="s">
         <v>55</v>
       </c>
@@ -39107,7 +39086,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C489" s="32"/>
+      <c r="C489" s="37"/>
       <c r="D489" s="15" t="s">
         <v>75</v>
       </c>
@@ -39150,7 +39129,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C490" s="32"/>
+      <c r="C490" s="37"/>
       <c r="D490" s="15" t="s">
         <v>64</v>
       </c>
@@ -39193,7 +39172,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C491" s="32"/>
+      <c r="C491" s="37"/>
       <c r="D491" s="15" t="s">
         <v>65</v>
       </c>
@@ -39236,7 +39215,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C492" s="32"/>
+      <c r="C492" s="37"/>
       <c r="D492" s="15" t="s">
         <v>52</v>
       </c>
@@ -39279,7 +39258,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C493" s="32"/>
+      <c r="C493" s="37"/>
       <c r="D493" s="15" t="s">
         <v>53</v>
       </c>
@@ -39322,7 +39301,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C494" s="32"/>
+      <c r="C494" s="37"/>
       <c r="D494" s="15" t="s">
         <v>60</v>
       </c>
@@ -39365,7 +39344,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C495" s="32"/>
+      <c r="C495" s="37"/>
       <c r="D495" s="15" t="s">
         <v>68</v>
       </c>
@@ -39408,7 +39387,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C496" s="32"/>
+      <c r="C496" s="37"/>
       <c r="D496" s="15" t="s">
         <v>71</v>
       </c>
@@ -39451,7 +39430,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C497" s="32"/>
+      <c r="C497" s="37"/>
       <c r="D497" s="15" t="s">
         <v>73</v>
       </c>
@@ -39494,7 +39473,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C498" s="32"/>
+      <c r="C498" s="37"/>
       <c r="D498" s="15" t="s">
         <v>59</v>
       </c>
@@ -39537,7 +39516,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="C499" s="33"/>
+      <c r="C499" s="38"/>
       <c r="D499" s="15" t="s">
         <v>74</v>
       </c>
@@ -39577,7 +39556,7 @@
         <f t="shared" si="102"/>
         <v>victory</v>
       </c>
-      <c r="D500" s="31" t="s">
+      <c r="D500" s="36" t="s">
         <v>167</v>
       </c>
       <c r="E500" s="18">
@@ -39586,47 +39565,47 @@
       </c>
       <c r="F500" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!I:I"),$D500,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B500)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X500" s="18">
         <f t="shared" ca="1" si="99"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="501" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B501" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D501" s="32"/>
+      <c r="D501" s="37"/>
       <c r="E501" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D500,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B501)</f>
         <v>10</v>
       </c>
       <c r="F501" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!I:I"),$D500,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B501)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X501" s="18">
         <f t="shared" ca="1" si="99"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B502" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D502" s="33"/>
+      <c r="D502" s="38"/>
       <c r="E502" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D500,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B502)</f>
         <v>1</v>
       </c>
       <c r="F502" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!I:I"),$D500,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B502)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X502" s="18">
         <f t="shared" ca="1" si="99"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:24" x14ac:dyDescent="0.15">
@@ -39635,7 +39614,7 @@
         <f t="shared" ref="B503" si="104">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D503" s="31" t="s">
+      <c r="D503" s="36" t="s">
         <v>149</v>
       </c>
       <c r="E503" s="18">
@@ -39655,7 +39634,7 @@
       <c r="B504" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D504" s="32"/>
+      <c r="D504" s="37"/>
       <c r="E504" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D503,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B504)</f>
         <v>0</v>
@@ -39673,7 +39652,7 @@
       <c r="B505" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D505" s="33"/>
+      <c r="D505" s="38"/>
       <c r="E505" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D503,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B505)</f>
         <v>0</v>
@@ -39693,7 +39672,7 @@
         <f t="shared" ref="B506" si="106">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D506" s="31" t="s">
+      <c r="D506" s="36" t="s">
         <v>151</v>
       </c>
       <c r="E506" s="18">
@@ -39713,7 +39692,7 @@
       <c r="B507" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D507" s="32"/>
+      <c r="D507" s="37"/>
       <c r="E507" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D506,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B507)</f>
         <v>0</v>
@@ -39731,7 +39710,7 @@
       <c r="B508" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D508" s="33"/>
+      <c r="D508" s="38"/>
       <c r="E508" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D506,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B508)</f>
         <v>0</v>
@@ -39751,7 +39730,7 @@
         <f t="shared" ref="B509" si="107">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D509" s="31" t="s">
+      <c r="D509" s="36" t="s">
         <v>153</v>
       </c>
       <c r="E509" s="18">
@@ -39771,7 +39750,7 @@
       <c r="B510" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D510" s="32"/>
+      <c r="D510" s="37"/>
       <c r="E510" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D509,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B510)</f>
         <v>0</v>
@@ -39789,7 +39768,7 @@
       <c r="B511" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D511" s="33"/>
+      <c r="D511" s="38"/>
       <c r="E511" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D509,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B511)</f>
         <v>0</v>
@@ -39809,7 +39788,7 @@
         <f t="shared" ref="B512" si="109">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D512" s="31" t="s">
+      <c r="D512" s="36" t="s">
         <v>154</v>
       </c>
       <c r="E512" s="18">
@@ -39829,7 +39808,7 @@
       <c r="B513" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D513" s="32"/>
+      <c r="D513" s="37"/>
       <c r="E513" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D512,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B513)</f>
         <v>0</v>
@@ -39847,7 +39826,7 @@
       <c r="B514" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D514" s="33"/>
+      <c r="D514" s="38"/>
       <c r="E514" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D512,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B514)</f>
         <v>1</v>
@@ -39867,7 +39846,7 @@
         <f t="shared" ref="B515" si="110">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D515" s="31" t="s">
+      <c r="D515" s="36" t="s">
         <v>156</v>
       </c>
       <c r="E515" s="18">
@@ -39887,7 +39866,7 @@
       <c r="B516" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D516" s="32"/>
+      <c r="D516" s="37"/>
       <c r="E516" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D515,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B516)</f>
         <v>1</v>
@@ -39905,7 +39884,7 @@
       <c r="B517" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D517" s="33"/>
+      <c r="D517" s="38"/>
       <c r="E517" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D515,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B517)</f>
         <v>1</v>
@@ -39925,7 +39904,7 @@
         <f t="shared" ref="B518" si="111">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D518" s="31" t="s">
+      <c r="D518" s="36" t="s">
         <v>158</v>
       </c>
       <c r="E518" s="18">
@@ -39945,7 +39924,7 @@
       <c r="B519" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D519" s="32"/>
+      <c r="D519" s="37"/>
       <c r="E519" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D518,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B519)</f>
         <v>0</v>
@@ -39963,7 +39942,7 @@
       <c r="B520" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D520" s="33"/>
+      <c r="D520" s="38"/>
       <c r="E520" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D518,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B520)</f>
         <v>0</v>
@@ -39983,7 +39962,7 @@
         <f t="shared" ref="B521" si="112">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D521" s="31" t="s">
+      <c r="D521" s="36" t="s">
         <v>160</v>
       </c>
       <c r="E521" s="18">
@@ -40003,7 +39982,7 @@
       <c r="B522" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D522" s="32"/>
+      <c r="D522" s="37"/>
       <c r="E522" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D521,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B522)</f>
         <v>3</v>
@@ -40021,7 +40000,7 @@
       <c r="B523" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D523" s="33"/>
+      <c r="D523" s="38"/>
       <c r="E523" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D521,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B523)</f>
         <v>0</v>
@@ -40041,7 +40020,7 @@
         <f t="shared" ref="B524" si="114">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D524" s="31" t="s">
+      <c r="D524" s="36" t="s">
         <v>162</v>
       </c>
       <c r="E524" s="18">
@@ -40061,7 +40040,7 @@
       <c r="B525" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D525" s="32"/>
+      <c r="D525" s="37"/>
       <c r="E525" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D524,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B525)</f>
         <v>0</v>
@@ -40079,7 +40058,7 @@
       <c r="B526" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D526" s="33"/>
+      <c r="D526" s="38"/>
       <c r="E526" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D524,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B526)</f>
         <v>0</v>
@@ -40099,7 +40078,7 @@
         <f t="shared" ref="B527" si="115">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D527" s="31" t="s">
+      <c r="D527" s="36" t="s">
         <v>164</v>
       </c>
       <c r="E527" s="18">
@@ -40119,7 +40098,7 @@
       <c r="B528" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D528" s="32"/>
+      <c r="D528" s="37"/>
       <c r="E528" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D527,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B528)</f>
         <v>0</v>
@@ -40137,7 +40116,7 @@
       <c r="B529" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D529" s="33"/>
+      <c r="D529" s="38"/>
       <c r="E529" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D527,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B529)</f>
         <v>0</v>
@@ -40157,7 +40136,7 @@
         <f t="shared" ref="B530" si="116">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D530" s="31" t="s">
+      <c r="D530" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E530" s="18">
@@ -40177,7 +40156,7 @@
       <c r="B531" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D531" s="32"/>
+      <c r="D531" s="37"/>
       <c r="E531" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D530,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B531)</f>
         <v>0</v>
@@ -40195,7 +40174,7 @@
       <c r="B532" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D532" s="33"/>
+      <c r="D532" s="38"/>
       <c r="E532" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D530,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B532)</f>
         <v>0</v>
@@ -40215,7 +40194,7 @@
         <f t="shared" ref="B533" si="117">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D533" s="31" t="s">
+      <c r="D533" s="36" t="s">
         <v>23</v>
       </c>
       <c r="E533" s="18">
@@ -40235,7 +40214,7 @@
       <c r="B534" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D534" s="32"/>
+      <c r="D534" s="37"/>
       <c r="E534" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D533,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B534)</f>
         <v>0</v>
@@ -40253,7 +40232,7 @@
       <c r="B535" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D535" s="33"/>
+      <c r="D535" s="38"/>
       <c r="E535" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D533,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B535)</f>
         <v>1</v>
@@ -40273,7 +40252,7 @@
         <f t="shared" ref="B536" si="118">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D536" s="31" t="s">
+      <c r="D536" s="36" t="s">
         <v>175</v>
       </c>
       <c r="E536" s="18">
@@ -40293,7 +40272,7 @@
       <c r="B537" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D537" s="32"/>
+      <c r="D537" s="37"/>
       <c r="E537" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D536,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B537)</f>
         <v>0</v>
@@ -40311,7 +40290,7 @@
       <c r="B538" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D538" s="33"/>
+      <c r="D538" s="38"/>
       <c r="E538" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D536,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B538)</f>
         <v>0</v>
@@ -40331,7 +40310,7 @@
         <f t="shared" ref="B539" si="119">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D539" s="31" t="s">
+      <c r="D539" s="36" t="s">
         <v>176</v>
       </c>
       <c r="E539" s="18">
@@ -40351,7 +40330,7 @@
       <c r="B540" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D540" s="32"/>
+      <c r="D540" s="37"/>
       <c r="E540" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D539,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B540)</f>
         <v>0</v>
@@ -40369,7 +40348,7 @@
       <c r="B541" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D541" s="33"/>
+      <c r="D541" s="38"/>
       <c r="E541" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D539,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B541)</f>
         <v>0</v>
@@ -40389,7 +40368,7 @@
         <f t="shared" ref="B542" si="120">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D542" s="31" t="s">
+      <c r="D542" s="36" t="s">
         <v>173</v>
       </c>
       <c r="E542" s="18">
@@ -40409,7 +40388,7 @@
       <c r="B543" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D543" s="32"/>
+      <c r="D543" s="37"/>
       <c r="E543" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D542,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B543)</f>
         <v>2</v>
@@ -40427,7 +40406,7 @@
       <c r="B544" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D544" s="33"/>
+      <c r="D544" s="38"/>
       <c r="E544" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D542,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B544)</f>
         <v>0</v>
@@ -40447,7 +40426,7 @@
         <f t="shared" ref="B545" si="121">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D545" s="31" t="s">
+      <c r="D545" s="36" t="s">
         <v>187</v>
       </c>
       <c r="E545" s="18">
@@ -40467,7 +40446,7 @@
       <c r="B546" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D546" s="32"/>
+      <c r="D546" s="37"/>
       <c r="E546" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D545,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B546)</f>
         <v>0</v>
@@ -40485,7 +40464,7 @@
       <c r="B547" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D547" s="33"/>
+      <c r="D547" s="38"/>
       <c r="E547" s="18">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D545,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B547)</f>
         <v>0</v>
@@ -40505,7 +40484,7 @@
         <f t="shared" ref="B548" si="123">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D548" s="31" t="s">
+      <c r="D548" s="36" t="s">
         <v>189</v>
       </c>
       <c r="E548" s="28">
@@ -40525,7 +40504,7 @@
       <c r="B549" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D549" s="32"/>
+      <c r="D549" s="37"/>
       <c r="E549" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D548,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B549)</f>
         <v>0</v>
@@ -40543,7 +40522,7 @@
       <c r="B550" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D550" s="33"/>
+      <c r="D550" s="38"/>
       <c r="E550" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D548,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B550)</f>
         <v>0</v>
@@ -40563,7 +40542,7 @@
         <f t="shared" ref="B551" si="124">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D551" s="31"/>
+      <c r="D551" s="36"/>
       <c r="E551" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D551,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B551)</f>
         <v>0</v>
@@ -40581,7 +40560,7 @@
       <c r="B552" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D552" s="32"/>
+      <c r="D552" s="37"/>
       <c r="E552" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D551,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B552)</f>
         <v>0</v>
@@ -40599,7 +40578,7 @@
       <c r="B553" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D553" s="33"/>
+      <c r="D553" s="38"/>
       <c r="E553" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D551,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B553)</f>
         <v>0</v>
@@ -40619,7 +40598,7 @@
         <f t="shared" ref="B554" si="125">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D554" s="31"/>
+      <c r="D554" s="36"/>
       <c r="E554" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D554,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B554)</f>
         <v>0</v>
@@ -40637,7 +40616,7 @@
       <c r="B555" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D555" s="32"/>
+      <c r="D555" s="37"/>
       <c r="E555" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D554,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B555)</f>
         <v>0</v>
@@ -40655,7 +40634,7 @@
       <c r="B556" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D556" s="33"/>
+      <c r="D556" s="38"/>
       <c r="E556" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D554,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B556)</f>
         <v>0</v>
@@ -40675,7 +40654,7 @@
         <f t="shared" ref="B557" si="126">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D557" s="31"/>
+      <c r="D557" s="36"/>
       <c r="E557" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D557,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B557)</f>
         <v>0</v>
@@ -40693,7 +40672,7 @@
       <c r="B558" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D558" s="32"/>
+      <c r="D558" s="37"/>
       <c r="E558" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D557,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B558)</f>
         <v>0</v>
@@ -40711,7 +40690,7 @@
       <c r="B559" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D559" s="33"/>
+      <c r="D559" s="38"/>
       <c r="E559" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D557,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B559)</f>
         <v>0</v>
@@ -40731,7 +40710,7 @@
         <f t="shared" ref="B560" si="128">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D560" s="31"/>
+      <c r="D560" s="36"/>
       <c r="E560" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D560,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B560)</f>
         <v>0</v>
@@ -40749,7 +40728,7 @@
       <c r="B561" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D561" s="32"/>
+      <c r="D561" s="37"/>
       <c r="E561" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D560,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B561)</f>
         <v>0</v>
@@ -40767,7 +40746,7 @@
       <c r="B562" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D562" s="33"/>
+      <c r="D562" s="38"/>
       <c r="E562" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D560,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B562)</f>
         <v>0</v>
@@ -40787,7 +40766,7 @@
         <f t="shared" ref="B563" si="129">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D563" s="31"/>
+      <c r="D563" s="36"/>
       <c r="E563" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D563,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B563)</f>
         <v>0</v>
@@ -40805,7 +40784,7 @@
       <c r="B564" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D564" s="32"/>
+      <c r="D564" s="37"/>
       <c r="E564" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D563,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B564)</f>
         <v>0</v>
@@ -40823,7 +40802,7 @@
       <c r="B565" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D565" s="33"/>
+      <c r="D565" s="38"/>
       <c r="E565" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D563,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B565)</f>
         <v>0</v>
@@ -40843,7 +40822,7 @@
         <f t="shared" ref="B566" si="130">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D566" s="31"/>
+      <c r="D566" s="36"/>
       <c r="E566" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D566,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B566)</f>
         <v>0</v>
@@ -40861,7 +40840,7 @@
       <c r="B567" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D567" s="32"/>
+      <c r="D567" s="37"/>
       <c r="E567" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D566,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B567)</f>
         <v>0</v>
@@ -40879,7 +40858,7 @@
       <c r="B568" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D568" s="33"/>
+      <c r="D568" s="38"/>
       <c r="E568" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D566,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B568)</f>
         <v>0</v>
@@ -40899,7 +40878,7 @@
         <f t="shared" ref="B569" si="131">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D569" s="31"/>
+      <c r="D569" s="36"/>
       <c r="E569" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D569,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B569)</f>
         <v>0</v>
@@ -40917,7 +40896,7 @@
       <c r="B570" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D570" s="32"/>
+      <c r="D570" s="37"/>
       <c r="E570" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D569,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B570)</f>
         <v>0</v>
@@ -40935,7 +40914,7 @@
       <c r="B571" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D571" s="33"/>
+      <c r="D571" s="38"/>
       <c r="E571" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D569,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B571)</f>
         <v>0</v>
@@ -40955,7 +40934,7 @@
         <f t="shared" ref="B572" si="132">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D572" s="31"/>
+      <c r="D572" s="36"/>
       <c r="E572" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D572,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B572)</f>
         <v>0</v>
@@ -40973,7 +40952,7 @@
       <c r="B573" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D573" s="32"/>
+      <c r="D573" s="37"/>
       <c r="E573" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D572,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B573)</f>
         <v>0</v>
@@ -40991,7 +40970,7 @@
       <c r="B574" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D574" s="33"/>
+      <c r="D574" s="38"/>
       <c r="E574" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D572,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B574)</f>
         <v>0</v>
@@ -41011,7 +40990,7 @@
         <f t="shared" ref="B575" si="133">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D575" s="31"/>
+      <c r="D575" s="36"/>
       <c r="E575" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D575,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B575)</f>
         <v>0</v>
@@ -41029,7 +41008,7 @@
       <c r="B576" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D576" s="32"/>
+      <c r="D576" s="37"/>
       <c r="E576" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D575,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B576)</f>
         <v>0</v>
@@ -41047,7 +41026,7 @@
       <c r="B577" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D577" s="33"/>
+      <c r="D577" s="38"/>
       <c r="E577" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D575,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B577)</f>
         <v>0</v>
@@ -41067,7 +41046,7 @@
         <f t="shared" ref="B578" si="134">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D578" s="31"/>
+      <c r="D578" s="36"/>
       <c r="E578" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D578,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B578)</f>
         <v>0</v>
@@ -41085,7 +41064,7 @@
       <c r="B579" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D579" s="32"/>
+      <c r="D579" s="37"/>
       <c r="E579" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D578,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B579)</f>
         <v>0</v>
@@ -41103,7 +41082,7 @@
       <c r="B580" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D580" s="33"/>
+      <c r="D580" s="38"/>
       <c r="E580" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D578,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B580)</f>
         <v>0</v>
@@ -41123,7 +41102,7 @@
         <f t="shared" ref="B581" si="135">$D$116</f>
         <v>victory</v>
       </c>
-      <c r="D581" s="31"/>
+      <c r="D581" s="36"/>
       <c r="E581" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D581,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B581)</f>
         <v>0</v>
@@ -41141,7 +41120,7 @@
       <c r="B582" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D582" s="32"/>
+      <c r="D582" s="37"/>
       <c r="E582" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D581,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B582)</f>
         <v>0</v>
@@ -41159,7 +41138,7 @@
       <c r="B583" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D583" s="33"/>
+      <c r="D583" s="38"/>
       <c r="E583" s="28">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;E$111&amp;"!I:I"),$D581,INDIRECT($D$111&amp;E$111&amp;"!B:B"),$B583)</f>
         <v>0</v>
@@ -41884,13 +41863,50 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D578:D580"/>
+    <mergeCell ref="D581:D583"/>
+    <mergeCell ref="D563:D565"/>
+    <mergeCell ref="D566:D568"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="D548:D550"/>
+    <mergeCell ref="D551:D553"/>
+    <mergeCell ref="D554:D556"/>
+    <mergeCell ref="D557:D559"/>
+    <mergeCell ref="D560:D562"/>
+    <mergeCell ref="D545:D547"/>
+    <mergeCell ref="D530:D532"/>
+    <mergeCell ref="D533:D535"/>
+    <mergeCell ref="D536:D538"/>
+    <mergeCell ref="D539:D541"/>
+    <mergeCell ref="D542:D544"/>
+    <mergeCell ref="D515:D517"/>
+    <mergeCell ref="D518:D520"/>
+    <mergeCell ref="D521:D523"/>
+    <mergeCell ref="D524:D526"/>
+    <mergeCell ref="D527:D529"/>
+    <mergeCell ref="D500:D502"/>
+    <mergeCell ref="D503:D505"/>
+    <mergeCell ref="D506:D508"/>
+    <mergeCell ref="D509:D511"/>
+    <mergeCell ref="D512:D514"/>
+    <mergeCell ref="C463:C499"/>
+    <mergeCell ref="C278:C314"/>
+    <mergeCell ref="C315:C351"/>
+    <mergeCell ref="C56:C92"/>
+    <mergeCell ref="C241:C277"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C188:C224"/>
+    <mergeCell ref="C225:C231"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="C352:C388"/>
+    <mergeCell ref="C389:C425"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C114:C118"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
@@ -41907,50 +41923,13 @@
     <mergeCell ref="C126:C127"/>
     <mergeCell ref="C179:C180"/>
     <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C463:C499"/>
-    <mergeCell ref="C278:C314"/>
-    <mergeCell ref="C315:C351"/>
-    <mergeCell ref="C56:C92"/>
-    <mergeCell ref="C241:C277"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C188:C224"/>
-    <mergeCell ref="C225:C231"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="C352:C388"/>
-    <mergeCell ref="C389:C425"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D500:D502"/>
-    <mergeCell ref="D503:D505"/>
-    <mergeCell ref="D506:D508"/>
-    <mergeCell ref="D509:D511"/>
-    <mergeCell ref="D512:D514"/>
-    <mergeCell ref="D515:D517"/>
-    <mergeCell ref="D518:D520"/>
-    <mergeCell ref="D521:D523"/>
-    <mergeCell ref="D524:D526"/>
-    <mergeCell ref="D527:D529"/>
-    <mergeCell ref="D545:D547"/>
-    <mergeCell ref="D530:D532"/>
-    <mergeCell ref="D533:D535"/>
-    <mergeCell ref="D536:D538"/>
-    <mergeCell ref="D539:D541"/>
-    <mergeCell ref="D542:D544"/>
-    <mergeCell ref="D548:D550"/>
-    <mergeCell ref="D551:D553"/>
-    <mergeCell ref="D554:D556"/>
-    <mergeCell ref="D557:D559"/>
-    <mergeCell ref="D560:D562"/>
-    <mergeCell ref="D578:D580"/>
-    <mergeCell ref="D581:D583"/>
-    <mergeCell ref="D563:D565"/>
-    <mergeCell ref="D566:D568"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -43364,24 +43343,24 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B48:B1048576 B1:B46">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43397,10 +43376,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -43507,7 +43486,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="str">
-        <f t="shared" ref="A4:A11" si="0">A3</f>
+        <f t="shared" ref="A4:A9" si="0">A3</f>
         <v>Sunday</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -43835,65 +43814,153 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="A15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="21">
+        <v>5</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>3</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1 B12:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WoT.xlsx
+++ b/WoT.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="195">
   <si>
     <t>湖の村</t>
   </si>
@@ -834,6 +834,21 @@
     <t>west</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>T_O_T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIF</t>
+  </si>
+  <si>
+    <t>TIF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPMCW</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1373,7 +1388,28 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="57" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1740,7 +1776,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,19 +2104,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>2.9850746268656716E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.4925373134328358E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.4925373134328358E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>2.9850746268656716E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2213,25 +2249,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>8.9552238805970144E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>2.9850746268656716E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>2.9850746268656716E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>2.9850746268656716E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17460317460317459</c:v>
+                  <c:v>0.16417910447761194</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.4776119402985072E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,25 +2394,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.4776119402985072E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>2.9850746268656716E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.4776119402985072E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>8.9552238805970144E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15873015873015872</c:v>
+                  <c:v>0.20895522388059701</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.1044776119402985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,10 +3924,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.4838709677419355</c:v>
+                  <c:v>0.45714285714285713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5161290322580645</c:v>
+                  <c:v>0.54285714285714282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4253,13 +4289,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.29032258064516131</c:v>
+                  <c:v>0.25714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35483870967741937</c:v>
+                  <c:v>0.31428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35483870967741937</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,10 +4635,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.35483870967741937</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64516129032258063</c:v>
+                  <c:v>0.65714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5122,7 +5158,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.42857142857142855</c:v>
@@ -5155,13 +5191,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -5418,7 +5454,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5472,7 +5508,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.2857142857142857</c:v>
@@ -5505,13 +5541,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -6293,7 +6329,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,61 +6393,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6835,7 +6871,7 @@
                   <c:v>0.54347826086956519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.47619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7012,61 +7048,61 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44820971867007675</c:v>
+                  <c:v>0.50983436853002062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7555,7 +7591,7 @@
                   <c:v>1.2469879518072289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3962264150943395</c:v>
+                  <c:v>1.6551724137931034</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7667,61 +7703,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3216071834507841</c:v>
+                  <c:v>1.4510801828001663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8266,7 +8302,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8320,7 +8356,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.42857142857142855</c:v>
@@ -8353,13 +8389,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -8669,7 +8705,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.2857142857142857</c:v>
@@ -8708,7 +8744,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -15854,7 +15890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -16040,15 +16076,15 @@
       </c>
       <c r="K3" s="8">
         <f t="shared" ref="K3:M9" ca="1" si="1">E3/SUM($X$3:$X$9)</f>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5238095238095233E-2</v>
+        <v>8.9552238805970144E-2</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" ref="N3:N9" ca="1" si="2">E3/SUM($E$3:$E$9)</f>
@@ -16060,29 +16096,29 @@
       </c>
       <c r="P3" s="8">
         <f ca="1">G3/SUM($G$3:$G$9)</f>
-        <v>9.6774193548387094E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="Q3" s="8">
         <f ca="1">SUM(E$3:E$9)/SUM($X$3:$X$9)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>8.9552238805970144E-2</v>
       </c>
       <c r="R3" s="8">
         <f ca="1">SUM(F$3:F$9)/SUM($X$3:$X$9)</f>
-        <v>0.41269841269841268</v>
+        <v>0.38805970149253732</v>
       </c>
       <c r="S3" s="8">
         <f ca="1">SUM(G$3:G$9)/SUM($X$3:$X$9)</f>
-        <v>0.49206349206349204</v>
+        <v>0.52238805970149249</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" ref="T3:T9" ca="1" si="4">SUM($E3:$G3)/SUM($X$3:$X$9)</f>
-        <v>0.17460317460317459</v>
+        <v>0.16417910447761194</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="8">
         <f ca="1">X3/SUM($X$3:$X$9)</f>
-        <v>0.17460317460317459</v>
+        <v>0.16417910447761194</v>
       </c>
       <c r="X3" s="1">
         <f ca="1">SUM(E3:G3)</f>
@@ -16121,15 +16157,15 @@
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -16141,20 +16177,20 @@
       </c>
       <c r="P4" s="8">
         <f t="shared" ref="P4:P9" ca="1" si="11">G4/SUM($G$3:$G$9)</f>
-        <v>6.4516129032258063E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="8">
         <f t="shared" ref="W4:W9" ca="1" si="12">X4/SUM($X$3:$X$9)</f>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="X4" s="1">
         <f t="shared" ref="X4:X53" ca="1" si="13">SUM(E4:G4)</f>
@@ -16197,11 +16233,11 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -16213,20 +16249,20 @@
       </c>
       <c r="P5" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>9.6774193548387094E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16265,15 +16301,15 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5238095238095233E-2</v>
+        <v>8.9552238805970144E-2</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -16285,20 +16321,20 @@
       </c>
       <c r="P6" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.19354838709677419</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0.13432835820895522</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.14285714285714285</v>
+        <v>0.13432835820895522</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16321,31 +16357,31 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6956521739130432E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47826086956521741</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43478260869565216</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17460317460317459</v>
+        <v>0.16417910447761194</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15873015873015872</v>
+        <v>0.20895522388059701</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -16357,24 +16393,24 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32258064516129031</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36507936507936506</v>
+        <v>0.40298507462686567</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.36507936507936506</v>
+        <v>0.40298507462686567</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
@@ -16485,11 +16521,11 @@
       </c>
       <c r="L9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -16501,20 +16537,20 @@
       </c>
       <c r="P9" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22580645161290322</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15873015873015872</v>
+        <v>0.14925373134328357</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15873015873015872</v>
+        <v>0.14925373134328357</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16539,31 +16575,31 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10:G53" ca="1" si="16">X234</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H53" ca="1" si="17">E10/$X10</f>
-        <v>3.4482758620689655E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" ref="I10:I53" ca="1" si="18">F10/$X10</f>
-        <v>0.44827586206896552</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ref="J10:J53" ca="1" si="19">G10/$X10</f>
-        <v>0.51724137931034486</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ref="K10:M11" ca="1" si="20">E10/SUM($X$10:$X$11)</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.20634920634920634</v>
+        <v>0.19402985074626866</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.23809523809523808</v>
+        <v>0.23880597014925373</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ref="N10:P11" ca="1" si="21">E10/SUM(E$10:E$11)</f>
@@ -16575,7 +16611,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="21"/>
-        <v>0.4838709677419355</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -16585,11 +16621,11 @@
       <c r="V10" s="1"/>
       <c r="W10" s="8">
         <f ca="1">X10/SUM($X$10:$X$11)</f>
-        <v>0.46031746031746029</v>
+        <v>0.44776119402985076</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
@@ -16608,31 +16644,31 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.14705882352941177</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.38235294117647056</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.47058823529411764</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.20634920634920634</v>
+        <v>0.19402985074626866</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25396825396825395</v>
+        <v>0.28358208955223879</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="21"/>
@@ -16644,7 +16680,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5161290322580645</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -16654,11 +16690,11 @@
       <c r="V11" s="1"/>
       <c r="W11" s="8">
         <f ca="1">X11/SUM($X$10:$X$11)</f>
-        <v>0.53968253968253965</v>
+        <v>0.55223880597014929</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
@@ -16695,15 +16731,15 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:M13" ca="1" si="22">E12/SUM($X$12:$X$14)</f>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15873015873015872</v>
+        <v>0.14925373134328357</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>0.14285714285714285</v>
+        <v>0.13432835820895522</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ref="N12:P14" ca="1" si="23">E12/SUM(E$12:E$14)</f>
@@ -16715,7 +16751,7 @@
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.29032258064516131</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -16725,7 +16761,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="8">
         <f ca="1">X12/SUM($X$12:$X$14)</f>
-        <v>0.33333333333333331</v>
+        <v>0.31343283582089554</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16764,15 +16800,15 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>0.17460317460317459</v>
+        <v>0.16417910447761194</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="23"/>
@@ -16784,7 +16820,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.35483870967741937</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -16794,7 +16830,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="8">
         <f ca="1">X13/SUM($X$12:$X$14)</f>
-        <v>0.25396825396825395</v>
+        <v>0.23880597014925373</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -16817,31 +16853,31 @@
       </c>
       <c r="G14" s="1">
         <f ca="1">X238</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.5</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.42307692307692307</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="8">
         <f ca="1">E14/SUM($X$15:$X$16)</f>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="L14" s="8">
         <f ca="1">F14/SUM($X$12:$X$14)</f>
-        <v>0.20634920634920634</v>
+        <v>0.19402985074626866</v>
       </c>
       <c r="M14" s="8">
         <f ca="1">G14/SUM($X$12:$X$14)</f>
-        <v>0.17460317460317459</v>
+        <v>0.22388059701492538</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="23"/>
@@ -16853,7 +16889,7 @@
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.35483870967741937</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -16863,11 +16899,11 @@
       <c r="V14" s="1"/>
       <c r="W14" s="8">
         <f ca="1">X14/SUM($X$12:$X$14)</f>
-        <v>0.41269841269841268</v>
+        <v>0.44776119402985076</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
@@ -16888,31 +16924,31 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.125</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="I15" s="8">
         <f ca="1">F15/$X15</f>
-        <v>0.375</v>
+        <v>0.34883720930232559</v>
       </c>
       <c r="J15" s="8">
         <f ca="1">G15/$X15</f>
-        <v>0.5</v>
+        <v>0.53488372093023251</v>
       </c>
       <c r="K15" s="8">
         <f ca="1">E15/SUM($X$15:$X$16)</f>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="L15" s="8">
         <f ca="1">F15/SUM($X$15:$X$16)</f>
-        <v>0.23809523809523808</v>
+        <v>0.22388059701492538</v>
       </c>
       <c r="M15" s="8">
         <f ca="1">G15/SUM($X$15:$X$16)</f>
-        <v>0.31746031746031744</v>
+        <v>0.34328358208955223</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ref="N15:P16" ca="1" si="24">E15/SUM(E$15:E$16)</f>
@@ -16924,7 +16960,7 @@
       </c>
       <c r="P15" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0.64516129032258063</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -16934,11 +16970,11 @@
       <c r="V15" s="1"/>
       <c r="W15" s="8">
         <f ca="1">X15/SUM($X$15:$X$16)</f>
-        <v>0.63492063492063489</v>
+        <v>0.64179104477611937</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.15">
@@ -16957,31 +16993,31 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3478260869565216E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I16" s="8">
         <f ca="1">F16/$X16</f>
-        <v>0.47826086956521741</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="J16" s="8">
         <f ca="1">G16/$X16</f>
-        <v>0.47826086956521741</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="8">
         <f ca="1">E16/SUM($X$15:$X$16)</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="L16" s="8">
         <f ca="1">F16/SUM($X$15:$X$16)</f>
-        <v>0.17460317460317459</v>
+        <v>0.16417910447761194</v>
       </c>
       <c r="M16" s="8">
         <f ca="1">G16/SUM($X$15:$X$16)</f>
-        <v>0.17460317460317459</v>
+        <v>0.17910447761194029</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="24"/>
@@ -16993,7 +17029,7 @@
       </c>
       <c r="P16" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0.35483870967741937</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -17003,11 +17039,11 @@
       <c r="V16" s="1"/>
       <c r="W16" s="8">
         <f ca="1">X16/SUM($X$15:$X$16)</f>
-        <v>0.36507936507936506</v>
+        <v>0.35820895522388058</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.15">
@@ -17028,7 +17064,7 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="17"/>
@@ -17036,11 +17072,11 @@
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="K17" s="8">
         <f ca="1">E17/SUM($X$17:$X$53)</f>
@@ -17048,11 +17084,11 @@
       </c>
       <c r="L17" s="8">
         <f ca="1">F17/SUM($X$17:$X$53)</f>
-        <v>6.3492063492063489E-2</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="M17" s="8">
         <f ca="1">G17/SUM($X$17:$X$53)</f>
-        <v>3.1746031746031744E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="N17" s="8">
         <f ca="1">E17/SUM($E$17:$E$53)</f>
@@ -17064,7 +17100,7 @@
       </c>
       <c r="P17" s="8">
         <f ca="1">G17/SUM($G$17:$G$53)</f>
-        <v>6.4516129032258063E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -17074,11 +17110,11 @@
       <c r="V17" s="1"/>
       <c r="W17" s="8">
         <f ca="1">X17/SUM($X$17:$X$53)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.15">
@@ -17251,15 +17287,15 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -17271,7 +17307,7 @@
       </c>
       <c r="P20" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>6.4516129032258063E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -17281,7 +17317,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>9.5238095238095233E-2</v>
+        <v>8.9552238805970144E-2</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -17389,15 +17425,15 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>6.3492063492063489E-2</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -17409,7 +17445,7 @@
       </c>
       <c r="P22" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.12903225806451613</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -17419,7 +17455,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.14285714285714285</v>
+        <v>0.13432835820895522</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -17600,11 +17636,11 @@
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>6.3492063492063489E-2</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -17616,7 +17652,7 @@
       </c>
       <c r="P25" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.12903225806451613</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -17626,7 +17662,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -18270,7 +18306,7 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" ca="1" si="17"/>
@@ -18278,11 +18314,11 @@
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="25"/>
@@ -18290,11 +18326,11 @@
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1746031746031744E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -18306,7 +18342,7 @@
       </c>
       <c r="P35" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>6.4516129032258063E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -18316,11 +18352,11 @@
       <c r="V35" s="1"/>
       <c r="W35" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>4.7619047619047616E-2</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="X35" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.15">
@@ -18359,11 +18395,11 @@
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>6.3492063492063489E-2</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>0.15873015873015872</v>
+        <v>0.14925373134328357</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -18375,7 +18411,7 @@
       </c>
       <c r="P36" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.32258064516129031</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -18385,7 +18421,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.22222222222222221</v>
+        <v>0.20895522388059701</v>
       </c>
       <c r="X36" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -18424,15 +18460,15 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>3.1746031746031744E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>6.3492063492063489E-2</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -18444,7 +18480,7 @@
       </c>
       <c r="P37" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>0.12903225806451613</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -18454,7 +18490,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.17460317460317459</v>
+        <v>0.16417910447761194</v>
       </c>
       <c r="X37" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -19029,7 +19065,7 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" ca="1" si="17"/>
@@ -19037,11 +19073,11 @@
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J46" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K46" s="8">
         <f t="shared" ca="1" si="25"/>
@@ -19049,11 +19085,11 @@
       </c>
       <c r="L46" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>1.5873015873015872E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -19065,7 +19101,7 @@
       </c>
       <c r="P46" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>3.2258064516129031E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -19075,11 +19111,11 @@
       <c r="V46" s="1"/>
       <c r="W46" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>3.1746031746031744E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="X46" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.15">
@@ -19167,7 +19203,7 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" ca="1" si="17"/>
@@ -19175,11 +19211,11 @@
       </c>
       <c r="I48" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="J48" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="K48" s="8">
         <f t="shared" ca="1" si="25"/>
@@ -19187,11 +19223,11 @@
       </c>
       <c r="L48" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1746031746031744E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" ca="1" si="28"/>
@@ -19203,7 +19239,7 @@
       </c>
       <c r="P48" s="8">
         <f t="shared" ca="1" si="30"/>
-        <v>6.4516129032258063E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -19213,11 +19249,11 @@
       <c r="V48" s="1"/>
       <c r="W48" s="8">
         <f t="shared" ca="1" si="31"/>
-        <v>0.1111111111111111</v>
+        <v>0.11940298507462686</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.15">
@@ -19657,11 +19693,11 @@
       </c>
       <c r="F56" s="9">
         <f ca="1">X315</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="9">
         <f ca="1">SUM(E17:G17)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H56" s="8">
         <f ca="1">IFERROR(E56/G56,"")</f>
@@ -19669,11 +19705,11 @@
       </c>
       <c r="I56" s="8">
         <f ca="1">IFERROR(F56/G56,"")</f>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J56" s="11">
         <f ca="1">X352</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" s="11">
         <f ca="1">X389</f>
@@ -19681,11 +19717,11 @@
       </c>
       <c r="L56" s="11">
         <f ca="1">G56</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56" s="8">
         <f ca="1">IFERROR(J56/L56,"")</f>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N56" s="8">
         <f ca="1">IFERROR(K56/L56,"")</f>
@@ -20841,7 +20877,7 @@
       </c>
       <c r="E74" s="9">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" ca="1" si="33"/>
@@ -20849,15 +20885,15 @@
       </c>
       <c r="G74" s="9">
         <f t="shared" ca="1" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="J74" s="11">
         <f t="shared" ca="1" si="37"/>
@@ -20865,19 +20901,19 @@
       </c>
       <c r="K74" s="11">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="11">
         <f t="shared" ca="1" si="39"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" s="8">
         <f t="shared" ca="1" si="40"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="N74" s="8">
         <f t="shared" ca="1" si="41"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="O74" s="11">
         <f t="shared" ca="1" si="42"/>
@@ -21571,23 +21607,23 @@
       </c>
       <c r="F85" s="9">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="9">
         <f t="shared" ca="1" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" ca="1" si="35"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J85" s="11">
         <f ca="1">X381</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" s="11">
         <f ca="1">X418</f>
@@ -21595,11 +21631,11 @@
       </c>
       <c r="L85" s="11">
         <f t="shared" ca="1" si="39"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M85" s="8">
         <f t="shared" ca="1" si="40"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N85" s="8">
         <f t="shared" ca="1" si="41"/>
@@ -21703,23 +21739,23 @@
       </c>
       <c r="F87" s="9">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" ca="1" si="34"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" ca="1" si="35"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J87" s="11">
         <f t="shared" ca="1" si="45"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87" s="11">
         <f t="shared" ca="1" si="46"/>
@@ -21727,15 +21763,15 @@
       </c>
       <c r="L87" s="11">
         <f t="shared" ca="1" si="39"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M87" s="8">
         <f t="shared" ca="1" si="40"/>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="N87" s="8">
         <f t="shared" ca="1" si="41"/>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="O87" s="11">
         <f t="shared" ca="1" si="42"/>
@@ -22214,15 +22250,15 @@
       </c>
       <c r="E97" s="14">
         <f ca="1">X232</f>
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="F97" s="14">
         <f ca="1">X233</f>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G97" s="14">
         <f ca="1">E97/F97</f>
-        <v>3.2280701754385963</v>
+        <v>3.3225806451612905</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -22248,15 +22284,15 @@
       </c>
       <c r="E98" s="14">
         <f ca="1">SUM(E95:E97)</f>
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="F98" s="14">
         <f ca="1">SUM(F95:F97)</f>
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G98" s="14">
         <f ca="1">E98/F98</f>
-        <v>1.2831050228310503</v>
+        <v>1.3526785714285714</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -22311,7 +22347,7 @@
       </c>
       <c r="F100" s="14">
         <f t="shared" ref="F100:W100" ca="1" si="47">F126+F179+F232</f>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G100" s="14">
         <f t="shared" si="47"/>
@@ -22393,7 +22429,7 @@
       </c>
       <c r="F101" s="14">
         <f t="shared" ref="F101:W101" ca="1" si="48">F127+F180+F233</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G101" s="14">
         <f t="shared" si="48"/>
@@ -22476,7 +22512,7 @@
       </c>
       <c r="F102" s="30">
         <f ca="1">F100/F101</f>
-        <v>1.3962264150943395</v>
+        <v>1.6551724137931034</v>
       </c>
       <c r="G102" s="14" t="str">
         <f t="shared" ref="G102:W102" si="49">IFERROR(G100/G101,"")</f>
@@ -22555,79 +22591,79 @@
       </c>
       <c r="E103" s="14">
         <f ca="1">SUM(E102:W102)/E109</f>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="F103" s="30">
         <f ca="1">E103</f>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="G103" s="14">
         <f t="shared" ref="G103:W103" ca="1" si="50">F103</f>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="H103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="I103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="J103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="K103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="M103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="N103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="O103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="P103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="Q103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="R103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="S103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="T103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="U103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="V103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="W103" s="14">
         <f t="shared" ca="1" si="50"/>
-        <v>1.3216071834507841</v>
+        <v>1.4510801828001663</v>
       </c>
       <c r="X103" s="4"/>
     </row>
@@ -22642,7 +22678,7 @@
       </c>
       <c r="F104" s="30">
         <f ca="1">F100/F117</f>
-        <v>4.3529411764705879</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="G104" s="14" t="str">
         <f t="shared" ref="G104:W104" si="51">IFERROR(G100/G117,"")</f>
@@ -22714,7 +22750,7 @@
       </c>
       <c r="X104" s="14">
         <f ca="1">SUM(E104:W104)</f>
-        <v>8.852941176470587</v>
+        <v>9.0714285714285712</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.15">
@@ -22728,7 +22764,7 @@
       </c>
       <c r="F105" s="30">
         <f ca="1">F101/F117</f>
-        <v>3.1176470588235294</v>
+        <v>2.7619047619047619</v>
       </c>
       <c r="G105" s="14" t="str">
         <f t="shared" ref="G105:W105" si="52">IFERROR(G101/G117,"")</f>
@@ -22800,7 +22836,7 @@
       </c>
       <c r="X105" s="14">
         <f ca="1">SUM(E105:W105)</f>
-        <v>6.726342710997443</v>
+        <v>6.3706004140786749</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.15">
@@ -22810,83 +22846,83 @@
       </c>
       <c r="E106" s="14">
         <f ca="1">X106/E109</f>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="F106" s="14">
         <f ca="1">E106</f>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="G106" s="14">
         <f t="shared" ref="G106:W106" ca="1" si="53">F106</f>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="H106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="I106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="J106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="K106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="M106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="N106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="O106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="P106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="Q106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="R106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="S106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="T106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="U106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="V106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="W106" s="14">
         <f t="shared" ca="1" si="53"/>
-        <v>7.789641943734015</v>
+        <v>7.7210144927536231</v>
       </c>
       <c r="X106" s="14">
         <f ca="1">SUM(X104:X105)</f>
-        <v>15.57928388746803</v>
+        <v>15.442028985507246</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.15">
@@ -23150,79 +23186,79 @@
       </c>
       <c r="E112" s="8">
         <f ca="1">SUM(E113:W113) / E109</f>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="F112" s="8">
         <f ca="1">E112</f>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" ref="G112:W112" ca="1" si="56">F112</f>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="H112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="I112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="J112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="K112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="L112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="M112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="N112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="P112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="Q112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="R112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="S112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="T112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="U112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="V112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="W112" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>0.44820971867007675</v>
+        <v>0.50983436853002062</v>
       </c>
       <c r="X112" s="1"/>
     </row>
@@ -23239,7 +23275,7 @@
       </c>
       <c r="F113" s="8">
         <f ca="1">IFERROR(F116/SUM(F114:F116),"")</f>
-        <v>0.35294117647058826</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" ref="G113:W113" si="57">IFERROR(G116/SUM(G114:G116),"")</f>
@@ -23403,7 +23439,7 @@
       </c>
       <c r="F116" s="30">
         <f t="shared" ca="1" si="58"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -23424,7 +23460,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.15">
@@ -23440,7 +23476,7 @@
       </c>
       <c r="F117" s="30">
         <f ca="1">SUM(F114:F116)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G117" s="14">
         <f t="shared" ref="G117:W117" si="60">SUM(G114:G116)</f>
@@ -23521,83 +23557,83 @@
       </c>
       <c r="E118" s="11">
         <f ca="1">X118/E109</f>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="F118" s="11">
         <f ca="1">E118</f>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="G118" s="11">
         <f t="shared" ref="G118:W118" ca="1" si="61">F118</f>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="H118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="I118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="J118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="K118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="L118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="M118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="N118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="O118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="P118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="Q118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="R118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="S118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="T118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="U118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="V118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="W118" s="11">
         <f t="shared" ca="1" si="61"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="X118" s="9">
         <f ca="1">SUM(X114:X116)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.15">
@@ -28042,7 +28078,7 @@
       </c>
       <c r="F229" s="30">
         <f t="shared" ca="1" si="76"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -28063,7 +28099,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.15">
@@ -28164,7 +28200,7 @@
       </c>
       <c r="F232" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!D:D"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B232)</f>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
@@ -28185,7 +28221,7 @@
       <c r="W232" s="12"/>
       <c r="X232" s="12">
         <f t="shared" ca="1" si="72"/>
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.15">
@@ -28204,7 +28240,7 @@
       </c>
       <c r="F233" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!E:E"),INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B233)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G233" s="12"/>
       <c r="H233" s="12"/>
@@ -28225,7 +28261,7 @@
       <c r="W233" s="12"/>
       <c r="X233" s="12">
         <f t="shared" ca="1" si="72"/>
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.15">
@@ -28246,7 +28282,7 @@
       </c>
       <c r="F234" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!F:F"),$D234,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B234)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -28267,7 +28303,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.15">
@@ -28286,7 +28322,7 @@
       </c>
       <c r="F235" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!F:F"),$D235,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B235)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -28307,7 +28343,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.15">
@@ -28408,7 +28444,7 @@
       </c>
       <c r="F238" s="30">
         <f t="shared" ca="1" si="77"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -28429,7 +28465,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.15">
@@ -28450,7 +28486,7 @@
       </c>
       <c r="F239" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!H:H"),$D239,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B239)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -28471,7 +28507,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.15">
@@ -28490,7 +28526,7 @@
       </c>
       <c r="F240" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!H:H"),$D240,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B240)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -28511,7 +28547,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1">
         <f t="shared" ca="1" si="72"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.15">
@@ -28532,7 +28568,7 @@
       </c>
       <c r="F241" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D241,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B241)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -28553,7 +28589,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1">
         <f t="shared" ref="X241:X304" ca="1" si="78">SUM(E241:W241)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.15">
@@ -29252,7 +29288,7 @@
       </c>
       <c r="F259" s="30">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -29273,7 +29309,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.15">
@@ -29692,7 +29728,7 @@
       </c>
       <c r="F270" s="30">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -29713,7 +29749,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.15">
@@ -29772,7 +29808,7 @@
       </c>
       <c r="F272" s="30">
         <f t="shared" ca="1" si="79"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -29793,7 +29829,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1">
         <f t="shared" ca="1" si="78"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.15">
@@ -30791,7 +30827,7 @@
       </c>
       <c r="F296" s="30">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" s="14"/>
       <c r="H296" s="14"/>
@@ -30812,7 +30848,7 @@
       <c r="W296" s="14"/>
       <c r="X296" s="14">
         <f t="shared" ca="1" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.15">
@@ -31610,7 +31646,7 @@
       </c>
       <c r="F315" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D315,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B315,INDIRECT($D$111&amp;F$111&amp;"!F:F"),$A315)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G315" s="14"/>
       <c r="H315" s="14"/>
@@ -31631,7 +31667,7 @@
       <c r="W315" s="14"/>
       <c r="X315" s="14">
         <f t="shared" ca="1" si="83"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:24" x14ac:dyDescent="0.15">
@@ -32857,7 +32893,7 @@
       </c>
       <c r="F344" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D344,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B344,INDIRECT($D$111&amp;F$111&amp;"!F:F"),$A344)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G344" s="14"/>
       <c r="H344" s="14"/>
@@ -32878,7 +32914,7 @@
       <c r="W344" s="14"/>
       <c r="X344" s="14">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.15">
@@ -32943,7 +32979,7 @@
       </c>
       <c r="F346" s="30">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G346" s="14"/>
       <c r="H346" s="14"/>
@@ -32964,7 +33000,7 @@
       <c r="W346" s="14"/>
       <c r="X346" s="14">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.15">
@@ -33202,7 +33238,7 @@
       </c>
       <c r="F352" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D352,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B352,INDIRECT($D$111&amp;F$111&amp;"!H:H"),$A352)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G352" s="14"/>
       <c r="H352" s="14"/>
@@ -33223,7 +33259,7 @@
       <c r="W352" s="14"/>
       <c r="X352" s="14">
         <f t="shared" ref="X352:X378" ca="1" si="87">SUM(E352:W352)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:24" x14ac:dyDescent="0.15">
@@ -34449,7 +34485,7 @@
       </c>
       <c r="F381" s="30">
         <f t="shared" ca="1" si="88"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381" s="14"/>
       <c r="H381" s="14"/>
@@ -34470,7 +34506,7 @@
       <c r="W381" s="14"/>
       <c r="X381" s="14">
         <f t="shared" ca="1" si="91"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.15">
@@ -34535,7 +34571,7 @@
       </c>
       <c r="F383" s="30">
         <f t="shared" ca="1" si="88"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G383" s="14"/>
       <c r="H383" s="14"/>
@@ -34556,7 +34592,7 @@
       <c r="W383" s="14"/>
       <c r="X383" s="14">
         <f t="shared" ca="1" si="91"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:24" x14ac:dyDescent="0.15">
@@ -35568,7 +35604,7 @@
       </c>
       <c r="F407" s="30">
         <f t="shared" ca="1" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G407" s="14"/>
       <c r="H407" s="14"/>
@@ -35589,7 +35625,7 @@
       <c r="W407" s="14"/>
       <c r="X407" s="14">
         <f t="shared" ca="1" si="91"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:24" x14ac:dyDescent="0.15">
@@ -36386,7 +36422,7 @@
       </c>
       <c r="F426" s="30">
         <f ca="1">SUMIFS(INDIRECT($D$111&amp;F$111&amp;"!D:D"),INDIRECT($D$111&amp;F$111&amp;"!C:C"),$D426)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G426" s="15"/>
       <c r="H426" s="15"/>
@@ -36407,7 +36443,7 @@
       <c r="W426" s="15"/>
       <c r="X426" s="15">
         <f t="shared" ref="X426:X452" ca="1" si="96">SUM(E426:W426)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="427" spans="1:24" x14ac:dyDescent="0.15">
@@ -37160,7 +37196,7 @@
       </c>
       <c r="F444" s="30">
         <f t="shared" ca="1" si="97"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G444" s="15"/>
       <c r="H444" s="15"/>
@@ -37181,7 +37217,7 @@
       <c r="W444" s="15"/>
       <c r="X444" s="15">
         <f t="shared" ca="1" si="96"/>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="445" spans="1:24" x14ac:dyDescent="0.15">
@@ -37633,7 +37669,7 @@
       </c>
       <c r="F455" s="30">
         <f t="shared" ca="1" si="97"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G455" s="15"/>
       <c r="H455" s="15"/>
@@ -37654,7 +37690,7 @@
       <c r="W455" s="15"/>
       <c r="X455" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" spans="1:24" x14ac:dyDescent="0.15">
@@ -37719,7 +37755,7 @@
       </c>
       <c r="F457" s="30">
         <f t="shared" ca="1" si="97"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G457" s="15"/>
       <c r="H457" s="15"/>
@@ -37740,7 +37776,7 @@
       <c r="W457" s="15"/>
       <c r="X457" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="458" spans="1:24" x14ac:dyDescent="0.15">
@@ -38752,7 +38788,7 @@
       </c>
       <c r="F481" s="30">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G481" s="15"/>
       <c r="H481" s="15"/>
@@ -38773,7 +38809,7 @@
       <c r="W481" s="15"/>
       <c r="X481" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="482" spans="1:24" x14ac:dyDescent="0.15">
@@ -39225,7 +39261,7 @@
       </c>
       <c r="F492" s="30">
         <f t="shared" ca="1" si="100"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G492" s="15"/>
       <c r="H492" s="15"/>
@@ -39246,7 +39282,7 @@
       <c r="W492" s="15"/>
       <c r="X492" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="493" spans="1:24" x14ac:dyDescent="0.15">
@@ -39311,7 +39347,7 @@
       </c>
       <c r="F494" s="30">
         <f t="shared" ca="1" si="100"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G494" s="15"/>
       <c r="H494" s="15"/>
@@ -39332,7 +39368,7 @@
       <c r="W494" s="15"/>
       <c r="X494" s="15">
         <f t="shared" ca="1" si="99"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="495" spans="1:24" x14ac:dyDescent="0.15">
@@ -40087,11 +40123,11 @@
       </c>
       <c r="F527" s="30">
         <f ca="1">COUNTIFS(INDIRECT($D$111&amp;F$111&amp;"!I:I"),$D527,INDIRECT($D$111&amp;F$111&amp;"!B:B"),$B527)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X527" s="18">
         <f t="shared" ca="1" si="113"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:24" x14ac:dyDescent="0.15">
@@ -41951,7 +41987,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -43343,24 +43379,24 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B48:B1048576 B1:B46">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43376,10 +43412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -43929,42 +43965,158 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="21">
+        <v>6</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>7</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="21">
+        <v>4</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1 B12:B1048576">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"draw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"defeat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"victory"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>